--- a/data_clean/Equinor 15.12.2020.xlsx
+++ b/data_clean/Equinor 15.12.2020.xlsx
@@ -1512,7 +1512,7 @@
         <v>1.409459326159073</v>
       </c>
       <c r="K2">
-        <v>51.96240302615031</v>
+        <v>0.01962403026150369</v>
       </c>
       <c r="L2">
         <v>0.003339159447637075</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1583,7 +1583,7 @@
         <v>1.409459326159073</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.05485899365880644</v>
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1654,7 +1654,7 @@
         <v>9.50000000000324</v>
       </c>
       <c r="K4">
-        <v>90.47619047619341</v>
+        <v>0.4047619047619341</v>
       </c>
       <c r="L4">
         <v>0.03850504898172789</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000459453250632</v>
+        <v>0.0004594532506316806</v>
       </c>
       <c r="V4">
-        <v>1.000459453250632</v>
+        <v>0.0004594532506316806</v>
       </c>
       <c r="W4">
-        <v>0.9996560027519781</v>
+        <v>-0.0003439972480219211</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1725,7 +1725,7 @@
         <v>13.71052631579391</v>
       </c>
       <c r="K5">
-        <v>93.20214669052083</v>
+        <v>0.4320214669052084</v>
       </c>
       <c r="L5">
         <v>0.03381976927751169</v>
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000574052812859</v>
+        <v>0.0005740528128588274</v>
       </c>
       <c r="V5">
-        <v>1.000574052812859</v>
+        <v>0.0005740528128588274</v>
       </c>
       <c r="W5">
-        <v>1.001376462491397</v>
+        <v>0.001376462491397001</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1796,7 +1796,7 @@
         <v>6.503942181340502</v>
       </c>
       <c r="K6">
-        <v>86.67367130724134</v>
+        <v>0.3667367130724134</v>
       </c>
       <c r="L6">
         <v>0.02967023942924844</v>
@@ -1826,13 +1826,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000275387263339</v>
+        <v>0.0002753872633391996</v>
       </c>
       <c r="V6">
-        <v>1.000275387263339</v>
+        <v>0.0002753872633391996</v>
       </c>
       <c r="W6">
-        <v>0.999656357388316</v>
+        <v>-0.0003436426116839586</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1867,7 +1867,7 @@
         <v>7.610519399682317</v>
       </c>
       <c r="K7">
-        <v>88.38629874015621</v>
+        <v>0.3838629874015621</v>
       </c>
       <c r="L7">
         <v>0.02716433439644596</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000298254066579</v>
+        <v>0.000298254066579462</v>
       </c>
       <c r="V7">
-        <v>1.000298254066579</v>
+        <v>0.000298254066579462</v>
       </c>
       <c r="W7">
-        <v>1.000687521485047</v>
+        <v>0.0006875214850465827</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1938,7 +1938,7 @@
         <v>8.775337524252318</v>
       </c>
       <c r="K8">
-        <v>89.77017420095183</v>
+        <v>0.3977017420095182</v>
       </c>
       <c r="L8">
         <v>0.02590070243545582</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.00031127129751</v>
+        <v>0.0003112712975097409</v>
       </c>
       <c r="V8">
-        <v>1.00031127129751</v>
+        <v>0.0003112712975097409</v>
       </c>
       <c r="W8">
-        <v>1.000687049124012</v>
+        <v>0.0006870491240122956</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2009,7 +2009,7 @@
         <v>14.90595923251583</v>
       </c>
       <c r="K9">
-        <v>93.71304813886518</v>
+        <v>0.4371304813886517</v>
       </c>
       <c r="L9">
         <v>0.02800422963843927</v>
@@ -2039,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000663292880656</v>
+        <v>0.0006632928806562521</v>
       </c>
       <c r="V9">
-        <v>1.000663292880656</v>
+        <v>0.0006632928806562521</v>
       </c>
       <c r="W9">
-        <v>1.003432887058016</v>
+        <v>0.00343288705801581</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2080,7 +2080,7 @@
         <v>6.507284992794063</v>
       </c>
       <c r="K10">
-        <v>86.67960519735351</v>
+        <v>0.3667960519735352</v>
       </c>
       <c r="L10">
         <v>0.02998239864918544</v>
@@ -2110,13 +2110,13 @@
         <v>0.08611111111110858</v>
       </c>
       <c r="U10">
-        <v>1.000439174352218</v>
+        <v>0.0004391743522178526</v>
       </c>
       <c r="V10">
-        <v>1.000439174352218</v>
+        <v>0.0004391743522178526</v>
       </c>
       <c r="W10">
-        <v>0.9993157714676703</v>
+        <v>-0.0006842285323297448</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2151,7 +2151,7 @@
         <v>6.507284992794063</v>
       </c>
       <c r="K11">
-        <v>86.67960519735351</v>
+        <v>0.3667960519735352</v>
       </c>
       <c r="L11">
         <v>0.03136082143428436</v>
@@ -2181,13 +2181,13 @@
         <v>0.1225000000000023</v>
       </c>
       <c r="U11">
-        <v>1.00035118525022</v>
+        <v>0.0003511852502195989</v>
       </c>
       <c r="V11">
-        <v>1.00035118525022</v>
+        <v>0.0003511852502195989</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2222,7 +2222,7 @@
         <v>4.959226013908434</v>
       </c>
       <c r="K12">
-        <v>83.21929731032071</v>
+        <v>0.3321929731032072</v>
       </c>
       <c r="L12">
         <v>0.03187405804847782</v>
@@ -2252,13 +2252,13 @@
         <v>0.1727272727272862</v>
       </c>
       <c r="U12">
-        <v>1.000256011589207</v>
+        <v>0.0002560115892074055</v>
       </c>
       <c r="V12">
-        <v>1.000256011589207</v>
+        <v>0.0002560115892074055</v>
       </c>
       <c r="W12">
-        <v>0.9996576514892159</v>
+        <v>-0.000342348510784074</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2293,7 +2293,7 @@
         <v>1.651238496804841</v>
       </c>
       <c r="K13">
-        <v>62.281778828832</v>
+        <v>0.1228177882883199</v>
       </c>
       <c r="L13">
         <v>0.03019310015522261</v>
@@ -2323,13 +2323,13 @@
         <v>0.1875</v>
       </c>
       <c r="U13">
-        <v>0.99998439353268</v>
+        <v>-1.560646732001736E-05</v>
       </c>
       <c r="V13">
-        <v>0.99998439353268</v>
+        <v>-1.560646732001736E-05</v>
       </c>
       <c r="W13">
-        <v>0.9972602739726028</v>
+        <v>-0.002739726027397249</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2364,7 +2364,7 @@
         <v>1.826774564000658</v>
       </c>
       <c r="K14">
-        <v>64.62399185505876</v>
+        <v>0.1462399185505876</v>
       </c>
       <c r="L14">
         <v>0.02785127526114918</v>
@@ -2394,13 +2394,13 @@
         <v>0.2129807692307679</v>
       </c>
       <c r="U14">
-        <v>1.000039617035325</v>
+        <v>3.961703532517902E-05</v>
       </c>
       <c r="V14">
-        <v>1.000039617035325</v>
+        <v>3.961703532517902E-05</v>
       </c>
       <c r="W14">
-        <v>1.000686813186813</v>
+        <v>0.0006868131868131844</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2435,7 +2435,7 @@
         <v>1.43033872107196</v>
       </c>
       <c r="K15">
-        <v>58.85347209713526</v>
+        <v>0.08853472097135262</v>
       </c>
       <c r="L15">
         <v>0.024749654476508</v>
@@ -2465,13 +2465,13 @@
         <v>0.21875</v>
       </c>
       <c r="U15">
-        <v>0.9999603845341221</v>
+        <v>-3.961546587794018E-05</v>
       </c>
       <c r="V15">
-        <v>0.9999603845341221</v>
+        <v>-3.961546587794018E-05</v>
       </c>
       <c r="W15">
-        <v>0.9989704873026769</v>
+        <v>-0.001029512697323098</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2506,7 +2506,7 @@
         <v>1.164357638711608</v>
       </c>
       <c r="K16">
-        <v>53.79691497772628</v>
+        <v>0.03796914977726285</v>
       </c>
       <c r="L16">
         <v>0.02093014702630414</v>
@@ -2536,13 +2536,13 @@
         <v>0.2024999999999864</v>
       </c>
       <c r="U16">
-        <v>0.9998969957081546</v>
+        <v>-0.0001030042918453988</v>
       </c>
       <c r="V16">
-        <v>0.9998969957081546</v>
+        <v>-0.0001030042918453988</v>
       </c>
       <c r="W16">
-        <v>0.9989694263139814</v>
+        <v>-0.001030573686018554</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2577,7 +2577,7 @@
         <v>1.294853575359514</v>
       </c>
       <c r="K17">
-        <v>56.42423504761783</v>
+        <v>0.06424235047617832</v>
       </c>
       <c r="L17">
         <v>0.01726898866393675</v>
@@ -2607,13 +2607,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U17">
-        <v>0.9999527848362062</v>
+        <v>-4.72151637938012E-05</v>
       </c>
       <c r="V17">
-        <v>1.000297598608154</v>
+        <v>0.0002975986081541482</v>
       </c>
       <c r="W17">
-        <v>1.000687757909216</v>
+        <v>0.0006877579092159358</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2648,7 +2648,7 @@
         <v>1.432217719199415</v>
       </c>
       <c r="K18">
-        <v>58.88525964981628</v>
+        <v>0.08885259649816279</v>
       </c>
       <c r="L18">
         <v>0.01420758958564272</v>
@@ -2678,13 +2678,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U18">
-        <v>0.9999987375028563</v>
+        <v>-1.262497143716956E-06</v>
       </c>
       <c r="V18">
-        <v>1.000114426949835</v>
+        <v>0.0001144269498352113</v>
       </c>
       <c r="W18">
-        <v>1.000687285223368</v>
+        <v>0.0006872852233676952</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2719,7 +2719,7 @@
         <v>1.793702308251808</v>
       </c>
       <c r="K19">
-        <v>64.20520550646064</v>
+        <v>0.1420520550646064</v>
       </c>
       <c r="L19">
         <v>0.012375598737153</v>
@@ -2749,13 +2749,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U19">
-        <v>1.0000942665724</v>
+        <v>9.426657240019232E-05</v>
       </c>
       <c r="V19">
-        <v>1.000251710487174</v>
+        <v>0.0002517104871739839</v>
       </c>
       <c r="W19">
-        <v>1.001717032967033</v>
+        <v>0.001717032967033072</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2790,7 +2790,7 @@
         <v>2.022008364495433</v>
       </c>
       <c r="K20">
-        <v>66.90942315882822</v>
+        <v>0.1690942315882822</v>
       </c>
       <c r="L20">
         <v>0.01173573614822911</v>
@@ -2820,13 +2820,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U20">
-        <v>1.000138551712921</v>
+        <v>0.0001385517129208758</v>
       </c>
       <c r="V20">
-        <v>1.000228770131772</v>
+        <v>0.0002287701317715829</v>
       </c>
       <c r="W20">
-        <v>1.001028453890984</v>
+        <v>0.001028453890983938</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2861,7 +2861,7 @@
         <v>2.022008364495433</v>
       </c>
       <c r="K21">
-        <v>66.90942315882822</v>
+        <v>0.1690942315882822</v>
       </c>
       <c r="L21">
         <v>0.01176331512451276</v>
@@ -2891,13 +2891,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U21">
-        <v>1.000124679267103</v>
+        <v>0.0001246792671028008</v>
       </c>
       <c r="V21">
-        <v>1.000251589588766</v>
+        <v>0.0002515895887655883</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2932,7 +2932,7 @@
         <v>2.106331930975089</v>
       </c>
       <c r="K22">
-        <v>67.80769015608398</v>
+        <v>0.1780769015608398</v>
       </c>
       <c r="L22">
         <v>0.01225695543053733</v>
@@ -2962,13 +2962,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U22">
-        <v>1.000129137508561</v>
+        <v>0.0001291375085614721</v>
       </c>
       <c r="V22">
-        <v>1.000228660279423</v>
+        <v>0.0002286602794228099</v>
       </c>
       <c r="W22">
-        <v>1.000342465753425</v>
+        <v>0.000342465753424781</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3003,7 +3003,7 @@
         <v>2.195093579900991</v>
       </c>
       <c r="K23">
-        <v>68.70201216356901</v>
+        <v>0.18702012163569</v>
       </c>
       <c r="L23">
         <v>0.01306889118945862</v>
@@ -3033,13 +3033,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U23">
-        <v>1.000132984058257</v>
+        <v>0.000132984058257346</v>
       </c>
       <c r="V23">
-        <v>1.000205747205267</v>
+        <v>0.000205747205267226</v>
       </c>
       <c r="W23">
-        <v>1.000342348510784</v>
+        <v>0.000342348510783852</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3074,7 +3074,7 @@
         <v>2.381960209218736</v>
       </c>
       <c r="K24">
-        <v>70.4313493318418</v>
+        <v>0.204313493318418</v>
       </c>
       <c r="L24">
         <v>0.01422354393948064</v>
@@ -3104,13 +3104,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U24">
-        <v>1.000151246426549</v>
+        <v>0.0001512464265489566</v>
       </c>
       <c r="V24">
-        <v>1.000022856098007</v>
+        <v>2.285609800689592E-05</v>
       </c>
       <c r="W24">
-        <v>1.000684462696783</v>
+        <v>0.000684462696783017</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3145,7 +3145,7 @@
         <v>1.990437699904858</v>
       </c>
       <c r="K25">
-        <v>66.56007914721596</v>
+        <v>0.1656007914721596</v>
       </c>
       <c r="L25">
         <v>0.01517881977598612</v>
@@ -3175,13 +3175,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U25">
-        <v>1.000110027003237</v>
+        <v>0.0001100270032374784</v>
       </c>
       <c r="V25">
-        <v>1.000022855575618</v>
+        <v>2.285557561765295E-05</v>
       </c>
       <c r="W25">
-        <v>0.9993160054719563</v>
+        <v>-0.0006839945280436854</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3216,7 +3216,7 @@
         <v>2.336479548612093</v>
       </c>
       <c r="K26">
-        <v>70.02828923630059</v>
+        <v>0.2002828923630059</v>
       </c>
       <c r="L26">
         <v>0.01641697068920122</v>
@@ -3246,13 +3246,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U26">
-        <v>1.000156109276493</v>
+        <v>0.0001561092764934546</v>
       </c>
       <c r="V26">
-        <v>1.000114275266261</v>
+        <v>0.0001142752662612878</v>
       </c>
       <c r="W26">
-        <v>1.001368925393566</v>
+        <v>0.001368925393566256</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3287,7 +3287,7 @@
         <v>1.976504197781549</v>
       </c>
       <c r="K27">
-        <v>66.40354141797209</v>
+        <v>0.1640354141797209</v>
       </c>
       <c r="L27">
         <v>0.01741548156146399</v>
@@ -3317,13 +3317,13 @@
         <v>0.234375</v>
       </c>
       <c r="U27">
-        <v>1.000117690397202</v>
+        <v>0.0001176903972024412</v>
       </c>
       <c r="V27">
-        <v>1.000091409767134</v>
+        <v>9.140976713362114E-05</v>
       </c>
       <c r="W27">
-        <v>0.9993164730006834</v>
+        <v>-0.0006835269993166193</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3358,7 +3358,7 @@
         <v>1.700692341929185</v>
       </c>
       <c r="K28">
-        <v>62.97245767410625</v>
+        <v>0.1297245767410625</v>
       </c>
       <c r="L28">
         <v>0.01788060018271355</v>
@@ -3388,13 +3388,13 @@
         <v>0.2406249999999943</v>
       </c>
       <c r="U28">
-        <v>1.000083552107932</v>
+        <v>8.355210793165035E-05</v>
       </c>
       <c r="V28">
-        <v>1.00022850353038</v>
+        <v>0.0002285035303795091</v>
       </c>
       <c r="W28">
-        <v>0.9993160054719563</v>
+        <v>-0.0006839945280436854</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3429,7 +3429,7 @@
         <v>1.774137232571013</v>
       </c>
       <c r="K29">
-        <v>63.95275661711873</v>
+        <v>0.1395275661711873</v>
       </c>
       <c r="L29">
         <v>0.01805860093828692</v>
@@ -3459,13 +3459,13 @@
         <v>0.2249999999999943</v>
       </c>
       <c r="U29">
-        <v>1.000089826716099</v>
+        <v>8.982671609869541E-05</v>
       </c>
       <c r="V29">
-        <v>1.0002056061956</v>
+        <v>0.00020560619559995</v>
       </c>
       <c r="W29">
-        <v>1.000342231348392</v>
+        <v>0.0003422313483916195</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3500,7 +3500,7 @@
         <v>1.851447643772893</v>
       </c>
       <c r="K30">
-        <v>64.93009429144384</v>
+        <v>0.1493009429144384</v>
       </c>
       <c r="L30">
         <v>0.018113541781815</v>
@@ -3530,13 +3530,13 @@
         <v>0.2124999999999773</v>
       </c>
       <c r="U30">
-        <v>1.000095449911181</v>
+        <v>9.544991118093371E-05</v>
       </c>
       <c r="V30">
-        <v>1.000296925677219</v>
+        <v>0.000296925677218951</v>
       </c>
       <c r="W30">
-        <v>1.000342114266165</v>
+        <v>0.0003421142661648169</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3571,7 +3571,7 @@
         <v>1.4881367135197</v>
       </c>
       <c r="K31">
-        <v>59.80928240131117</v>
+        <v>0.0980928240131117</v>
       </c>
       <c r="L31">
         <v>0.01764110930452978</v>
@@ -3601,13 +3601,13 @@
         <v>0.1749999999999829</v>
       </c>
       <c r="U31">
-        <v>1.000054786961491</v>
+        <v>5.478696149130435E-05</v>
       </c>
       <c r="V31">
-        <v>1.000296837538532</v>
+        <v>0.0002968375385319355</v>
       </c>
       <c r="W31">
-        <v>0.9989740082079345</v>
+        <v>-0.001025991792065528</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3642,7 +3642,7 @@
         <v>1.166789422449827</v>
       </c>
       <c r="K32">
-        <v>53.8487686141012</v>
+        <v>0.03848768614101195</v>
       </c>
       <c r="L32">
         <v>0.01630990390308099</v>
@@ -3672,13 +3672,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U32">
-        <v>1.000228594941194</v>
+        <v>0.0002285949411937604</v>
       </c>
       <c r="V32">
-        <v>1.000159788166545</v>
+        <v>0.0001597881665449385</v>
       </c>
       <c r="W32">
-        <v>0.9986306059568639</v>
+        <v>-0.001369394043136074</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3713,7 +3713,7 @@
         <v>1.337267865382641</v>
       </c>
       <c r="K33">
-        <v>57.21500240468642</v>
+        <v>0.07215002404686421</v>
       </c>
       <c r="L33">
         <v>0.01486953796662883</v>
@@ -3743,13 +3743,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U33">
-        <v>1.000148552753368</v>
+        <v>0.0001485527533684472</v>
       </c>
       <c r="V33">
-        <v>1.000182585872418</v>
+        <v>0.0001825858724180396</v>
       </c>
       <c r="W33">
-        <v>1.001028453890984</v>
+        <v>0.001028453890983938</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3784,7 +3784,7 @@
         <v>1.4569018604232</v>
       </c>
       <c r="K34">
-        <v>59.29833355949551</v>
+        <v>0.09298333559495509</v>
       </c>
       <c r="L34">
         <v>0.01365450965544582</v>
@@ -3814,13 +3814,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U34">
-        <v>1.000182807001508</v>
+        <v>0.0001828070015081895</v>
       </c>
       <c r="V34">
-        <v>1.000114095338064</v>
+        <v>0.0001140953380642795</v>
       </c>
       <c r="W34">
-        <v>1.000684931506849</v>
+        <v>0.00068493150684934</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3855,7 +3855,7 @@
         <v>1.370601575137646</v>
       </c>
       <c r="K35">
-        <v>57.81661454679762</v>
+        <v>0.07816614546797629</v>
       </c>
       <c r="L35">
         <v>0.01247692634790402</v>
@@ -3885,13 +3885,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U35">
-        <v>1.000125656842586</v>
+        <v>0.0001256568425862525</v>
       </c>
       <c r="V35">
-        <v>1.000022816464361</v>
+        <v>2.281646436075313E-05</v>
       </c>
       <c r="W35">
-        <v>0.9996577686516086</v>
+        <v>-0.0003422313483913975</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3926,7 +3926,7 @@
         <v>1.21863067690351</v>
       </c>
       <c r="K36">
-        <v>54.92715347307484</v>
+        <v>0.04927153473074841</v>
       </c>
       <c r="L36">
         <v>0.01110004552020242</v>
@@ -3956,13 +3956,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U36">
-        <v>1.000114219140843</v>
+        <v>0.000114219140843419</v>
       </c>
       <c r="V36">
-        <v>0.9999771840562183</v>
+        <v>-2.28159437817288E-05</v>
       </c>
       <c r="W36">
-        <v>0.9993153029784319</v>
+        <v>-0.000684697021568148</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3997,7 +3997,7 @@
         <v>1.037068884407384</v>
       </c>
       <c r="K37">
-        <v>50.90985839239717</v>
+        <v>0.00909858392397167</v>
       </c>
       <c r="L37">
         <v>0.009273762981808847</v>
@@ -4027,13 +4027,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U37">
-        <v>1.000057103048161</v>
+        <v>5.710304816064493E-05</v>
       </c>
       <c r="V37">
-        <v>0.9998859176781967</v>
+        <v>-0.0001140823218033216</v>
       </c>
       <c r="W37">
-        <v>0.9989722507708121</v>
+        <v>-0.001027749229187913</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4068,7 +4068,7 @@
         <v>1.298451981482323</v>
       </c>
       <c r="K38">
-        <v>56.4924563116138</v>
+        <v>0.06492456311613803</v>
       </c>
       <c r="L38">
         <v>0.007887495214693816</v>
@@ -4098,13 +4098,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U38">
-        <v>1.000091359660142</v>
+        <v>9.135966014217622E-05</v>
       </c>
       <c r="V38">
-        <v>0.999977180932387</v>
+        <v>-2.281906761303354E-05</v>
       </c>
       <c r="W38">
-        <v>1.001714677640604</v>
+        <v>0.001714677640603623</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4139,7 +4139,7 @@
         <v>1.353480001919133</v>
       </c>
       <c r="K39">
-        <v>57.50973030641624</v>
+        <v>0.0750973030641624</v>
       </c>
       <c r="L39">
         <v>0.00695221839304011</v>
@@ -4169,13 +4169,13 @@
         <v>-0.08749999999997726</v>
       </c>
       <c r="U39">
-        <v>0.9999885810857102</v>
+        <v>-1.14189142897958E-05</v>
       </c>
       <c r="V39">
-        <v>0.9999543608233308</v>
+        <v>-4.563917666922102E-05</v>
       </c>
       <c r="W39">
-        <v>1.000342348510784</v>
+        <v>0.000342348510783852</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4210,7 +4210,7 @@
         <v>1.353480001919133</v>
       </c>
       <c r="K40">
-        <v>57.50973030641624</v>
+        <v>0.0750973030641624</v>
       </c>
       <c r="L40">
         <v>0.006323751851484704</v>
@@ -4240,13 +4240,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U40">
-        <v>1.000011419044683</v>
+        <v>1.141904468271449E-05</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4281,7 +4281,7 @@
         <v>1.597371505240281</v>
       </c>
       <c r="K41">
-        <v>61.49953913090723</v>
+        <v>0.1149953913090723</v>
       </c>
       <c r="L41">
         <v>0.006398581834170244</v>
@@ -4311,13 +4311,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U41">
-        <v>1.000057094571448</v>
+        <v>5.709457144842389E-05</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>1.001368925393566</v>
+        <v>0.001368925393566256</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4352,7 +4352,7 @@
         <v>1.789917428914825</v>
       </c>
       <c r="K42">
-        <v>64.15664529580852</v>
+        <v>0.1415664529580851</v>
       </c>
       <c r="L42">
         <v>0.007245642460932008</v>
@@ -4382,13 +4382,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U42">
-        <v>1.000102764361319</v>
+        <v>0.0001027643613193963</v>
       </c>
       <c r="V42">
-        <v>1.000114103149247</v>
+        <v>0.0001141031492470912</v>
       </c>
       <c r="W42">
-        <v>1.001025290498974</v>
+        <v>0.001025290498974485</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4423,7 +4423,7 @@
         <v>1.676643442819891</v>
       </c>
       <c r="K43">
-        <v>62.63977547392407</v>
+        <v>0.1263977547392406</v>
       </c>
       <c r="L43">
         <v>0.008353774527312594</v>
@@ -4453,13 +4453,13 @@
         <v>0.04062500000003411</v>
       </c>
       <c r="U43">
-        <v>1.000182673425583</v>
+        <v>0.0001826734255832019</v>
       </c>
       <c r="V43">
-        <v>1.000136908157444</v>
+        <v>0.000136908157444271</v>
       </c>
       <c r="W43">
-        <v>0.9996585865483101</v>
+        <v>-0.0003414134516899203</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4494,7 +4494,7 @@
         <v>1.809873918048121</v>
       </c>
       <c r="K44">
-        <v>64.41121455390248</v>
+        <v>0.1441121455390248</v>
       </c>
       <c r="L44">
         <v>0.009768293614850062</v>
@@ -4524,13 +4524,13 @@
         <v>0.08437500000002274</v>
       </c>
       <c r="U44">
-        <v>1.000182640062098</v>
+        <v>0.000182640062097672</v>
       </c>
       <c r="V44">
-        <v>1.000159704318861</v>
+        <v>0.0001597043188610314</v>
       </c>
       <c r="W44">
-        <v>1.00068306010929</v>
+        <v>0.000683060109289535</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4565,7 +4565,7 @@
         <v>2.160480431806641</v>
       </c>
       <c r="K45">
-        <v>68.3592408946394</v>
+        <v>0.1835924089463939</v>
       </c>
       <c r="L45">
         <v>0.01186658788271281</v>
@@ -4595,13 +4595,13 @@
         <v>0.1656250000000341</v>
       </c>
       <c r="U45">
-        <v>1.000273910066195</v>
+        <v>0.0002739100661948157</v>
       </c>
       <c r="V45">
-        <v>1.000250923856015</v>
+        <v>0.0002509238560153282</v>
       </c>
       <c r="W45">
-        <v>1.001706484641638</v>
+        <v>0.00170648464163814</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4636,7 +4636,7 @@
         <v>2.308104227073378</v>
       </c>
       <c r="K46">
-        <v>69.77120636598919</v>
+        <v>0.1977120636598919</v>
       </c>
       <c r="L46">
         <v>0.01445060989124789</v>
@@ -4666,13 +4666,13 @@
         <v>0.2249999999999659</v>
       </c>
       <c r="U46">
-        <v>1.000330884030852</v>
+        <v>0.000330884030852463</v>
       </c>
       <c r="V46">
-        <v>1.000364888594951</v>
+        <v>0.000364888594950985</v>
       </c>
       <c r="W46">
-        <v>1.000681431005111</v>
+        <v>0.0006814310051106443</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4707,7 +4707,7 @@
         <v>2.774284633178907</v>
       </c>
       <c r="K47">
-        <v>73.50491292550595</v>
+        <v>0.2350491292550595</v>
       </c>
       <c r="L47">
         <v>0.01785926502812981</v>
@@ -4737,13 +4737,13 @@
         <v>0.2875000000000227</v>
       </c>
       <c r="U47">
-        <v>1.000376398663214</v>
+        <v>0.0003763986632143723</v>
       </c>
       <c r="V47">
-        <v>1.000592727687222</v>
+        <v>0.0005927276872219611</v>
       </c>
       <c r="W47">
-        <v>1.002042900919305</v>
+        <v>0.002042900919305479</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4778,7 +4778,7 @@
         <v>2.384282589090353</v>
       </c>
       <c r="K48">
-        <v>70.4516400839687</v>
+        <v>0.204516400839687</v>
       </c>
       <c r="L48">
         <v>0.02123361936481684</v>
@@ -4808,13 +4808,13 @@
         <v>0.3312500000000114</v>
       </c>
       <c r="U48">
-        <v>1.000330650126559</v>
+        <v>0.0003306501265589734</v>
       </c>
       <c r="V48">
-        <v>1.000478457998223</v>
+        <v>0.000478457998223103</v>
       </c>
       <c r="W48">
-        <v>0.99932042133877</v>
+        <v>-0.0006795786612300292</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4849,7 +4849,7 @@
         <v>2.076944027496864</v>
       </c>
       <c r="K49">
-        <v>67.50022128892888</v>
+        <v>0.1750022128892889</v>
       </c>
       <c r="L49">
         <v>0.02404386553901334</v>
@@ -4879,13 +4879,13 @@
         <v>0.3531250000000341</v>
       </c>
       <c r="U49">
-        <v>1.000250755114834</v>
+        <v>0.0002507551148343001</v>
       </c>
       <c r="V49">
-        <v>1.000387137912188</v>
+        <v>0.0003871379121878071</v>
       </c>
       <c r="W49">
-        <v>0.9993199591975517</v>
+        <v>-0.0006800408024483229</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4920,7 +4920,7 @@
         <v>2.1447871340233</v>
       </c>
       <c r="K50">
-        <v>68.20134535717702</v>
+        <v>0.1820134535717702</v>
       </c>
       <c r="L50">
         <v>0.02636946404729148</v>
@@ -4950,13 +4950,13 @@
         <v>0.3656250000000227</v>
       </c>
       <c r="U50">
-        <v>1.0002279020477</v>
+        <v>0.0002279020476998461</v>
       </c>
       <c r="V50">
-        <v>1.000432516105534</v>
+        <v>0.0004325161055338533</v>
       </c>
       <c r="W50">
-        <v>1.000340251786322</v>
+        <v>0.0003402517863220211</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4991,7 +4991,7 @@
         <v>2.216200930366917</v>
       </c>
       <c r="K51">
-        <v>68.90741525014371</v>
+        <v>0.1890741525014371</v>
       </c>
       <c r="L51">
         <v>0.0282809565533824</v>
@@ -5021,13 +5021,13 @@
         <v>0.3843750000000057</v>
       </c>
       <c r="U51">
-        <v>1.000239242626201</v>
+        <v>0.0002392426262005642</v>
       </c>
       <c r="V51">
-        <v>1.000500591608265</v>
+        <v>0.0005005916082645445</v>
       </c>
       <c r="W51">
-        <v>1.000340136054422</v>
+        <v>0.0003401360544217358</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5062,7 +5062,7 @@
         <v>2.216200930366917</v>
       </c>
       <c r="K52">
-        <v>68.90741525014371</v>
+        <v>0.1890741525014371</v>
       </c>
       <c r="L52">
         <v>0.0297158937547886</v>
@@ -5092,13 +5092,13 @@
         <v>0.3843749999999773</v>
       </c>
       <c r="U52">
-        <v>1.000227795621768</v>
+        <v>0.0002277956217682231</v>
       </c>
       <c r="V52">
-        <v>1.00056856947919</v>
+        <v>0.0005685694791903728</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5133,7 +5133,7 @@
         <v>2.532716371224963</v>
       </c>
       <c r="K53">
-        <v>71.69317049777048</v>
+        <v>0.2169317049777049</v>
       </c>
       <c r="L53">
         <v>0.03115996199575732</v>
@@ -5163,13 +5163,13 @@
         <v>0.3562499999999886</v>
       </c>
       <c r="U53">
-        <v>1.000261905304152</v>
+        <v>0.0002619053041517105</v>
       </c>
       <c r="V53">
-        <v>1.00054551653597</v>
+        <v>0.0005455165359700143</v>
       </c>
       <c r="W53">
-        <v>1.001360081604896</v>
+        <v>0.001360081604896202</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5204,7 +5204,7 @@
         <v>2.532716371224964</v>
       </c>
       <c r="K54">
-        <v>71.69317049777048</v>
+        <v>0.2169317049777049</v>
       </c>
       <c r="L54">
         <v>0.03240288976206177</v>
@@ -5234,13 +5234,13 @@
         <v>0.3312499999999829</v>
       </c>
       <c r="U54">
-        <v>1.000239068316618</v>
+        <v>0.0002390683166175744</v>
       </c>
       <c r="V54">
-        <v>1.000522501647016</v>
+        <v>0.0005225016470160604</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5275,7 +5275,7 @@
         <v>2.795748593544696</v>
       </c>
       <c r="K55">
-        <v>73.65473567715557</v>
+        <v>0.2365473567715557</v>
       </c>
       <c r="L55">
         <v>0.03369914646279966</v>
@@ -5305,13 +5305,13 @@
         <v>0.28125</v>
       </c>
       <c r="U55">
-        <v>1.000295918599622</v>
+        <v>0.0002959185996220803</v>
       </c>
       <c r="V55">
-        <v>1.00059034557922</v>
+        <v>0.0005903455792195533</v>
       </c>
       <c r="W55">
-        <v>1.001018675721562</v>
+        <v>0.001018675721562001</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5346,7 +5346,7 @@
         <v>2.888040601376145</v>
       </c>
       <c r="K56">
-        <v>74.2801039771535</v>
+        <v>0.242801039771535</v>
       </c>
       <c r="L56">
         <v>0.03494552610296232</v>
@@ -5376,13 +5376,13 @@
         <v>0.2468750000000171</v>
       </c>
       <c r="U56">
-        <v>1.000261696704897</v>
+        <v>0.0002616967048971741</v>
       </c>
       <c r="V56">
-        <v>1.000521920668058</v>
+        <v>0.0005219206680584509</v>
       </c>
       <c r="W56">
-        <v>1.00033921302578</v>
+        <v>0.0003392130257799941</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5417,7 +5417,7 @@
         <v>2.632312778657529</v>
       </c>
       <c r="K57">
-        <v>72.4693312240145</v>
+        <v>0.224693312240145</v>
       </c>
       <c r="L57">
         <v>0.03582944875828934</v>
@@ -5447,13 +5447,13 @@
         <v>0.2343749999999716</v>
       </c>
       <c r="U57">
-        <v>1.000273003378417</v>
+        <v>0.0002730033784168473</v>
       </c>
       <c r="V57">
-        <v>1.000430926946542</v>
+        <v>0.0004309269465423426</v>
       </c>
       <c r="W57">
-        <v>0.9996609020006784</v>
+        <v>-0.0003390979993216359</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5488,7 +5488,7 @@
         <v>2.632312778657528</v>
       </c>
       <c r="K58">
-        <v>72.46933122401448</v>
+        <v>0.2246933122401448</v>
       </c>
       <c r="L58">
         <v>0.03630617404090455</v>
@@ -5518,13 +5518,13 @@
         <v>0.2250000000000227</v>
       </c>
       <c r="U58">
-        <v>1.00029567294024</v>
+        <v>0.0002956729402399105</v>
       </c>
       <c r="V58">
-        <v>1.000453411924734</v>
+        <v>0.0004534119247336932</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5559,7 +5559,7 @@
         <v>2.632312778657528</v>
       </c>
       <c r="K59">
-        <v>72.46933122401448</v>
+        <v>0.2246933122401448</v>
       </c>
       <c r="L59">
         <v>0.03637299889363339</v>
@@ -5589,13 +5589,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U59">
-        <v>1.00028421686884</v>
+        <v>0.0002842168688397262</v>
       </c>
       <c r="V59">
-        <v>1.000407885791978</v>
+        <v>0.0004078857919782575</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5630,7 +5630,7 @@
         <v>2.632312778657529</v>
       </c>
       <c r="K60">
-        <v>72.4693312240145</v>
+        <v>0.224693312240145</v>
       </c>
       <c r="L60">
         <v>0.03605432569025682</v>
@@ -5660,13 +5660,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U60">
-        <v>1.000272770668061</v>
+        <v>0.0002727706680607511</v>
       </c>
       <c r="V60">
-        <v>1.000294464075383</v>
+        <v>0.0002944640753830274</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5701,7 +5701,7 @@
         <v>2.849738170335687</v>
       </c>
       <c r="K61">
-        <v>74.02420747193821</v>
+        <v>0.2402420747193821</v>
       </c>
       <c r="L61">
         <v>0.03563911064274827</v>
@@ -5731,13 +5731,13 @@
         <v>0.1781249999999943</v>
       </c>
       <c r="U61">
-        <v>1.000329508010453</v>
+        <v>0.0003295080104532833</v>
       </c>
       <c r="V61">
-        <v>1.000294377391816</v>
+        <v>0.0002943773918160364</v>
       </c>
       <c r="W61">
-        <v>1.00067842605156</v>
+        <v>0.0006784260515604323</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5772,7 +5772,7 @@
         <v>2.964172587008434</v>
       </c>
       <c r="K62">
-        <v>74.77405491180568</v>
+        <v>0.2477405491180568</v>
       </c>
       <c r="L62">
         <v>0.03518565470480478</v>
@@ -5802,13 +5802,13 @@
         <v>0.171875</v>
       </c>
       <c r="U62">
-        <v>1.000386192482877</v>
+        <v>0.0003861924828771901</v>
       </c>
       <c r="V62">
-        <v>1.000181102005705</v>
+        <v>0.0001811020057052026</v>
       </c>
       <c r="W62">
-        <v>1.000338983050848</v>
+        <v>0.0003389830508475633</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5843,7 +5843,7 @@
         <v>2.645502544403128</v>
       </c>
       <c r="K63">
-        <v>72.56893973273229</v>
+        <v>0.2256893973273228</v>
       </c>
       <c r="L63">
         <v>0.03448517203424169</v>
@@ -5873,13 +5873,13 @@
         <v>0.1624999999999659</v>
       </c>
       <c r="U63">
-        <v>1.000340626525723</v>
+        <v>0.0003406265257228647</v>
       </c>
       <c r="V63">
-        <v>1.00020370286542</v>
+        <v>0.0002037028654200412</v>
       </c>
       <c r="W63">
-        <v>0.999661131819722</v>
+        <v>-0.0003388681802779514</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5914,7 +5914,7 @@
         <v>2.376558097151369</v>
       </c>
       <c r="K64">
-        <v>70.38404282622446</v>
+        <v>0.2038404282622446</v>
       </c>
       <c r="L64">
         <v>0.03342980642902311</v>
@@ -5944,13 +5944,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U64">
-        <v>1.000306459484921</v>
+        <v>0.0003064594849209179</v>
       </c>
       <c r="V64">
-        <v>1.000226290421127</v>
+        <v>0.0002262904211265404</v>
       </c>
       <c r="W64">
-        <v>0.9996610169491524</v>
+        <v>-0.0003389830508475633</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5985,7 +5985,7 @@
         <v>2.146823150877803</v>
       </c>
       <c r="K65">
-        <v>68.22191931182878</v>
+        <v>0.1822191931182878</v>
       </c>
       <c r="L65">
         <v>0.03198095249336902</v>
@@ -6015,13 +6015,13 @@
         <v>0.109375</v>
       </c>
       <c r="U65">
-        <v>1.000306365596278</v>
+        <v>0.0003063655962780576</v>
       </c>
       <c r="V65">
-        <v>1.000180991380285</v>
+        <v>0.000180991380285489</v>
       </c>
       <c r="W65">
-        <v>0.9996609020006784</v>
+        <v>-0.0003390979993216359</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6056,7 +6056,7 @@
         <v>2.146823150877803</v>
       </c>
       <c r="K66">
-        <v>68.22191931182878</v>
+        <v>0.1822191931182878</v>
       </c>
       <c r="L66">
         <v>0.03026972617354718</v>
@@ -6086,13 +6086,13 @@
         <v>0.08437499999996589</v>
       </c>
       <c r="U66">
-        <v>1.000328958562565</v>
+        <v>0.0003289585625645408</v>
       </c>
       <c r="V66">
-        <v>1.000158338799792</v>
+        <v>0.0001583387997918795</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6127,7 +6127,7 @@
         <v>1.502913022876044</v>
       </c>
       <c r="K67">
-        <v>60.04655412072924</v>
+        <v>0.1004655412072925</v>
       </c>
       <c r="L67">
         <v>0.02790291322272784</v>
@@ -6157,13 +6157,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U67">
-        <v>1.000317510715987</v>
+        <v>0.0003175107159867352</v>
       </c>
       <c r="V67">
-        <v>1.000067848742536</v>
+        <v>6.78487425362917E-05</v>
       </c>
       <c r="W67">
-        <v>0.9986431478968791</v>
+        <v>-0.001356852103120865</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6198,7 +6198,7 @@
         <v>1.66077421755844</v>
       </c>
       <c r="K68">
-        <v>62.41695393013794</v>
+        <v>0.1241695393013794</v>
       </c>
       <c r="L68">
         <v>0.02543647213478955</v>
@@ -6228,13 +6228,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U68">
-        <v>1.000283401727617</v>
+        <v>0.0002834017276167611</v>
       </c>
       <c r="V68">
-        <v>1.000022614713133</v>
+        <v>2.26147131325849E-05</v>
       </c>
       <c r="W68">
-        <v>1.000679347826087</v>
+        <v>0.0006793478260871399</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6269,7 +6269,7 @@
         <v>1.82694389617144</v>
       </c>
       <c r="K69">
-        <v>64.62611085581463</v>
+        <v>0.1462611085581463</v>
       </c>
       <c r="L69">
         <v>0.02322209383041893</v>
@@ -6299,13 +6299,13 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>1.000294654291186</v>
+        <v>0.0002946542911863581</v>
       </c>
       <c r="V69">
-        <v>1.000067842605156</v>
+        <v>6.784260515591001E-05</v>
       </c>
       <c r="W69">
-        <v>1.000678886625934</v>
+        <v>0.0006788866259335169</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6340,7 +6340,7 @@
         <v>1.447229654280389</v>
       </c>
       <c r="K70">
-        <v>59.13746802426471</v>
+        <v>0.09137468024264717</v>
       </c>
       <c r="L70">
         <v>0.02084552424598752</v>
@@ -6370,13 +6370,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U70">
-        <v>1.000260578938424</v>
+        <v>0.0002605789384240165</v>
       </c>
       <c r="V70">
-        <v>0.9999321619971508</v>
+        <v>-6.783800284915209E-05</v>
       </c>
       <c r="W70">
-        <v>0.9989823609226594</v>
+        <v>-0.001017639077340649</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6411,7 +6411,7 @@
         <v>1.263014576363371</v>
       </c>
       <c r="K71">
-        <v>55.81115515362766</v>
+        <v>0.05811155153627656</v>
       </c>
       <c r="L71">
         <v>0.01819892951003635</v>
@@ -6441,13 +6441,13 @@
         <v>-0.06562499999995453</v>
       </c>
       <c r="U71">
-        <v>1.000192551649149</v>
+        <v>0.0001925516491485535</v>
       </c>
       <c r="V71">
-        <v>0.9998643147896878</v>
+        <v>-0.0001356852103121531</v>
       </c>
       <c r="W71">
-        <v>0.999320882852292</v>
+        <v>-0.0006791171477079638</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6482,7 +6482,7 @@
         <v>1.183713219522254</v>
       </c>
       <c r="K72">
-        <v>54.20644107202057</v>
+        <v>0.04206441072020572</v>
       </c>
       <c r="L72">
         <v>0.01536769735249095</v>
@@ -6512,13 +6512,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U72">
-        <v>1.000147217031878</v>
+        <v>0.000147217031877922</v>
       </c>
       <c r="V72">
-        <v>0.9998642963767134</v>
+        <v>-0.0001357036232866315</v>
       </c>
       <c r="W72">
-        <v>0.9996602106693849</v>
+        <v>-0.0003397893306150701</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6553,7 +6553,7 @@
         <v>0.9362095201952731</v>
       </c>
       <c r="K73">
-        <v>48.35269687656805</v>
+        <v>-0.01647303123431948</v>
       </c>
       <c r="L73">
         <v>0.0120543997817905</v>
@@ -6583,13 +6583,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U73">
-        <v>1.000113227201703</v>
+        <v>0.0001132272017030367</v>
       </c>
       <c r="V73">
-        <v>0.9997737965979007</v>
+        <v>-0.0002262034020993342</v>
       </c>
       <c r="W73">
-        <v>0.9986403806934059</v>
+        <v>-0.001359619306594118</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6624,7 +6624,7 @@
         <v>0.767324650944778</v>
       </c>
       <c r="K74">
-        <v>43.41730029819823</v>
+        <v>-0.06582699701801764</v>
       </c>
       <c r="L74">
         <v>0.008121772357663646</v>
@@ -6654,13 +6654,13 @@
         <v>-0.1624999999999943</v>
       </c>
       <c r="U74">
-        <v>1.000045285753102</v>
+        <v>4.528575310214222E-05</v>
       </c>
       <c r="V74">
-        <v>0.9996832435856829</v>
+        <v>-0.0003167564143170543</v>
       </c>
       <c r="W74">
-        <v>0.9986385296119809</v>
+        <v>-0.001361470388019148</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6695,7 +6695,7 @@
         <v>0.6716689961496376</v>
       </c>
       <c r="K75">
-        <v>40.17954497551224</v>
+        <v>-0.09820455024487762</v>
       </c>
       <c r="L75">
         <v>0.003664096666427992</v>
@@ -6725,13 +6725,13 @@
         <v>-0.1906249999999829</v>
       </c>
       <c r="U75">
-        <v>0.9999547162976046</v>
+        <v>-4.528370239542667E-05</v>
       </c>
       <c r="V75">
-        <v>0.9996152453376785</v>
+        <v>-0.0003847546623214626</v>
       </c>
       <c r="W75">
-        <v>0.9989775051124746</v>
+        <v>-0.001022494887525371</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6766,7 +6766,7 @@
         <v>0.6716689961496376</v>
       </c>
       <c r="K76">
-        <v>40.17954497551224</v>
+        <v>-0.09820455024487762</v>
       </c>
       <c r="L76">
         <v>-0.0008409711933123171</v>
@@ -6796,13 +6796,13 @@
         <v>-0.2312499999999886</v>
       </c>
       <c r="U76">
-        <v>0.9999320713703469</v>
+        <v>-6.792862965310231E-05</v>
       </c>
       <c r="V76">
-        <v>0.9995698145674372</v>
+        <v>-0.0004301854325627907</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6837,7 +6837,7 @@
         <v>0.7637548732047457</v>
       </c>
       <c r="K77">
-        <v>43.30277890696918</v>
+        <v>-0.0669722109303082</v>
       </c>
       <c r="L77">
         <v>-0.004837539099704745</v>
@@ -6867,13 +6867,13 @@
         <v>-0.2718749999999943</v>
       </c>
       <c r="U77">
-        <v>0.9998867779262244</v>
+        <v>-0.0001132220737756207</v>
       </c>
       <c r="V77">
-        <v>0.9995922805110085</v>
+        <v>-0.0004077194889915425</v>
       </c>
       <c r="W77">
-        <v>1.000682360968953</v>
+        <v>0.0006823609689525778</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6908,7 +6908,7 @@
         <v>0.7284496495874985</v>
       </c>
       <c r="K78">
-        <v>42.14468438587991</v>
+        <v>-0.07855315614120095</v>
       </c>
       <c r="L78">
         <v>-0.008377907617324451</v>
@@ -6938,13 +6938,13 @@
         <v>-0.2937499999999886</v>
       </c>
       <c r="U78">
-        <v>0.9998980885949813</v>
+        <v>-0.0001019114050186953</v>
       </c>
       <c r="V78">
-        <v>0.9995921142080217</v>
+        <v>-0.0004078857919782575</v>
       </c>
       <c r="W78">
-        <v>0.9996590521650187</v>
+        <v>-0.0003409478349812867</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6979,7 +6979,7 @@
         <v>0.6946488712234161</v>
       </c>
       <c r="K79">
-        <v>40.99072574969049</v>
+        <v>-0.09009274250309507</v>
       </c>
       <c r="L79">
         <v>-0.01150998444545296</v>
@@ -7009,13 +7009,13 @@
         <v>-0.3093750000000171</v>
       </c>
       <c r="U79">
-        <v>0.9999094028515453</v>
+        <v>-9.059714845471856E-05</v>
       </c>
       <c r="V79">
-        <v>0.9995919477693147</v>
+        <v>-0.0004080522306852963</v>
       </c>
       <c r="W79">
-        <v>0.9996589358799456</v>
+        <v>-0.0003410641200544129</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7050,7 +7050,7 @@
         <v>0.6328300594793913</v>
       </c>
       <c r="K80">
-        <v>38.75663948036097</v>
+        <v>-0.1124336051963903</v>
       </c>
       <c r="L80">
         <v>-0.01440118007496949</v>
@@ -7080,13 +7080,13 @@
         <v>-0.328125</v>
       </c>
       <c r="U80">
-        <v>0.9998754176340677</v>
+        <v>-0.0001245823659322687</v>
       </c>
       <c r="V80">
-        <v>0.9995691023722046</v>
+        <v>-0.0004308976277953569</v>
       </c>
       <c r="W80">
-        <v>0.9993176390310473</v>
+        <v>-0.0006823609689526888</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7121,7 +7121,7 @@
         <v>0.6045155405269415</v>
       </c>
       <c r="K81">
-        <v>37.67589189746406</v>
+        <v>-0.1232410810253595</v>
       </c>
       <c r="L81">
         <v>-0.01703411467418405</v>
@@ -7151,13 +7151,13 @@
         <v>-0.328125</v>
       </c>
       <c r="U81">
-        <v>0.9998527479497983</v>
+        <v>-0.0001472520502017183</v>
       </c>
       <c r="V81">
-        <v>0.9995462280204198</v>
+        <v>-0.0004537719795801864</v>
       </c>
       <c r="W81">
-        <v>0.9996585865483101</v>
+        <v>-0.0003414134516899203</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7192,7 +7192,7 @@
         <v>0.6516131085795271</v>
       </c>
       <c r="K82">
-        <v>39.45313252811054</v>
+        <v>-0.1054686747188945</v>
       </c>
       <c r="L82">
         <v>-0.01915764752940868</v>
@@ -7222,13 +7222,13 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="U82">
-        <v>0.9998640550124049</v>
+        <v>-0.0001359449875950602</v>
       </c>
       <c r="V82">
-        <v>0.9996595165134492</v>
+        <v>-0.0003404834865508022</v>
       </c>
       <c r="W82">
-        <v>1.000341530054645</v>
+        <v>0.0003415300546447675</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7263,7 +7263,7 @@
         <v>0.6208343826969437</v>
       </c>
       <c r="K83">
-        <v>38.30338184607875</v>
+        <v>-0.1169661815392125</v>
       </c>
       <c r="L83">
         <v>-0.02089177554114354</v>
@@ -7293,13 +7293,13 @@
         <v>-0.2687500000000114</v>
       </c>
       <c r="U83">
-        <v>0.9998073850825413</v>
+        <v>-0.0001926149174587</v>
       </c>
       <c r="V83">
-        <v>0.9995912806539508</v>
+        <v>-0.0004087193460492466</v>
       </c>
       <c r="W83">
-        <v>0.9996585865483101</v>
+        <v>-0.0003414134516899203</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7334,7 +7334,7 @@
         <v>0.6705550810641067</v>
       </c>
       <c r="K84">
-        <v>40.13965709152062</v>
+        <v>-0.0986034290847938</v>
       </c>
       <c r="L84">
         <v>-0.02208008410839884</v>
@@ -7364,13 +7364,13 @@
         <v>-0.2281249999999773</v>
       </c>
       <c r="U84">
-        <v>0.9998186804469527</v>
+        <v>-0.0001813195530473433</v>
       </c>
       <c r="V84">
-        <v>0.9995683976193721</v>
+        <v>-0.0004316023806278935</v>
       </c>
       <c r="W84">
-        <v>1.000341530054645</v>
+        <v>0.0003415300546447675</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7405,7 +7405,7 @@
         <v>0.7752302355213513</v>
       </c>
       <c r="K85">
-        <v>43.66927849748351</v>
+        <v>-0.0633072150251649</v>
       </c>
       <c r="L85">
         <v>-0.02253420684205151</v>
@@ -7435,13 +7435,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U85">
-        <v>0.9998073130369732</v>
+        <v>-0.0001926869630267669</v>
       </c>
       <c r="V85">
-        <v>0.9996818398745541</v>
+        <v>-0.0003181601254459432</v>
       </c>
       <c r="W85">
-        <v>1.00068282690338</v>
+        <v>0.0006828269033800627</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7476,7 +7476,7 @@
         <v>0.6982896303500048</v>
       </c>
       <c r="K86">
-        <v>41.11722864409721</v>
+        <v>-0.08882771355902791</v>
       </c>
       <c r="L86">
         <v>-0.02268031887449427</v>
@@ -7506,13 +7506,13 @@
         <v>-0.1562499999999716</v>
       </c>
       <c r="U86">
-        <v>0.9997732657665318</v>
+        <v>-0.0002267342334681954</v>
       </c>
       <c r="V86">
-        <v>0.9996817386164724</v>
+        <v>-0.0003182613835276404</v>
       </c>
       <c r="W86">
-        <v>0.9993176390310473</v>
+        <v>-0.0006823609689526888</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7547,7 +7547,7 @@
         <v>0.6322382281420297</v>
       </c>
       <c r="K87">
-        <v>38.73443332237746</v>
+        <v>-0.1126556667762255</v>
       </c>
       <c r="L87">
         <v>-0.02279591242429624</v>
@@ -7577,13 +7577,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U87">
-        <v>0.9997618750637833</v>
+        <v>-0.000238124936216666</v>
       </c>
       <c r="V87">
-        <v>0.9996588971006253</v>
+        <v>-0.0003411028993747234</v>
       </c>
       <c r="W87">
-        <v>0.99931717309662</v>
+        <v>-0.0006828269033799517</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7618,7 +7618,7 @@
         <v>0.6820225789156754</v>
       </c>
       <c r="K88">
-        <v>40.54776597323353</v>
+        <v>-0.09452234026766471</v>
       </c>
       <c r="L88">
         <v>-0.02267903411859963</v>
@@ -7648,13 +7648,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U88">
-        <v>0.9997731603302787</v>
+        <v>-0.0002268396697212571</v>
       </c>
       <c r="V88">
-        <v>0.9997725204731575</v>
+        <v>-0.0002274795268425445</v>
       </c>
       <c r="W88">
-        <v>1.000341646737274</v>
+        <v>0.0003416467372736598</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7689,7 +7689,7 @@
         <v>0.6820225789156754</v>
       </c>
       <c r="K89">
-        <v>40.54776597323353</v>
+        <v>-0.09452234026766471</v>
       </c>
       <c r="L89">
         <v>-0.02234633862894254</v>
@@ -7719,13 +7719,13 @@
         <v>-0.06250000000002842</v>
       </c>
       <c r="U89">
-        <v>0.9997731088623677</v>
+        <v>-0.0002268911376323013</v>
       </c>
       <c r="V89">
-        <v>0.9998634812286689</v>
+        <v>-0.00013651877133114</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7760,7 +7760,7 @@
         <v>0.7371852944543097</v>
       </c>
       <c r="K90">
-        <v>42.43561678812603</v>
+        <v>-0.07564383211873976</v>
       </c>
       <c r="L90">
         <v>-0.02169884778490892</v>
@@ -7790,13 +7790,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U90">
-        <v>0.9997844045025418</v>
+        <v>-0.0002155954974581986</v>
       </c>
       <c r="V90">
-        <v>0.9999544875295834</v>
+        <v>-4.551247041661988E-05</v>
       </c>
       <c r="W90">
-        <v>1.000341530054645</v>
+        <v>0.0003415300546447675</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7831,7 +7831,7 @@
         <v>0.8533173271672899</v>
       </c>
       <c r="K91">
-        <v>46.04269946968801</v>
+        <v>-0.03957300530311991</v>
       </c>
       <c r="L91">
         <v>-0.02057484477743254</v>
@@ -7861,13 +7861,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U91">
-        <v>0.9997843580110999</v>
+        <v>-0.0002156419889001171</v>
       </c>
       <c r="V91">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W91">
-        <v>1.00068282690338</v>
+        <v>0.0006828269033800627</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7902,7 +7902,7 @@
         <v>0.9755615721282871</v>
       </c>
       <c r="K92">
-        <v>49.38148149324991</v>
+        <v>-0.006185185067500876</v>
       </c>
       <c r="L92">
         <v>-0.01891057691550821</v>
@@ -7932,13 +7932,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U92">
-        <v>0.9997956635259395</v>
+        <v>-0.0002043364740604847</v>
       </c>
       <c r="V92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W92">
-        <v>1.000682360968953</v>
+        <v>0.0006823609689525778</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7973,7 +7973,7 @@
         <v>0.975561572128287</v>
       </c>
       <c r="K93">
-        <v>49.38148149324991</v>
+        <v>-0.006185185067500931</v>
       </c>
       <c r="L93">
         <v>-0.01695586641543115</v>
@@ -8003,13 +8003,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U93">
-        <v>0.9998069761104549</v>
+        <v>-0.0001930238895451186</v>
       </c>
       <c r="V93">
-        <v>1.000022757270948</v>
+        <v>2.275727094813718E-05</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8044,7 +8044,7 @@
         <v>1.11101225906568</v>
       </c>
       <c r="K94">
-        <v>52.62936083362237</v>
+        <v>0.02629360833622374</v>
       </c>
       <c r="L94">
         <v>-0.01463961489589402</v>
@@ -8074,13 +8074,13 @@
         <v>0.03125</v>
       </c>
       <c r="U94">
-        <v>0.9998410084606213</v>
+        <v>-0.0001589915393787056</v>
       </c>
       <c r="V94">
-        <v>1.000091027012266</v>
+        <v>9.102701226582077E-05</v>
       </c>
       <c r="W94">
-        <v>1.000681895669962</v>
+        <v>0.0006818956699623513</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8115,7 +8115,7 @@
         <v>1.538751270446961</v>
       </c>
       <c r="K95">
-        <v>60.61055639279131</v>
+        <v>0.1061055639279131</v>
       </c>
       <c r="L95">
         <v>-0.01145373374830853</v>
@@ -8145,13 +8145,13 @@
         <v>0.08750000000003411</v>
       </c>
       <c r="U95">
-        <v>0.9999204915891461</v>
+        <v>-7.950841085391236E-05</v>
       </c>
       <c r="V95">
-        <v>1.000273056181309</v>
+        <v>0.0002730561813093502</v>
       </c>
       <c r="W95">
-        <v>1.002044293015332</v>
+        <v>0.002044293015332377</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8186,7 +8186,7 @@
         <v>1.613793202268211</v>
       </c>
       <c r="K96">
-        <v>61.7414262485565</v>
+        <v>0.117414262485565</v>
       </c>
       <c r="L96">
         <v>-0.007777747879206668</v>
@@ -8216,13 +8216,13 @@
         <v>0.1343749999999773</v>
       </c>
       <c r="U96">
-        <v>0.999931844514619</v>
+        <v>-6.815548538097183E-05</v>
       </c>
       <c r="V96">
-        <v>1.000318478582315</v>
+        <v>0.0003184785823153735</v>
       </c>
       <c r="W96">
-        <v>1.000340020401224</v>
+        <v>0.0003400204012240504</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8257,7 +8257,7 @@
         <v>1.393624243408559</v>
       </c>
       <c r="K97">
-        <v>58.22234827568491</v>
+        <v>0.0822234827568491</v>
       </c>
       <c r="L97">
         <v>-0.004258827809603028</v>
@@ -8287,13 +8287,13 @@
         <v>0.171875</v>
       </c>
       <c r="U97">
-        <v>0.9999545599127551</v>
+        <v>-4.54400872449412E-05</v>
       </c>
       <c r="V97">
-        <v>1.000250153503286</v>
+        <v>0.0002501535032861657</v>
       </c>
       <c r="W97">
-        <v>0.9993201903467029</v>
+        <v>-0.0006798096532970588</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8328,7 +8328,7 @@
         <v>1.146624230582489</v>
       </c>
       <c r="K98">
-        <v>53.41522816368055</v>
+        <v>0.0341522816368055</v>
       </c>
       <c r="L98">
         <v>-0.001416263567637196</v>
@@ -8358,13 +8358,13 @@
         <v>0.1968750000000057</v>
       </c>
       <c r="U98">
-        <v>0.9998977551576843</v>
+        <v>-0.0001022448423156908</v>
       </c>
       <c r="V98">
-        <v>1.000204619861768</v>
+        <v>0.0002046198617680073</v>
       </c>
       <c r="W98">
-        <v>0.9989795918367347</v>
+        <v>-0.001020408163265318</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8399,7 +8399,7 @@
         <v>1.146624230582489</v>
       </c>
       <c r="K99">
-        <v>53.41522816368055</v>
+        <v>0.0341522816368055</v>
       </c>
       <c r="L99">
         <v>0.0008404005694583491</v>
@@ -8429,13 +8429,13 @@
         <v>0.2062500000000114</v>
       </c>
       <c r="U99">
-        <v>0.9998750213031871</v>
+        <v>-0.0001249786968129385</v>
       </c>
       <c r="V99">
-        <v>1.000181847112041</v>
+        <v>0.0001818471120405007</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8470,7 +8470,7 @@
         <v>1.212085258075499</v>
       </c>
       <c r="K100">
-        <v>54.79378580236125</v>
+        <v>0.0479378580236125</v>
       </c>
       <c r="L100">
         <v>0.002719255267335971</v>
@@ -8500,13 +8500,13 @@
         <v>0.2093749999999943</v>
       </c>
       <c r="U100">
-        <v>0.9999204581609927</v>
+        <v>-7.954183900726886E-05</v>
       </c>
       <c r="V100">
-        <v>1.00015908729347</v>
+        <v>0.0001590872934704723</v>
       </c>
       <c r="W100">
-        <v>1.000340483486551</v>
+        <v>0.0003404834865510242</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8541,7 +8541,7 @@
         <v>1.133948978834296</v>
       </c>
       <c r="K101">
-        <v>53.1385234643114</v>
+        <v>0.03138523464311394</v>
       </c>
       <c r="L101">
         <v>0.004115361545328972</v>
@@ -8571,13 +8571,13 @@
         <v>0.2156249999999886</v>
       </c>
       <c r="U101">
-        <v>0.9999318158573585</v>
+        <v>-6.818414264153638E-05</v>
       </c>
       <c r="V101">
-        <v>1.000181785129976</v>
+        <v>0.0001817851299763529</v>
       </c>
       <c r="W101">
-        <v>0.9996596324029952</v>
+        <v>-0.0003403675970048425</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8612,7 +8612,7 @@
         <v>1.405377789448887</v>
       </c>
       <c r="K102">
-        <v>58.4264889953475</v>
+        <v>0.08426488995347503</v>
       </c>
       <c r="L102">
         <v>0.005611478500433666</v>
@@ -8642,13 +8642,13 @@
         <v>0.2156249999999602</v>
       </c>
       <c r="U102">
-        <v>0.9999886352013276</v>
+        <v>-1.136479867236417E-05</v>
       </c>
       <c r="V102">
-        <v>1.000318066157761</v>
+        <v>0.0003180661577608657</v>
       </c>
       <c r="W102">
-        <v>1.001361933946204</v>
+        <v>0.001361933946203653</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8683,7 +8683,7 @@
         <v>1.476806423821118</v>
       </c>
       <c r="K103">
-        <v>59.62542771278669</v>
+        <v>0.09625427712786694</v>
       </c>
       <c r="L103">
         <v>0.007176385273001669</v>
@@ -8713,13 +8713,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U103">
-        <v>1.000045459711331</v>
+        <v>4.545971133085303E-05</v>
       </c>
       <c r="V103">
-        <v>1.000317965023847</v>
+        <v>0.0003179650238473997</v>
       </c>
       <c r="W103">
-        <v>1.000340020401224</v>
+        <v>0.0003400204012240504</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8754,7 +8754,7 @@
         <v>1.373533162688673</v>
       </c>
       <c r="K104">
-        <v>57.86871589916074</v>
+        <v>0.07868715899160739</v>
       </c>
       <c r="L104">
         <v>0.008532819626452011</v>
@@ -8784,13 +8784,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U104">
-        <v>1.000079550878469</v>
+        <v>7.955087846900355E-05</v>
       </c>
       <c r="V104">
-        <v>1.000295159386068</v>
+        <v>0.0002951593860682777</v>
       </c>
       <c r="W104">
-        <v>0.9996600951733515</v>
+        <v>-0.0003399048266484739</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8825,7 +8825,7 @@
         <v>1.520754483202225</v>
       </c>
       <c r="K105">
-        <v>60.32933763824328</v>
+        <v>0.1032933763824329</v>
       </c>
       <c r="L105">
         <v>0.009893490139046649</v>
@@ -8855,13 +8855,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U105">
-        <v>1.000136362086794</v>
+        <v>0.0001363620867942394</v>
       </c>
       <c r="V105">
-        <v>1.000317770161382</v>
+        <v>0.0003177701613816808</v>
       </c>
       <c r="W105">
-        <v>1.000680040802448</v>
+        <v>0.0006800408024481008</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8896,7 +8896,7 @@
         <v>1.411392842157069</v>
       </c>
       <c r="K106">
-        <v>58.53019124393403</v>
+        <v>0.08530191243934038</v>
       </c>
       <c r="L106">
         <v>0.01100969030615163</v>
@@ -8926,13 +8926,13 @@
         <v>0.09062500000001705</v>
       </c>
       <c r="U106">
-        <v>1.000124981536819</v>
+        <v>0.0001249815368185025</v>
       </c>
       <c r="V106">
-        <v>1.000249597240816</v>
+        <v>0.0002495972408160796</v>
       </c>
       <c r="W106">
-        <v>0.9996602106693849</v>
+        <v>-0.0003397893306150701</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8967,7 +8967,7 @@
         <v>1.225810875195918</v>
       </c>
       <c r="K107">
-        <v>55.07255305723228</v>
+        <v>0.05072553057232276</v>
       </c>
       <c r="L107">
         <v>0.01161826834621853</v>
@@ -8997,13 +8997,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U107">
-        <v>1.000079523766245</v>
+        <v>7.952376624542623E-05</v>
       </c>
       <c r="V107">
-        <v>1.000158794973005</v>
+        <v>0.000158794973004639</v>
       </c>
       <c r="W107">
-        <v>0.9993201903467029</v>
+        <v>-0.0006798096532970588</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9038,7 +9038,7 @@
         <v>1.076775482589911</v>
       </c>
       <c r="K108">
-        <v>51.84843001165839</v>
+        <v>0.01848430011658397</v>
       </c>
       <c r="L108">
         <v>0.01159009202837908</v>
@@ -9068,13 +9068,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U108">
-        <v>1.000068157808045</v>
+        <v>6.815780804503291E-05</v>
       </c>
       <c r="V108">
-        <v>1.000113406972261</v>
+        <v>0.00011340697226081</v>
       </c>
       <c r="W108">
-        <v>0.9993197278911565</v>
+        <v>-0.0006802721088434716</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9109,7 +9109,7 @@
         <v>0.9546050608414663</v>
       </c>
       <c r="K109">
-        <v>48.83876952771751</v>
+        <v>-0.01161230472282493</v>
       </c>
       <c r="L109">
         <v>0.01088776123804609</v>
@@ -9139,13 +9139,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U109">
-        <v>1.000056794302395</v>
+        <v>5.679430239546868E-05</v>
       </c>
       <c r="V109">
-        <v>1.000022678822515</v>
+        <v>2.267882251549835E-05</v>
       </c>
       <c r="W109">
-        <v>0.9993192648059905</v>
+        <v>-0.000680735194009463</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9180,7 +9180,7 @@
         <v>0.852759128867434</v>
       </c>
       <c r="K110">
-        <v>46.02644324244748</v>
+        <v>-0.03973556757552515</v>
       </c>
       <c r="L110">
         <v>0.009534249042342501</v>
@@ -9210,13 +9210,13 @@
         <v>0.009375000000034106</v>
       </c>
       <c r="U110">
-        <v>1.000056791076986</v>
+        <v>5.679107698575159E-05</v>
       </c>
       <c r="V110">
-        <v>0.9998412518426126</v>
+        <v>-0.0001587481573873673</v>
       </c>
       <c r="W110">
-        <v>0.9993188010899181</v>
+        <v>-0.0006811989100818927</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9251,7 +9251,7 @@
         <v>0.7298167930284559</v>
       </c>
       <c r="K111">
-        <v>42.19040975725169</v>
+        <v>-0.07809590242748315</v>
       </c>
       <c r="L111">
         <v>0.00746593829465269</v>
@@ -9281,13 +9281,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U111">
-        <v>1.000034072711166</v>
+        <v>3.407271116584454E-05</v>
       </c>
       <c r="V111">
-        <v>0.9997504990019959</v>
+        <v>-0.0002495009980041374</v>
       </c>
       <c r="W111">
-        <v>0.9989775051124746</v>
+        <v>-0.001022494887525371</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9322,7 +9322,7 @@
         <v>0.694675926077427</v>
       </c>
       <c r="K112">
-        <v>40.99166781021992</v>
+        <v>-0.09008332189780083</v>
       </c>
       <c r="L112">
         <v>0.004945417288189695</v>
@@ -9352,13 +9352,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U112">
-        <v>1.000011357183419</v>
+        <v>1.135718341860326E-05</v>
       </c>
       <c r="V112">
-        <v>0.9997731243051932</v>
+        <v>-0.0002268756948068384</v>
       </c>
       <c r="W112">
-        <v>0.9996588195155236</v>
+        <v>-0.0003411804844763999</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9393,7 +9393,7 @@
         <v>0.694675926077427</v>
       </c>
       <c r="K113">
-        <v>40.99166781021992</v>
+        <v>-0.09008332189780083</v>
       </c>
       <c r="L113">
         <v>0.002293645340888066</v>
@@ -9423,13 +9423,13 @@
         <v>-0.1093749999999716</v>
       </c>
       <c r="U113">
-        <v>1.000022714108869</v>
+        <v>2.271410886867109E-05</v>
       </c>
       <c r="V113">
-        <v>0.9998411509746524</v>
+        <v>-0.0001588490253475738</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9464,7 +9464,7 @@
         <v>0.6594907201066894</v>
       </c>
       <c r="K114">
-        <v>39.7405488392421</v>
+        <v>-0.102594511607579</v>
       </c>
       <c r="L114">
         <v>-0.0004010420992346471</v>
@@ -9494,13 +9494,13 @@
         <v>-0.1656249999999773</v>
       </c>
       <c r="U114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V114">
-        <v>0.9998184294144349</v>
+        <v>-0.0001815705855651162</v>
       </c>
       <c r="W114">
-        <v>0.9996587030716723</v>
+        <v>-0.0003412969283277389</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9535,7 +9535,7 @@
         <v>0.8194374989983652</v>
       </c>
       <c r="K115">
-        <v>45.037958129888</v>
+        <v>-0.04962041870112005</v>
       </c>
       <c r="L115">
         <v>-0.002576673847175524</v>
@@ -9565,13 +9565,13 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="U115">
-        <v>1.000011356796475</v>
+        <v>1.135679647501497E-05</v>
       </c>
       <c r="V115">
-        <v>0.9998637973304276</v>
+        <v>-0.0001362026695723717</v>
       </c>
       <c r="W115">
-        <v>1.00102424035507</v>
+        <v>0.001024240355069983</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9606,7 +9606,7 @@
         <v>0.8755591758024726</v>
       </c>
       <c r="K116">
-        <v>46.68256736969431</v>
+        <v>-0.03317432630305689</v>
       </c>
       <c r="L116">
         <v>-0.004165958710936635</v>
@@ -9636,13 +9636,13 @@
         <v>-0.2156249999999886</v>
       </c>
       <c r="U116">
-        <v>1.000045426669998</v>
+        <v>4.542666999762801E-05</v>
       </c>
       <c r="V116">
-        <v>0.9999091858511557</v>
+        <v>-9.081414884426486E-05</v>
       </c>
       <c r="W116">
-        <v>1.000341064120055</v>
+        <v>0.000341064120054746</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9677,7 +9677,7 @@
         <v>1.052785523604883</v>
       </c>
       <c r="K117">
-        <v>51.28570478985517</v>
+        <v>0.01285704789855169</v>
       </c>
       <c r="L117">
         <v>-0.004911638807198423</v>
@@ -9707,13 +9707,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U117">
-        <v>1.000102205364646</v>
+        <v>0.000102205364646224</v>
       </c>
       <c r="V117">
-        <v>0.9998864720039961</v>
+        <v>-0.0001135279960039481</v>
       </c>
       <c r="W117">
-        <v>1.001022843504944</v>
+        <v>0.001022843504943749</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9748,7 +9748,7 @@
         <v>1.052785523604883</v>
       </c>
       <c r="K118">
-        <v>51.28570478985517</v>
+        <v>0.01285704789855169</v>
       </c>
       <c r="L118">
         <v>-0.005080821055573371</v>
@@ -9778,13 +9778,13 @@
         <v>-0.1843749999999602</v>
       </c>
       <c r="U118">
-        <v>1.000090839928691</v>
+        <v>9.08399286905226E-05</v>
       </c>
       <c r="V118">
-        <v>0.9998637509367124</v>
+        <v>-0.0001362490632875746</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9819,7 +9819,7 @@
         <v>1.183700646635276</v>
       </c>
       <c r="K119">
-        <v>54.20617741077122</v>
+        <v>0.04206177410771217</v>
       </c>
       <c r="L119">
         <v>-0.004623383570913745</v>
@@ -9849,13 +9849,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U119">
-        <v>1.000113539596934</v>
+        <v>0.0001135395969344977</v>
       </c>
       <c r="V119">
-        <v>0.9999318661851878</v>
+        <v>-6.813381481218794E-05</v>
       </c>
       <c r="W119">
-        <v>1.000681198910082</v>
+        <v>0.0006811989100816707</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9890,7 +9890,7 @@
         <v>0.980933713323116</v>
       </c>
       <c r="K120">
-        <v>49.51875505604629</v>
+        <v>-0.004812449439537125</v>
       </c>
       <c r="L120">
         <v>-0.004170631684732134</v>
@@ -9920,13 +9920,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U120">
-        <v>1.000068116024295</v>
+        <v>6.811602429457331E-05</v>
       </c>
       <c r="V120">
-        <v>0.999818297447079</v>
+        <v>-0.0001817025529210481</v>
       </c>
       <c r="W120">
-        <v>0.9989788972089857</v>
+        <v>-0.001021102791014306</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9961,7 +9961,7 @@
         <v>0.7542598756323989</v>
       </c>
       <c r="K121">
-        <v>42.99590306484627</v>
+        <v>-0.07004096935153731</v>
       </c>
       <c r="L121">
         <v>-0.004354529799578885</v>
@@ -9991,13 +9991,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U121">
-        <v>0.9999886481025303</v>
+        <v>-1.135189746970244E-05</v>
       </c>
       <c r="V121">
-        <v>0.9997273966378919</v>
+        <v>-0.0002726033621081037</v>
       </c>
       <c r="W121">
-        <v>0.9982964224872232</v>
+        <v>-0.001703577512776833</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10032,7 +10032,7 @@
         <v>0.754259875632399</v>
       </c>
       <c r="K122">
-        <v>42.99590306484627</v>
+        <v>-0.07004096935153725</v>
       </c>
       <c r="L122">
         <v>-0.004896638183057307</v>
@@ -10062,13 +10062,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U122">
-        <v>0.9999659439209899</v>
+        <v>-3.405607901008079E-05</v>
       </c>
       <c r="V122">
-        <v>0.9997727685875295</v>
+        <v>-0.0002272314124704966</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10103,7 +10103,7 @@
         <v>0.7175167123477695</v>
       </c>
       <c r="K123">
-        <v>41.77640352430434</v>
+        <v>-0.08223596475695666</v>
       </c>
       <c r="L123">
         <v>-0.005727508856553496</v>
@@ -10133,13 +10133,13 @@
         <v>0.02187499999996589</v>
       </c>
       <c r="U123">
-        <v>0.9999545903481784</v>
+        <v>-4.540965182164847E-05</v>
       </c>
       <c r="V123">
-        <v>0.9997954452475114</v>
+        <v>-0.0002045547524885949</v>
       </c>
       <c r="W123">
-        <v>0.9996587030716723</v>
+        <v>-0.0003412969283277389</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10174,7 +10174,7 @@
         <v>0.7687948132163757</v>
       </c>
       <c r="K124">
-        <v>43.4643299195569</v>
+        <v>-0.06535670080443107</v>
       </c>
       <c r="L124">
         <v>-0.006535579255359463</v>
@@ -10204,13 +10204,13 @@
         <v>0.02812499999996021</v>
       </c>
       <c r="U124">
-        <v>0.9999432353575606</v>
+        <v>-5.676464243942192E-05</v>
       </c>
       <c r="V124">
-        <v>0.9998636022642023</v>
+        <v>-0.0001363977357976554</v>
       </c>
       <c r="W124">
-        <v>1.00034141345169</v>
+        <v>0.0003414134516901424</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10245,7 +10245,7 @@
         <v>0.8227717614991192</v>
       </c>
       <c r="K125">
-        <v>45.13849615611991</v>
+        <v>-0.04861503843880088</v>
       </c>
       <c r="L125">
         <v>-0.00713057319091821</v>
@@ -10275,13 +10275,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U125">
-        <v>0.9998864642703059</v>
+        <v>-0.0001135357296940809</v>
       </c>
       <c r="V125">
-        <v>0.999931791828661</v>
+        <v>-6.820817133901258E-05</v>
       </c>
       <c r="W125">
-        <v>1.000341296928328</v>
+        <v>0.0003412969283276279</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10316,7 +10316,7 @@
         <v>0.8227717614991191</v>
       </c>
       <c r="K126">
-        <v>45.13849615611991</v>
+        <v>-0.04861503843880088</v>
       </c>
       <c r="L126">
         <v>-0.007532645273698691</v>
@@ -10346,13 +10346,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U126">
-        <v>0.9998750965163284</v>
+        <v>-0.0001249034836715568</v>
       </c>
       <c r="V126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10387,7 +10387,7 @@
         <v>0.8825800144439533</v>
       </c>
       <c r="K127">
-        <v>46.88140783777713</v>
+        <v>-0.03118592162222877</v>
       </c>
       <c r="L127">
         <v>-0.007640748684614266</v>
@@ -10417,13 +10417,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U127">
-        <v>0.9999091497552722</v>
+        <v>-9.085024472776926E-05</v>
       </c>
       <c r="V127">
-        <v>1.000045475216007</v>
+        <v>4.547521600728466E-05</v>
       </c>
       <c r="W127">
-        <v>1.000341180484476</v>
+        <v>0.0003411804844761779</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10458,7 +10458,7 @@
         <v>0.8825800144439532</v>
       </c>
       <c r="K128">
-        <v>46.88140783777712</v>
+        <v>-0.03118592162222883</v>
       </c>
       <c r="L128">
         <v>-0.00753603748299381</v>
@@ -10488,13 +10488,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U128">
-        <v>0.9999432134379717</v>
+        <v>-5.678656202834365E-05</v>
       </c>
       <c r="V128">
-        <v>1.000045473148106</v>
+        <v>4.547314810610104E-05</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10529,7 +10529,7 @@
         <v>0.9488495467928376</v>
       </c>
       <c r="K129">
-        <v>48.687675677906</v>
+        <v>-0.01312324322094</v>
       </c>
       <c r="L129">
         <v>-0.007157522073243817</v>
@@ -10559,13 +10559,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U129">
-        <v>0.9999545681704607</v>
+        <v>-4.54318295393108E-05</v>
       </c>
       <c r="V129">
-        <v>1.000090942160786</v>
+        <v>9.094216078575634E-05</v>
       </c>
       <c r="W129">
-        <v>1.000341064120055</v>
+        <v>0.000341064120054746</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10600,7 +10600,7 @@
         <v>0.886976378569365</v>
       </c>
       <c r="K130">
-        <v>47.00516597043135</v>
+        <v>-0.02994834029568649</v>
       </c>
       <c r="L130">
         <v>-0.006735245088129197</v>
@@ -10630,13 +10630,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U130">
-        <v>0.9999318491594726</v>
+        <v>-6.815084052735898E-05</v>
       </c>
       <c r="V130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W130">
-        <v>0.9996590521650187</v>
+        <v>-0.0003409478349812867</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10671,7 +10671,7 @@
         <v>0.8300043401791612</v>
       </c>
       <c r="K131">
-        <v>45.35532085666541</v>
+        <v>-0.0464467914333459</v>
       </c>
       <c r="L131">
         <v>-0.006412945157738688</v>
@@ -10701,13 +10701,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U131">
-        <v>0.9999318445146194</v>
+        <v>-6.815548538063876E-05</v>
       </c>
       <c r="V131">
-        <v>0.9999545330544695</v>
+        <v>-4.546694553053676E-05</v>
       </c>
       <c r="W131">
-        <v>0.9996589358799456</v>
+        <v>-0.0003410641200544129</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10742,7 +10742,7 @@
         <v>0.8300043401791612</v>
       </c>
       <c r="K132">
-        <v>45.35532085666541</v>
+        <v>-0.0464467914333459</v>
       </c>
       <c r="L132">
         <v>-0.006148422633237933</v>
@@ -10772,13 +10772,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U132">
-        <v>0.9998863997818876</v>
+        <v>-0.000113600218112353</v>
       </c>
       <c r="V132">
-        <v>0.9998863274678308</v>
+        <v>-0.0001136725321692067</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10813,7 +10813,7 @@
         <v>0.7265814239277387</v>
       </c>
       <c r="K133">
-        <v>42.08208277110177</v>
+        <v>-0.07917917228898225</v>
       </c>
       <c r="L133">
         <v>-0.006161641525968813</v>
@@ -10843,13 +10843,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U133">
-        <v>0.9998523029380354</v>
+        <v>-0.0001476970619646023</v>
       </c>
       <c r="V133">
-        <v>0.9998408403628837</v>
+        <v>-0.000159159637116324</v>
       </c>
       <c r="W133">
-        <v>0.9993176390310473</v>
+        <v>-0.0006823609689526888</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10884,7 +10884,7 @@
         <v>0.8577448677352456</v>
       </c>
       <c r="K134">
-        <v>46.17129524254383</v>
+        <v>-0.03828704757456164</v>
       </c>
       <c r="L134">
         <v>-0.006071640831629282</v>
@@ -10914,13 +10914,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U134">
-        <v>0.9998863700926083</v>
+        <v>-0.0001136299073917213</v>
       </c>
       <c r="V134">
-        <v>0.9998408150270618</v>
+        <v>-0.0001591849729382089</v>
       </c>
       <c r="W134">
-        <v>1.00068282690338</v>
+        <v>0.0006828269033800627</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10955,7 +10955,7 @@
         <v>0.8577448677352457</v>
       </c>
       <c r="K135">
-        <v>46.17129524254383</v>
+        <v>-0.03828704757456164</v>
       </c>
       <c r="L135">
         <v>-0.005902734750347065</v>
@@ -10985,13 +10985,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U135">
-        <v>0.9998636286152623</v>
+        <v>-0.0001363713847376546</v>
       </c>
       <c r="V135">
-        <v>0.9999090226760978</v>
+        <v>-9.097732390217494E-05</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11026,7 +11026,7 @@
         <v>0.8577448677352456</v>
       </c>
       <c r="K136">
-        <v>46.17129524254383</v>
+        <v>-0.03828704757456164</v>
       </c>
       <c r="L136">
         <v>-0.00567529498573045</v>
@@ -11056,13 +11056,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U136">
-        <v>0.9998749758476067</v>
+        <v>-0.0001250241523933493</v>
       </c>
       <c r="V136">
-        <v>1.000022746400382</v>
+        <v>2.274640038213427E-05</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11097,7 +11097,7 @@
         <v>0.8577448677352457</v>
       </c>
       <c r="K137">
-        <v>46.17129524254383</v>
+        <v>-0.03828704757456164</v>
       </c>
       <c r="L137">
         <v>-0.005406220460252975</v>
@@ -11127,13 +11127,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U137">
-        <v>0.9998976947210477</v>
+        <v>-0.0001023052789522749</v>
       </c>
       <c r="V137">
-        <v>1.000022745882995</v>
+        <v>2.274588299511215E-05</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11168,7 +11168,7 @@
         <v>0.8577448677352457</v>
       </c>
       <c r="K138">
-        <v>46.17129524254383</v>
+        <v>-0.03828704757456164</v>
       </c>
       <c r="L138">
         <v>-0.005109381415965455</v>
@@ -11198,13 +11198,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U138">
-        <v>0.9999204210861385</v>
+        <v>-7.957891386145555E-05</v>
       </c>
       <c r="V138">
-        <v>1.000045490731263</v>
+        <v>4.549073126347558E-05</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11239,7 +11239,7 @@
         <v>0.8577448677352458</v>
       </c>
       <c r="K139">
-        <v>46.17129524254383</v>
+        <v>-0.03828704757456164</v>
       </c>
       <c r="L139">
         <v>-0.004796030787509506</v>
@@ -11269,13 +11269,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U139">
-        <v>0.9999431533948793</v>
+        <v>-5.684660512073059E-05</v>
       </c>
       <c r="V139">
-        <v>1.000022744330975</v>
+        <v>2.274433097548823E-05</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11310,7 +11310,7 @@
         <v>0.9469605464008838</v>
       </c>
       <c r="K140">
-        <v>48.63789089878673</v>
+        <v>-0.01362109101213271</v>
       </c>
       <c r="L140">
         <v>-0.004351003625434043</v>
@@ -11340,13 +11340,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U140">
-        <v>0.9999772600652634</v>
+        <v>-2.273993473655977E-05</v>
       </c>
       <c r="V140">
-        <v>1.000022743813683</v>
+        <v>2.274381368283507E-05</v>
       </c>
       <c r="W140">
-        <v>1.000341180484476</v>
+        <v>0.0003411804844761779</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11381,7 +11381,7 @@
         <v>1.040871787101608</v>
       </c>
       <c r="K141">
-        <v>51.00133157212324</v>
+        <v>0.01001331572123243</v>
       </c>
       <c r="L141">
         <v>-0.003714517201621519</v>
@@ -11411,13 +11411,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U141">
-        <v>1.000022740451853</v>
+        <v>2.274045185290952E-05</v>
       </c>
       <c r="V141">
-        <v>1.000045486592827</v>
+        <v>4.548659282677114E-05</v>
       </c>
       <c r="W141">
-        <v>1.000341064120055</v>
+        <v>0.000341064120054746</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11452,7 +11452,7 @@
         <v>1.040871787101609</v>
       </c>
       <c r="K142">
-        <v>51.00133157212325</v>
+        <v>0.01001331572123254</v>
       </c>
       <c r="L142">
         <v>-0.002989043136892953</v>
@@ -11482,13 +11482,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U142">
-        <v>1.000034109902105</v>
+        <v>3.410990210461762E-05</v>
       </c>
       <c r="V142">
-        <v>1.000022742261945</v>
+        <v>2.274226194542983E-05</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11523,7 +11523,7 @@
         <v>0.8615678424348396</v>
       </c>
       <c r="K143">
-        <v>46.2818395760399</v>
+        <v>-0.03718160423960098</v>
       </c>
       <c r="L143">
         <v>-0.002493365292658307</v>
@@ -11553,13 +11553,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U143">
-        <v>1.000011369579553</v>
+        <v>1.136957955294449E-05</v>
       </c>
       <c r="V143">
-        <v>0.9999772582552534</v>
+        <v>-2.274174474659052E-05</v>
       </c>
       <c r="W143">
-        <v>0.9993181043300375</v>
+        <v>-0.0006818956699624623</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11594,7 +11594,7 @@
         <v>0.7899473727069645</v>
       </c>
       <c r="K144">
-        <v>44.13243566554223</v>
+        <v>-0.0586756433445777</v>
       </c>
       <c r="L144">
         <v>-0.002283616152443848</v>
@@ -11624,13 +11624,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U144">
-        <v>1.000011369450287</v>
+        <v>1.136945028701319E-05</v>
       </c>
       <c r="V144">
-        <v>0.9999317732141637</v>
+        <v>-6.822678583628949E-05</v>
       </c>
       <c r="W144">
-        <v>0.9996588195155236</v>
+        <v>-0.0003411804844763999</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11665,7 +11665,7 @@
         <v>0.7899473727069645</v>
       </c>
       <c r="K145">
-        <v>44.13243566554223</v>
+        <v>-0.0586756433445777</v>
       </c>
       <c r="L145">
         <v>-0.002252157767443598</v>
@@ -11695,13 +11695,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U145">
-        <v>0.9999772613579517</v>
+        <v>-2.273864204827003E-05</v>
       </c>
       <c r="V145">
-        <v>0.9999545123726347</v>
+        <v>-4.548762736533707E-05</v>
       </c>
       <c r="W145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11736,7 +11736,7 @@
         <v>0.8820560347132572</v>
       </c>
       <c r="K146">
-        <v>46.86661918903194</v>
+        <v>-0.03133380810968056</v>
       </c>
       <c r="L146">
         <v>-0.002198330871071141</v>
@@ -11766,13 +11766,13 @@
         <v>0.015625</v>
       </c>
       <c r="U146">
-        <v>0.9999772608408941</v>
+        <v>-2.273915910588897E-05</v>
       </c>
       <c r="V146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W146">
-        <v>1.000341296928328</v>
+        <v>0.0003412969283276279</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11807,7 +11807,7 @@
         <v>0.8820560347132572</v>
       </c>
       <c r="K147">
-        <v>46.86661918903194</v>
+        <v>-0.03133380810968056</v>
       </c>
       <c r="L147">
         <v>-0.002126378273452803</v>
@@ -11837,13 +11837,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U147">
-        <v>0.9999431508095326</v>
+        <v>-5.684919046744508E-05</v>
       </c>
       <c r="V147">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11878,7 +11878,7 @@
         <v>0.9841154939999502</v>
       </c>
       <c r="K148">
-        <v>49.59970813069891</v>
+        <v>-0.004002918693010837</v>
       </c>
       <c r="L148">
         <v>-0.001916083851749565</v>
@@ -11908,13 +11908,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U148">
-        <v>0.9999545180620145</v>
+        <v>-4.548193798548095E-05</v>
       </c>
       <c r="V148">
-        <v>1.000068234544876</v>
+        <v>6.823454487592251E-05</v>
       </c>
       <c r="W148">
-        <v>1.000341180484476</v>
+        <v>0.0003411804844761779</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11949,7 +11949,7 @@
         <v>0.8100635941879837</v>
       </c>
       <c r="K149">
-        <v>44.75332230254529</v>
+        <v>-0.05246677697454716</v>
       </c>
       <c r="L149">
         <v>-0.001876804965532867</v>
@@ -11979,13 +11979,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U149">
-        <v>0.9999090319866278</v>
+        <v>-9.096801337216132E-05</v>
       </c>
       <c r="V149">
-        <v>0.9999772567035864</v>
+        <v>-2.274329641360762E-05</v>
       </c>
       <c r="W149">
-        <v>0.999317871759891</v>
+        <v>-0.0006821282401090478</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12020,7 +12020,7 @@
         <v>0.9031484644267613</v>
       </c>
       <c r="K150">
-        <v>47.45549184985915</v>
+        <v>-0.02544508150140851</v>
       </c>
       <c r="L150">
         <v>-0.001812602212436339</v>
@@ -12050,13 +12050,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U150">
-        <v>0.9999545118553478</v>
+        <v>-4.548814465221707E-05</v>
       </c>
       <c r="V150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W150">
-        <v>1.000341296928328</v>
+        <v>0.0003412969283276279</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12091,7 +12091,7 @@
         <v>1.001132538362261</v>
       </c>
       <c r="K151">
-        <v>50.02829743509112</v>
+        <v>0.0002829743509111804</v>
       </c>
       <c r="L151">
         <v>-0.001606580319878899</v>
@@ -12121,13 +12121,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U151">
-        <v>1.000022745106959</v>
+        <v>2.274510695876586E-05</v>
       </c>
       <c r="V151">
-        <v>1.000022743813683</v>
+        <v>2.274381368261302E-05</v>
       </c>
       <c r="W151">
-        <v>1.000341180484476</v>
+        <v>0.0003411804844761779</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12162,7 +12162,7 @@
         <v>0.9075289740545081</v>
       </c>
       <c r="K152">
-        <v>47.5761567136529</v>
+        <v>-0.02423843286347099</v>
       </c>
       <c r="L152">
         <v>-0.001446123876804055</v>
@@ -12192,13 +12192,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U152">
-        <v>1.000011372294816</v>
+        <v>1.137229481562585E-05</v>
       </c>
       <c r="V152">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W152">
-        <v>0.9996589358799456</v>
+        <v>-0.0003410641200544129</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12233,7 +12233,7 @@
         <v>0.9075289740545081</v>
       </c>
       <c r="K153">
-        <v>47.5761567136529</v>
+        <v>-0.02423843286347099</v>
       </c>
       <c r="L153">
         <v>-0.001318232337949453</v>
@@ -12263,13 +12263,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U153">
-        <v>1.000022744330975</v>
+        <v>2.274433097526618E-05</v>
       </c>
       <c r="V153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12304,7 +12304,7 @@
         <v>0.8223361559648213</v>
       </c>
       <c r="K154">
-        <v>45.12538223385258</v>
+        <v>-0.04874617766147421</v>
       </c>
       <c r="L154">
         <v>-0.001337635514138703</v>
@@ -12334,13 +12334,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V154">
-        <v>0.9999772567035864</v>
+        <v>-2.274329641360762E-05</v>
       </c>
       <c r="W154">
-        <v>0.9996588195155236</v>
+        <v>-0.0003411804844763999</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12375,7 +12375,7 @@
         <v>0.6866372788603111</v>
       </c>
       <c r="K155">
-        <v>40.71042941279487</v>
+        <v>-0.09289570587205132</v>
       </c>
       <c r="L155">
         <v>-0.001688607369803565</v>
@@ -12405,13 +12405,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U155">
-        <v>0.999965884279476</v>
+        <v>-3.411572052403056E-05</v>
       </c>
       <c r="V155">
-        <v>0.9999090247452692</v>
+        <v>-9.097525473078516E-05</v>
       </c>
       <c r="W155">
-        <v>0.9993174061433447</v>
+        <v>-0.0006825938566552558</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12446,7 +12446,7 @@
         <v>0.7734879677372182</v>
       </c>
       <c r="K156">
-        <v>43.61393941251863</v>
+        <v>-0.06386060587481374</v>
       </c>
       <c r="L156">
         <v>-0.002087739010256456</v>
@@ -12476,13 +12476,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U156">
-        <v>0.9999772554103693</v>
+        <v>-2.274458963069659E-05</v>
       </c>
       <c r="V156">
-        <v>0.9999090164680193</v>
+        <v>-9.098353198067066E-05</v>
       </c>
       <c r="W156">
-        <v>1.000341530054645</v>
+        <v>0.0003415300546447675</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12517,7 +12517,7 @@
         <v>0.7734879677372182</v>
       </c>
       <c r="K157">
-        <v>43.61393941251863</v>
+        <v>-0.06386060587481374</v>
       </c>
       <c r="L157">
         <v>-0.002483026109539809</v>
@@ -12547,13 +12547,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U157">
-        <v>0.9999658823395615</v>
+        <v>-3.411766043848186E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999090081892631</v>
+        <v>-9.099181073690676E-05</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12588,7 +12588,7 @@
         <v>0.705586905362424</v>
       </c>
       <c r="K158">
-        <v>41.36915586910491</v>
+        <v>-0.08630844130895093</v>
       </c>
       <c r="L158">
         <v>-0.002965994305845314</v>
@@ -12618,13 +12618,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U158">
-        <v>0.9999545082340099</v>
+        <v>-4.549176599011329E-05</v>
       </c>
       <c r="V158">
-        <v>0.99993174993175</v>
+        <v>-6.825006824995317E-05</v>
       </c>
       <c r="W158">
-        <v>0.9996585865483101</v>
+        <v>-0.0003414134516899203</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12659,7 +12659,7 @@
         <v>0.705586905362424</v>
       </c>
       <c r="K159">
-        <v>41.36915586910491</v>
+        <v>-0.08630844130895093</v>
       </c>
       <c r="L159">
         <v>-0.003460533553228561</v>
@@ -12689,13 +12689,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U159">
-        <v>0.9999431327055183</v>
+        <v>-5.686729448173278E-05</v>
       </c>
       <c r="V159">
-        <v>0.9999544968489068</v>
+        <v>-4.55031510931958E-05</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12730,7 +12730,7 @@
         <v>0.5079536995182942</v>
       </c>
       <c r="K160">
-        <v>33.68496656631808</v>
+        <v>-0.1631503343368192</v>
       </c>
       <c r="L160">
         <v>-0.004414929363081065</v>
@@ -12760,13 +12760,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U160">
-        <v>0.9999090071543125</v>
+        <v>-9.099284568747645E-05</v>
       </c>
       <c r="V160">
-        <v>0.9998634843348272</v>
+        <v>-0.0001365156651728094</v>
       </c>
       <c r="W160">
-        <v>0.9986338797814206</v>
+        <v>-0.001366120218579403</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12801,7 +12801,7 @@
         <v>0.6553734942587516</v>
       </c>
       <c r="K161">
-        <v>39.59067222785374</v>
+        <v>-0.1040932777214625</v>
       </c>
       <c r="L161">
         <v>-0.005322651856175561</v>
@@ -12831,13 +12831,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U161">
-        <v>0.9999431242961632</v>
+        <v>-5.687570383683394E-05</v>
       </c>
       <c r="V161">
-        <v>0.9998862214131301</v>
+        <v>-0.0001137785868698948</v>
       </c>
       <c r="W161">
-        <v>1.000683994528044</v>
+        <v>0.0006839945280439075</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12872,7 +12872,7 @@
         <v>0.6081848198842279</v>
       </c>
       <c r="K162">
-        <v>37.81809232150386</v>
+        <v>-0.1218190767849614</v>
       </c>
       <c r="L162">
         <v>-0.006249191542336697</v>
@@ -12902,13 +12902,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U162">
-        <v>0.99993174527336</v>
+        <v>-6.825472663996024E-05</v>
       </c>
       <c r="V162">
-        <v>0.9998634501593082</v>
+        <v>-0.0001365498406917798</v>
       </c>
       <c r="W162">
-        <v>0.9996582365003417</v>
+        <v>-0.0003417634996583097</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12943,7 +12943,7 @@
         <v>0.5281286157158829</v>
       </c>
       <c r="K163">
-        <v>34.56048203563483</v>
+        <v>-0.1543951796436517</v>
       </c>
       <c r="L163">
         <v>-0.007353935615108813</v>
@@ -12973,13 +12973,13 @@
         <v>-0.1031250000000341</v>
       </c>
       <c r="U163">
-        <v>0.9999317406143343</v>
+        <v>-6.825938566568102E-05</v>
       </c>
       <c r="V163">
-        <v>0.9997951472663539</v>
+        <v>-0.0002048527336461214</v>
       </c>
       <c r="W163">
-        <v>0.9993162393162394</v>
+        <v>-0.0006837606837606369</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13014,7 +13014,7 @@
         <v>0.4939106484319732</v>
       </c>
       <c r="K164">
-        <v>33.06159233488214</v>
+        <v>-0.1693840766511787</v>
       </c>
       <c r="L164">
         <v>-0.00859388385800983</v>
@@ -13044,13 +13044,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U164">
-        <v>0.9998976039320091</v>
+        <v>-0.0001023960679908953</v>
       </c>
       <c r="V164">
-        <v>0.9998178713716562</v>
+        <v>-0.0001821286283437695</v>
       </c>
       <c r="W164">
-        <v>0.9996578857338351</v>
+        <v>-0.0003421142661649279</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13085,7 +13085,7 @@
         <v>0.5621116734448049</v>
       </c>
       <c r="K165">
-        <v>35.98409019025019</v>
+        <v>-0.1401590980974982</v>
       </c>
       <c r="L165">
         <v>-0.009681358854860541</v>
@@ -13115,13 +13115,13 @@
         <v>-0.1312499999999943</v>
       </c>
       <c r="U165">
-        <v>0.9999089719519826</v>
+        <v>-9.102804801741637E-05</v>
       </c>
       <c r="V165">
-        <v>0.9998178381947767</v>
+        <v>-0.0001821618052233465</v>
       </c>
       <c r="W165">
-        <v>1.000342231348392</v>
+        <v>0.0003422313483916195</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13156,7 +13156,7 @@
         <v>0.5244603733981067</v>
       </c>
       <c r="K166">
-        <v>34.40301778583168</v>
+        <v>-0.1559698221416832</v>
       </c>
       <c r="L166">
         <v>-0.01069634358056287</v>
@@ -13186,13 +13186,13 @@
         <v>-0.140625</v>
       </c>
       <c r="U166">
-        <v>0.9998975841232635</v>
+        <v>-0.0001024158767365391</v>
       </c>
       <c r="V166">
-        <v>0.9997722562572593</v>
+        <v>-0.0002277437427407047</v>
       </c>
       <c r="W166">
-        <v>0.9996578857338351</v>
+        <v>-0.0003421142661649279</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13227,7 +13227,7 @@
         <v>0.5244603733981067</v>
       </c>
       <c r="K167">
-        <v>34.40301778583168</v>
+        <v>-0.1559698221416832</v>
       </c>
       <c r="L167">
         <v>-0.01156395987705905</v>
@@ -13257,13 +13257,13 @@
         <v>-0.1468750000000227</v>
       </c>
       <c r="U167">
-        <v>0.9998975736331771</v>
+        <v>-0.0001024263668228942</v>
       </c>
       <c r="V167">
-        <v>0.9997949839404087</v>
+        <v>-0.0002050160595913342</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13298,7 +13298,7 @@
         <v>0.5986785296638095</v>
       </c>
       <c r="K168">
-        <v>37.44833739586828</v>
+        <v>-0.1255166260413172</v>
       </c>
       <c r="L168">
         <v>-0.012120742140697</v>
@@ -13328,13 +13328,13 @@
         <v>-0.1281250000000114</v>
       </c>
       <c r="U168">
-        <v>0.9999089450141703</v>
+        <v>-9.105498582973048E-05</v>
       </c>
       <c r="V168">
-        <v>0.9998177261335156</v>
+        <v>-0.0001822738664843948</v>
       </c>
       <c r="W168">
-        <v>1.000342231348392</v>
+        <v>0.0003422313483916195</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13369,7 +13369,7 @@
         <v>0.6768029046802944</v>
       </c>
       <c r="K169">
-        <v>40.36269872810939</v>
+        <v>-0.09637301271890614</v>
       </c>
       <c r="L169">
         <v>-0.01228534407863988</v>
@@ -13399,13 +13399,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U169">
-        <v>0.9999203196321043</v>
+        <v>-7.968036789574029E-05</v>
       </c>
       <c r="V169">
-        <v>0.9998632696777723</v>
+        <v>-0.0001367303222277183</v>
       </c>
       <c r="W169">
-        <v>1.000342114266165</v>
+        <v>0.0003421142661648169</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13440,7 +13440,7 @@
         <v>0.5812099307927729</v>
       </c>
       <c r="K170">
-        <v>36.75729069709112</v>
+        <v>-0.1324270930290888</v>
       </c>
       <c r="L170">
         <v>-0.01240581186840149</v>
@@ -13470,13 +13470,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U170">
-        <v>0.9998861618323392</v>
+        <v>-0.0001138381676607514</v>
       </c>
       <c r="V170">
-        <v>0.9998632509800344</v>
+        <v>-0.0001367490199656318</v>
       </c>
       <c r="W170">
-        <v>0.9993160054719563</v>
+        <v>-0.0006839945280436854</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13511,7 +13511,7 @@
         <v>0.7298856860882216</v>
       </c>
       <c r="K171">
-        <v>42.19271203629108</v>
+        <v>-0.07807287963708914</v>
       </c>
       <c r="L171">
         <v>-0.01219806956747381</v>
@@ -13541,13 +13541,13 @@
         <v>-0.09375000000002842</v>
       </c>
       <c r="U171">
-        <v>0.9998975339845617</v>
+        <v>-0.000102466015438285</v>
       </c>
       <c r="V171">
-        <v>0.9998860268976523</v>
+        <v>-0.0001139731023477308</v>
       </c>
       <c r="W171">
-        <v>1.000684462696783</v>
+        <v>0.000684462696783017</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13582,7 +13582,7 @@
         <v>0.6769166862950724</v>
       </c>
       <c r="K172">
-        <v>40.36674521920532</v>
+        <v>-0.09633254780794681</v>
       </c>
       <c r="L172">
         <v>-0.01188464972104993</v>
@@ -13612,13 +13612,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U172">
-        <v>0.9998861372046682</v>
+        <v>-0.000113862795331765</v>
       </c>
       <c r="V172">
-        <v>0.9998632166875643</v>
+        <v>-0.0001367833124357176</v>
       </c>
       <c r="W172">
-        <v>0.9996580027359783</v>
+        <v>-0.0003419972640217317</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13653,7 +13653,7 @@
         <v>0.7533078841912129</v>
       </c>
       <c r="K173">
-        <v>42.96495161993228</v>
+        <v>-0.07035048380067721</v>
       </c>
       <c r="L173">
         <v>-0.01135953360831975</v>
@@ -13683,13 +13683,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U173">
-        <v>0.9999202869669191</v>
+        <v>-7.971303308085265E-05</v>
       </c>
       <c r="V173">
-        <v>0.9999087986502199</v>
+        <v>-9.12013497801345E-05</v>
       </c>
       <c r="W173">
-        <v>1.000342114266165</v>
+        <v>0.0003421142661648169</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13724,7 +13724,7 @@
         <v>0.6069017266093254</v>
       </c>
       <c r="K174">
-        <v>37.76844075523712</v>
+        <v>-0.1223155924476289</v>
       </c>
       <c r="L174">
         <v>-0.01107143287427914</v>
@@ -13754,13 +13754,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U174">
-        <v>0.9998975036443147</v>
+        <v>-0.0001024963556852665</v>
       </c>
       <c r="V174">
-        <v>0.9998403830806065</v>
+        <v>-0.0001596169193934793</v>
       </c>
       <c r="W174">
-        <v>0.9989740082079345</v>
+        <v>-0.001025991792065528</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13795,7 +13795,7 @@
         <v>0.675095067852294</v>
       </c>
       <c r="K175">
-        <v>40.30189574361653</v>
+        <v>-0.09698104256383472</v>
       </c>
       <c r="L175">
         <v>-0.01078065933646625</v>
@@ -13825,13 +13825,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U175">
-        <v>0.999908882789098</v>
+        <v>-9.11172109020475E-05</v>
       </c>
       <c r="V175">
-        <v>0.9999543878854225</v>
+        <v>-4.561211457754233E-05</v>
       </c>
       <c r="W175">
-        <v>1.000342348510784</v>
+        <v>0.000342348510783852</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13866,7 +13866,7 @@
         <v>0.675095067852294</v>
       </c>
       <c r="K176">
-        <v>40.30189574361653</v>
+        <v>-0.09698104256383472</v>
       </c>
       <c r="L176">
         <v>-0.01046757891390133</v>
@@ -13896,13 +13896,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U176">
-        <v>0.9998974837967445</v>
+        <v>-0.0001025162032555205</v>
       </c>
       <c r="V176">
-        <v>0.9999087716097248</v>
+        <v>-9.12283902751998E-05</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13937,7 +13937,7 @@
         <v>0.675095067852294</v>
       </c>
       <c r="K177">
-        <v>40.30189574361653</v>
+        <v>-0.09698104256383472</v>
       </c>
       <c r="L177">
         <v>-0.01012284791121234</v>
@@ -13967,13 +13967,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U177">
-        <v>0.9998974732860952</v>
+        <v>-0.0001025267139047603</v>
       </c>
       <c r="V177">
-        <v>0.9999315724647598</v>
+        <v>-6.842753524016754E-05</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14008,7 +14008,7 @@
         <v>0.675095067852294</v>
       </c>
       <c r="K178">
-        <v>40.30189574361653</v>
+        <v>-0.09698104256383472</v>
       </c>
       <c r="L178">
         <v>-0.00974406955052093</v>
@@ -14038,13 +14038,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U178">
-        <v>0.9998860697481003</v>
+        <v>-0.0001139302518996521</v>
       </c>
       <c r="V178">
-        <v>0.999977189260704</v>
+        <v>-2.281073929599753E-05</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14079,7 +14079,7 @@
         <v>0.675095067852294</v>
       </c>
       <c r="K179">
-        <v>40.30189574361653</v>
+        <v>-0.09698104256383472</v>
       </c>
       <c r="L179">
         <v>-0.009333334185739998</v>
@@ -14109,13 +14109,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U179">
-        <v>0.999908845413215</v>
+        <v>-9.115458678499166E-05</v>
       </c>
       <c r="V179">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14150,7 +14150,7 @@
         <v>0.6750950678522941</v>
       </c>
       <c r="K180">
-        <v>40.30189574361653</v>
+        <v>-0.09698104256383466</v>
       </c>
       <c r="L180">
         <v>-0.008895435295139101</v>
@@ -14180,13 +14180,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U180">
-        <v>0.9998974417412114</v>
+        <v>-0.0001025582587885765</v>
       </c>
       <c r="V180">
-        <v>0.9999771887403625</v>
+        <v>-2.281125963754516E-05</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14221,7 +14221,7 @@
         <v>0.7678635259358503</v>
       </c>
       <c r="K181">
-        <v>43.43454767128407</v>
+        <v>-0.06565452328715937</v>
       </c>
       <c r="L181">
         <v>-0.008312108715051364</v>
@@ -14251,13 +14251,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U181">
-        <v>0.999897431221936</v>
+        <v>-0.0001025687780640272</v>
       </c>
       <c r="V181">
-        <v>1.000022811780003</v>
+        <v>2.281178000296258E-05</v>
       </c>
       <c r="W181">
-        <v>1.000342231348392</v>
+        <v>0.0003422313483916195</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14292,7 +14292,7 @@
         <v>0.8655145344448013</v>
       </c>
       <c r="K182">
-        <v>46.39548598866256</v>
+        <v>-0.03604514011337445</v>
       </c>
       <c r="L182">
         <v>-0.00752304899004263</v>
@@ -14322,13 +14322,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U182">
-        <v>0.9999202161003908</v>
+        <v>-7.978389960916488E-05</v>
       </c>
       <c r="V182">
-        <v>1.000045622519276</v>
+        <v>4.562251927575645E-05</v>
       </c>
       <c r="W182">
-        <v>1.000342114266165</v>
+        <v>0.0003421142661648169</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14363,7 +14363,7 @@
         <v>0.9683050697174399</v>
       </c>
       <c r="K183">
-        <v>49.19486743264066</v>
+        <v>-0.008051325673593457</v>
       </c>
       <c r="L183">
         <v>-0.006507670828413625</v>
@@ -14393,13 +14393,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U183">
-        <v>0.9999316083437821</v>
+        <v>-6.839165621785881E-05</v>
       </c>
       <c r="V183">
-        <v>1.000045620437956</v>
+        <v>4.56204379561953E-05</v>
       </c>
       <c r="W183">
-        <v>1.000341997264022</v>
+        <v>0.0003419972640219537</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14434,7 +14434,7 @@
         <v>0.8737633797147943</v>
       </c>
       <c r="K184">
-        <v>46.63146847537334</v>
+        <v>-0.03368531524626661</v>
       </c>
       <c r="L184">
         <v>-0.005520640431827597</v>
@@ -14464,13 +14464,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U184">
-        <v>0.9999316036660437</v>
+        <v>-6.839633395627764E-05</v>
       </c>
       <c r="V184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W184">
-        <v>0.9996581196581196</v>
+        <v>-0.0003418803418804295</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14505,7 +14505,7 @@
         <v>0.792331497845044</v>
       </c>
       <c r="K185">
-        <v>44.2067496329602</v>
+        <v>-0.05793250367039804</v>
       </c>
       <c r="L185">
         <v>-0.004718086307883372</v>
@@ -14535,13 +14535,13 @@
         <v>0.015625</v>
       </c>
       <c r="U185">
-        <v>0.9999429991563874</v>
+        <v>-5.700084361259794E-05</v>
       </c>
       <c r="V185">
-        <v>1.000022809178414</v>
+        <v>2.280917841357422E-05</v>
       </c>
       <c r="W185">
-        <v>0.9996580027359783</v>
+        <v>-0.0003419972640217317</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14576,7 +14576,7 @@
         <v>0.7215464809668132</v>
       </c>
       <c r="K186">
-        <v>41.91269239280694</v>
+        <v>-0.08087307607193062</v>
       </c>
       <c r="L186">
         <v>-0.004185795768379493</v>
@@ -14606,13 +14606,13 @@
         <v>0.015625</v>
       </c>
       <c r="U186">
-        <v>0.9999201942699486</v>
+        <v>-7.980573005139657E-05</v>
       </c>
       <c r="V186">
-        <v>0.9999543826836668</v>
+        <v>-4.561731633323518E-05</v>
       </c>
       <c r="W186">
-        <v>0.9996578857338351</v>
+        <v>-0.0003421142661649279</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14647,7 +14647,7 @@
         <v>0.7215464809668131</v>
       </c>
       <c r="K187">
-        <v>41.91269239280694</v>
+        <v>-0.08087307607193062</v>
       </c>
       <c r="L187">
         <v>-0.003835940268766858</v>
@@ -14677,13 +14677,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U187">
-        <v>0.9999201879004856</v>
+        <v>-7.981209951435364E-05</v>
       </c>
       <c r="V187">
-        <v>0.9999771903013159</v>
+        <v>-2.280969868406757E-05</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14718,7 +14718,7 @@
         <v>0.7215464809668131</v>
       </c>
       <c r="K188">
-        <v>41.91269239280694</v>
+        <v>-0.08087307607193062</v>
       </c>
       <c r="L188">
         <v>-0.00360495114647926</v>
@@ -14748,13 +14748,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U188">
-        <v>0.9999315841685766</v>
+        <v>-6.841583142336294E-05</v>
       </c>
       <c r="V188">
-        <v>0.9999543795620438</v>
+        <v>-4.56204379561953E-05</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14789,7 +14789,7 @@
         <v>0.825745493466727</v>
       </c>
       <c r="K189">
-        <v>45.22785330275146</v>
+        <v>-0.04772146697248547</v>
       </c>
       <c r="L189">
         <v>-0.003323033540897521</v>
@@ -14819,13 +14819,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U189">
-        <v>0.9999429829062751</v>
+        <v>-5.701709372485375E-05</v>
       </c>
       <c r="V189">
-        <v>1.000045622519276</v>
+        <v>4.56225192755344E-05</v>
       </c>
       <c r="W189">
-        <v>1.000342231348392</v>
+        <v>0.0003422313483916195</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14860,7 +14860,7 @@
         <v>0.677192296485094</v>
       </c>
       <c r="K190">
-        <v>40.37654465169508</v>
+        <v>-0.09623455348304921</v>
       </c>
       <c r="L190">
         <v>-0.003265218974934479</v>
@@ -14890,13 +14890,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U190">
-        <v>0.9999657877930848</v>
+        <v>-3.421220691524063E-05</v>
       </c>
       <c r="V190">
-        <v>0.9999771897810221</v>
+        <v>-2.281021897787561E-05</v>
       </c>
       <c r="W190">
-        <v>0.9993157714676703</v>
+        <v>-0.0006842285323297448</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14931,7 +14931,7 @@
         <v>0.6771922964850942</v>
       </c>
       <c r="K191">
-        <v>40.37654465169508</v>
+        <v>-0.09623455348304921</v>
       </c>
       <c r="L191">
         <v>-0.003334989295034721</v>
@@ -14961,13 +14961,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U191">
-        <v>0.9999429777042822</v>
+        <v>-5.702229571780126E-05</v>
       </c>
       <c r="V191">
-        <v>0.9999771892607038</v>
+        <v>-2.281073929621957E-05</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15002,7 +15002,7 @@
         <v>0.6158148596013848</v>
       </c>
       <c r="K192">
-        <v>38.11172152193872</v>
+        <v>-0.1188827847806128</v>
       </c>
       <c r="L192">
         <v>-0.003590040702474121</v>
@@ -15032,13 +15032,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U192">
-        <v>0.9999429744525548</v>
+        <v>-5.702554744524413E-05</v>
       </c>
       <c r="V192">
-        <v>0.9999543774807246</v>
+        <v>-4.562251927542338E-05</v>
       </c>
       <c r="W192">
-        <v>0.9996576514892159</v>
+        <v>-0.000342348510784074</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15073,7 +15073,7 @@
         <v>0.5171390949073714</v>
       </c>
       <c r="K193">
-        <v>34.0864655484305</v>
+        <v>-0.1591353445156951</v>
       </c>
       <c r="L193">
         <v>-0.004177171462901521</v>
@@ -15103,13 +15103,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U193">
-        <v>0.9999429712004563</v>
+        <v>-5.702879954372353E-05</v>
       </c>
       <c r="V193">
-        <v>0.9999087507984304</v>
+        <v>-9.124920156955429E-05</v>
       </c>
       <c r="W193">
-        <v>0.9993150684931508</v>
+        <v>-0.000684931506849229</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15144,7 +15144,7 @@
         <v>0.4769182937511245</v>
       </c>
       <c r="K194">
-        <v>32.29144738534127</v>
+        <v>-0.1770855261465873</v>
       </c>
       <c r="L194">
         <v>-0.005037495619931753</v>
@@ -15174,13 +15174,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U194">
-        <v>0.9999429679479866</v>
+        <v>-5.703205201335049E-05</v>
       </c>
       <c r="V194">
-        <v>0.9998859280890674</v>
+        <v>-0.0001140719109326005</v>
       </c>
       <c r="W194">
-        <v>0.9996572995202192</v>
+        <v>-0.0003427004797807998</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15215,7 +15215,7 @@
         <v>0.5587873418361694</v>
       </c>
       <c r="K195">
-        <v>35.84756732614645</v>
+        <v>-0.1415243267385355</v>
       </c>
       <c r="L195">
         <v>-0.00586568416911828</v>
@@ -15245,13 +15245,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U195">
-        <v>0.9999429646951463</v>
+        <v>-5.703530485368091E-05</v>
       </c>
       <c r="V195">
-        <v>0.9999087320601456</v>
+        <v>-9.126793985436699E-05</v>
       </c>
       <c r="W195">
-        <v>1.000342817963661</v>
+        <v>0.0003428179636613127</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15286,7 +15286,7 @@
         <v>0.7311432325414781</v>
       </c>
       <c r="K196">
-        <v>42.23470471984529</v>
+        <v>-0.0776529528015471</v>
       </c>
       <c r="L196">
         <v>-0.006351184290452633</v>
@@ -15316,13 +15316,13 @@
         <v>-0.08437499999996589</v>
       </c>
       <c r="U196">
-        <v>0.9999771845767739</v>
+        <v>-2.281542322613017E-05</v>
       </c>
       <c r="V196">
-        <v>0.9999315427971611</v>
+        <v>-6.845720283887857E-05</v>
       </c>
       <c r="W196">
-        <v>1.000685400959561</v>
+        <v>0.0006854009595613775</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15357,7 +15357,7 @@
         <v>0.6188643697302767</v>
       </c>
       <c r="K197">
-        <v>38.22830258679344</v>
+        <v>-0.1177169741320656</v>
       </c>
       <c r="L197">
         <v>-0.006824198879879306</v>
@@ -15387,13 +15387,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U197">
-        <v>0.999954368112437</v>
+        <v>-4.563188756301351E-05</v>
       </c>
       <c r="V197">
-        <v>0.9998630762209036</v>
+        <v>-0.000136923779096354</v>
       </c>
       <c r="W197">
-        <v>0.9993150684931508</v>
+        <v>-0.000684931506849229</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15428,7 +15428,7 @@
         <v>0.5725855451446124</v>
       </c>
       <c r="K198">
-        <v>36.41045454808364</v>
+        <v>-0.1358954545191636</v>
       </c>
       <c r="L198">
         <v>-0.007359316722453599</v>
@@ -15458,13 +15458,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U198">
-        <v>0.9999315490451091</v>
+        <v>-6.845095489094177E-05</v>
       </c>
       <c r="V198">
-        <v>0.9998174099602868</v>
+        <v>-0.0001825900397132152</v>
       </c>
       <c r="W198">
-        <v>0.9996572995202192</v>
+        <v>-0.0003427004797807998</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15499,7 +15499,7 @@
         <v>0.7300176242176214</v>
       </c>
       <c r="K199">
-        <v>42.19712065348251</v>
+        <v>-0.07802879346517494</v>
       </c>
       <c r="L199">
         <v>-0.007622034593673582</v>
@@ -15529,13 +15529,13 @@
         <v>-0.09687500000001137</v>
       </c>
       <c r="U199">
-        <v>0.9999429536327127</v>
+        <v>-5.704636728731671E-05</v>
       </c>
       <c r="V199">
-        <v>0.9998858603844223</v>
+        <v>-0.000114139615577713</v>
       </c>
       <c r="W199">
-        <v>1.000685635927323</v>
+        <v>0.0006856359273226253</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15570,7 +15570,7 @@
         <v>0.8128766132034391</v>
       </c>
       <c r="K200">
-        <v>44.83904791330765</v>
+        <v>-0.0516095208669235</v>
       </c>
       <c r="L200">
         <v>-0.007550622177066464</v>
@@ -15600,13 +15600,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U200">
-        <v>0.9999771801512954</v>
+        <v>-2.281984870455833E-05</v>
       </c>
       <c r="V200">
-        <v>0.9999315084130498</v>
+        <v>-6.849158695021451E-05</v>
       </c>
       <c r="W200">
-        <v>1.000342583076396</v>
+        <v>0.0003425830763961191</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15641,7 +15641,7 @@
         <v>1.161756566827836</v>
       </c>
       <c r="K201">
-        <v>53.74132243449588</v>
+        <v>0.03741322434495886</v>
       </c>
       <c r="L201">
         <v>-0.006755308345784669</v>
@@ -15671,13 +15671,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U201">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V201">
-        <v>1.000045664185579</v>
+        <v>4.566418557927499E-05</v>
       </c>
       <c r="W201">
-        <v>1.001369863013698</v>
+        <v>0.001369863013698458</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15712,7 +15712,7 @@
         <v>1.253567080939545</v>
       </c>
       <c r="K202">
-        <v>55.62590488395467</v>
+        <v>0.05625904883954669</v>
       </c>
       <c r="L202">
         <v>-0.005422734997872915</v>
@@ -15742,13 +15742,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U202">
-        <v>1.000022820369462</v>
+        <v>2.282036946188448E-05</v>
       </c>
       <c r="V202">
-        <v>1.000068493150685</v>
+        <v>6.849315068513384E-05</v>
       </c>
       <c r="W202">
-        <v>1.000341997264022</v>
+        <v>0.0003419972640219537</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15783,7 +15783,7 @@
         <v>1.143095323728777</v>
       </c>
       <c r="K203">
-        <v>53.33851980694459</v>
+        <v>0.03338519806944584</v>
       </c>
       <c r="L203">
         <v>-0.003954367992217957</v>
@@ -15813,13 +15813,13 @@
         <v>0.02187499999996589</v>
       </c>
       <c r="U203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V203">
-        <v>1.00004565897313</v>
+        <v>4.565897312969192E-05</v>
       </c>
       <c r="W203">
-        <v>0.9996581196581196</v>
+        <v>-0.0003418803418804295</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15854,7 +15854,7 @@
         <v>1.328623584625202</v>
       </c>
       <c r="K204">
-        <v>57.05617659279388</v>
+        <v>0.07056176592793872</v>
       </c>
       <c r="L204">
         <v>-0.002233578032691367</v>
@@ -15884,13 +15884,13 @@
         <v>0.04687500000002842</v>
       </c>
       <c r="U204">
-        <v>1.000057049621761</v>
+        <v>5.704962176089623E-05</v>
       </c>
       <c r="V204">
-        <v>1.000068485332724</v>
+        <v>6.84853327244106E-05</v>
       </c>
       <c r="W204">
-        <v>1.000683994528044</v>
+        <v>0.0006839945280439075</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15925,7 +15925,7 @@
         <v>1.111546448344248</v>
       </c>
       <c r="K205">
-        <v>52.64134488804913</v>
+        <v>0.02641344888049135</v>
       </c>
       <c r="L205">
         <v>-0.0007106634213921788</v>
@@ -15955,13 +15955,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U205">
-        <v>1.000022818546915</v>
+        <v>2.281854691488228E-05</v>
       </c>
       <c r="V205">
-        <v>1.000068480642805</v>
+        <v>6.848064280506883E-05</v>
       </c>
       <c r="W205">
-        <v>0.9993164730006834</v>
+        <v>-0.0006835269993166193</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15996,7 +15996,7 @@
         <v>1.023530884200562</v>
       </c>
       <c r="K206">
-        <v>50.58143130861724</v>
+        <v>0.005814313086172418</v>
       </c>
       <c r="L206">
         <v>0.0004732300270848021</v>
@@ -16026,13 +16026,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U206">
-        <v>1.00001140901312</v>
+        <v>1.140901312024489E-05</v>
       </c>
       <c r="V206">
-        <v>1.000045650635685</v>
+        <v>4.565063568495731E-05</v>
       </c>
       <c r="W206">
-        <v>0.9996580027359783</v>
+        <v>-0.0003419972640217317</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16067,7 +16067,7 @@
         <v>1.106881393209447</v>
       </c>
       <c r="K207">
-        <v>52.53648339090015</v>
+        <v>0.02536483390900157</v>
       </c>
       <c r="L207">
         <v>0.001499183718546215</v>
@@ -16097,13 +16097,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U207">
-        <v>1.000022817765912</v>
+        <v>2.281776591228635E-05</v>
       </c>
       <c r="V207">
-        <v>1.000091297103599</v>
+        <v>9.129710359934151E-05</v>
       </c>
       <c r="W207">
-        <v>1.000342114266165</v>
+        <v>0.0003421142661648169</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16138,7 +16138,7 @@
         <v>1.017599850565258</v>
       </c>
       <c r="K208">
-        <v>50.43615810539259</v>
+        <v>0.004361581053925923</v>
       </c>
       <c r="L208">
         <v>0.00223393918789265</v>
@@ -16168,13 +16168,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U208">
-        <v>1.000011408622637</v>
+        <v>1.140862263726561E-05</v>
       </c>
       <c r="V208">
-        <v>1.000114110961499</v>
+        <v>0.0001141109614988256</v>
       </c>
       <c r="W208">
-        <v>0.9996580027359783</v>
+        <v>-0.0003419972640217317</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16209,7 +16209,7 @@
         <v>0.8698836417090157</v>
       </c>
       <c r="K209">
-        <v>46.5207364942756</v>
+        <v>-0.03479263505724395</v>
       </c>
       <c r="L209">
         <v>0.002488017714632413</v>
@@ -16239,13 +16239,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U209">
-        <v>0.9999885915075182</v>
+        <v>-1.140849248182363E-05</v>
       </c>
       <c r="V209">
-        <v>1.000091278353339</v>
+        <v>9.127835333866408E-05</v>
       </c>
       <c r="W209">
-        <v>0.9993157714676703</v>
+        <v>-0.0006842285323297448</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16280,7 +16280,7 @@
         <v>0.9462843733315929</v>
       </c>
       <c r="K210">
-        <v>48.6200468080505</v>
+        <v>-0.01379953191949496</v>
       </c>
       <c r="L210">
         <v>0.002550292721815169</v>
@@ -16310,13 +16310,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U210">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V210">
-        <v>1.000091270022361</v>
+        <v>9.127002236097859E-05</v>
       </c>
       <c r="W210">
-        <v>1.000342348510784</v>
+        <v>0.000342348510783852</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16351,7 +16351,7 @@
         <v>0.8758471491382158</v>
       </c>
       <c r="K211">
-        <v>46.69075247098834</v>
+        <v>-0.03309247529011666</v>
       </c>
       <c r="L211">
         <v>0.002358481631140886</v>
@@ -16381,13 +16381,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U211">
-        <v>0.9999771827547262</v>
+        <v>-2.281724527375406E-05</v>
       </c>
       <c r="V211">
-        <v>1.000022815423226</v>
+        <v>2.281542322624119E-05</v>
       </c>
       <c r="W211">
-        <v>0.9996577686516086</v>
+        <v>-0.0003422313483913975</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16422,7 +16422,7 @@
         <v>0.9542003890404062</v>
       </c>
       <c r="K212">
-        <v>48.8281751652377</v>
+        <v>-0.01171824834762297</v>
       </c>
       <c r="L212">
         <v>0.00214102404712823</v>
@@ -16452,13 +16452,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U212">
-        <v>0.9999771822340875</v>
+        <v>-2.281776591250839E-05</v>
       </c>
       <c r="V212">
-        <v>1.000091259610778</v>
+        <v>9.125961077760536E-05</v>
       </c>
       <c r="W212">
-        <v>1.000342348510784</v>
+        <v>0.000342348510783852</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16493,7 +16493,7 @@
         <v>0.8814970716430131</v>
       </c>
       <c r="K213">
-        <v>46.85083410059458</v>
+        <v>-0.03149165899405426</v>
       </c>
       <c r="L213">
         <v>0.001789460920772915</v>
@@ -16523,13 +16523,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U213">
-        <v>0.9999543634268502</v>
+        <v>-4.563657314982095E-05</v>
       </c>
       <c r="V213">
-        <v>1.000091251283221</v>
+        <v>9.125128322118314E-05</v>
       </c>
       <c r="W213">
-        <v>0.9996577686516086</v>
+        <v>-0.0003422313483913975</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16564,7 +16564,7 @@
         <v>0.8814970716430131</v>
       </c>
       <c r="K214">
-        <v>46.85083410059458</v>
+        <v>-0.03149165899405426</v>
       </c>
       <c r="L214">
         <v>0.001372549494455445</v>
@@ -16594,13 +16594,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U214">
-        <v>0.9999657710080438</v>
+        <v>-3.422899195615337E-05</v>
       </c>
       <c r="V214">
-        <v>1.000045621478592</v>
+        <v>4.56214785922171E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16635,7 +16635,7 @@
         <v>0.619846543346919</v>
       </c>
       <c r="K215">
-        <v>38.26575708006235</v>
+        <v>-0.1173424291993765</v>
       </c>
       <c r="L215">
         <v>0.0003144829785418399</v>
@@ -16665,13 +16665,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U215">
-        <v>0.9999201296182196</v>
+        <v>-7.987038178036698E-05</v>
       </c>
       <c r="V215">
-        <v>0.9999087612052644</v>
+        <v>-9.123879473560415E-05</v>
       </c>
       <c r="W215">
-        <v>0.9982882574460801</v>
+        <v>-0.001711742553919926</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16706,7 +16706,7 @@
         <v>0.4958938778312524</v>
       </c>
       <c r="K216">
-        <v>33.15033808081357</v>
+        <v>-0.1684966191918643</v>
       </c>
       <c r="L216">
         <v>-0.001564234116099732</v>
@@ -16736,13 +16736,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U216">
-        <v>0.9998858903406173</v>
+        <v>-0.000114109659382744</v>
       </c>
       <c r="V216">
-        <v>0.9997262586399618</v>
+        <v>-0.0002737413600382155</v>
       </c>
       <c r="W216">
-        <v>0.9986282578875171</v>
+        <v>-0.001371742112482921</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16777,7 +16777,7 @@
         <v>0.6537674169559103</v>
       </c>
       <c r="K217">
-        <v>39.53200493932213</v>
+        <v>-0.1046799506067787</v>
       </c>
       <c r="L217">
         <v>-0.003440892190730438</v>
@@ -16807,13 +16807,13 @@
         <v>-0.125</v>
       </c>
       <c r="U217">
-        <v>0.9999201141226821</v>
+        <v>-7.988587731788677E-05</v>
       </c>
       <c r="V217">
-        <v>0.9997718197375927</v>
+        <v>-0.0002281802624073404</v>
       </c>
       <c r="W217">
-        <v>1.00103021978022</v>
+        <v>0.001030219780219888</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16848,7 +16848,7 @@
         <v>0.7091616412101868</v>
       </c>
       <c r="K218">
-        <v>41.4917831123368</v>
+        <v>-0.085082168876632</v>
       </c>
       <c r="L218">
         <v>-0.005059676397914936</v>
@@ -16878,13 +16878,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U218">
-        <v>0.9999315209203585</v>
+        <v>-6.847907964147026E-05</v>
       </c>
       <c r="V218">
-        <v>0.9998174141275818</v>
+        <v>-0.0001825858724181506</v>
       </c>
       <c r="W218">
-        <v>1.000343053173242</v>
+        <v>0.0003430531732420139</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16919,7 +16919,7 @@
         <v>0.7674713509514972</v>
       </c>
       <c r="K219">
-        <v>43.42199665857883</v>
+        <v>-0.06578003341421174</v>
       </c>
       <c r="L219">
         <v>-0.006276132675415541</v>
@@ -16949,13 +16949,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U219">
-        <v>0.9999315162306536</v>
+        <v>-6.848376934642797E-05</v>
       </c>
       <c r="V219">
-        <v>0.9997945533818796</v>
+        <v>-0.0002054466181203862</v>
       </c>
       <c r="W219">
-        <v>1.000342935528121</v>
+        <v>0.0003429355281205915</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16990,7 +16990,7 @@
         <v>0.7674713509514972</v>
       </c>
       <c r="K220">
-        <v>43.42199665857883</v>
+        <v>-0.06578003341421174</v>
       </c>
       <c r="L220">
         <v>-0.007148554119787267</v>
@@ -17020,13 +17020,13 @@
         <v>-0.140625</v>
       </c>
       <c r="U220">
-        <v>0.9999543410268703</v>
+        <v>-4.565897312969192E-05</v>
       </c>
       <c r="V220">
-        <v>0.9998401753504725</v>
+        <v>-0.0001598246495274624</v>
       </c>
       <c r="W220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17061,7 +17061,7 @@
         <v>0.7674713509514974</v>
       </c>
       <c r="K221">
-        <v>43.42199665857883</v>
+        <v>-0.06578003341421168</v>
       </c>
       <c r="L221">
         <v>-0.00773098053686725</v>
@@ -17091,13 +17091,13 @@
         <v>-0.1437499999999545</v>
       </c>
       <c r="U221">
-        <v>0.9999543389420329</v>
+        <v>-4.566105796710573E-05</v>
       </c>
       <c r="V221">
-        <v>0.9998629855449749</v>
+        <v>-0.0001370144550251196</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17132,7 +17132,7 @@
         <v>0.7674713509514974</v>
       </c>
       <c r="K222">
-        <v>43.42199665857883</v>
+        <v>-0.06578003341421168</v>
       </c>
       <c r="L222">
         <v>-0.008072492100539182</v>
@@ -17162,13 +17162,13 @@
         <v>-0.1500000000000341</v>
       </c>
       <c r="U222">
-        <v>0.9999657526427547</v>
+        <v>-3.424735724533168E-05</v>
       </c>
       <c r="V222">
-        <v>0.999840127897682</v>
+        <v>-0.0001598721023180483</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17203,7 +17203,7 @@
         <v>0.7161993374080962</v>
       </c>
       <c r="K223">
-        <v>41.73171040199456</v>
+        <v>-0.0826828959800544</v>
       </c>
       <c r="L223">
         <v>-0.008341594690490992</v>
@@ -17233,13 +17233,13 @@
         <v>-0.1249999999999716</v>
       </c>
       <c r="U223">
-        <v>0.9999771676465552</v>
+        <v>-2.283235344480161E-05</v>
       </c>
       <c r="V223">
-        <v>0.9998401023345058</v>
+        <v>-0.0001598976654941797</v>
       </c>
       <c r="W223">
-        <v>0.9996571820363388</v>
+        <v>-0.0003428179636612017</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17274,7 +17274,7 @@
         <v>0.6691434643194287</v>
       </c>
       <c r="K224">
-        <v>40.0890324063464</v>
+        <v>-0.09910967593653602</v>
       </c>
       <c r="L224">
         <v>-0.008644045409950254</v>
@@ -17304,13 +17304,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U224">
-        <v>0.9999771671252269</v>
+        <v>-2.283287477311546E-05</v>
       </c>
       <c r="V224">
-        <v>0.9998629229398459</v>
+        <v>-0.0001370770601540894</v>
       </c>
       <c r="W224">
-        <v>0.9996570644718792</v>
+        <v>-0.0003429355281208135</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17345,7 +17345,7 @@
         <v>0.807463888259818</v>
       </c>
       <c r="K225">
-        <v>44.67386007015745</v>
+        <v>-0.05326139929842555</v>
       </c>
       <c r="L225">
         <v>-0.008666633894212621</v>
@@ -17375,13 +17375,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U225">
-        <v>0.9999885833019372</v>
+        <v>-1.141669806281609E-05</v>
       </c>
       <c r="V225">
-        <v>0.9998857534559581</v>
+        <v>-0.0001142465440419071</v>
       </c>
       <c r="W225">
-        <v>1.000686106346484</v>
+        <v>0.0006861063464835837</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17416,7 +17416,7 @@
         <v>0.8802641113863594</v>
       </c>
       <c r="K226">
-        <v>46.81598218333922</v>
+        <v>-0.03184017816660784</v>
       </c>
       <c r="L226">
         <v>-0.008361957532770458</v>
@@ -17446,13 +17446,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U226">
-        <v>0.9999771663431901</v>
+        <v>-2.283365680988414E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999314442413162</v>
+        <v>-6.855575868380814E-05</v>
       </c>
       <c r="W226">
-        <v>1.000342817963661</v>
+        <v>0.0003428179636613127</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17487,7 +17487,7 @@
         <v>0.8802641113863593</v>
       </c>
       <c r="K227">
-        <v>46.81598218333921</v>
+        <v>-0.03184017816660789</v>
       </c>
       <c r="L227">
         <v>-0.007847931330157586</v>
@@ -17517,13 +17517,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U227">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V227">
-        <v>0.9999085860548027</v>
+        <v>-9.141394519729396E-05</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17558,7 +17558,7 @@
         <v>0.8802641113863595</v>
       </c>
       <c r="K228">
-        <v>46.81598218333922</v>
+        <v>-0.03184017816660778</v>
       </c>
       <c r="L228">
         <v>-0.007211212167532589</v>
@@ -17588,13 +17588,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U228">
-        <v>1.000011417089099</v>
+        <v>1.141708909901951E-05</v>
       </c>
       <c r="V228">
-        <v>0.999931433273147</v>
+        <v>-6.856672685295884E-05</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17629,7 +17629,7 @@
         <v>0.8113701846014534</v>
       </c>
       <c r="K229">
-        <v>44.79317322869456</v>
+        <v>-0.05206826771305445</v>
       </c>
       <c r="L229">
         <v>-0.006639183521734178</v>
@@ -17659,13 +17659,13 @@
         <v>0.015625</v>
       </c>
       <c r="U229">
-        <v>0.9999771660824992</v>
+        <v>-2.283391750079744E-05</v>
       </c>
       <c r="V229">
-        <v>0.9999085714285715</v>
+        <v>-9.142857142852012E-05</v>
       </c>
       <c r="W229">
-        <v>0.9996572995202192</v>
+        <v>-0.0003427004797807998</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17700,7 +17700,7 @@
         <v>0.7496137937124152</v>
       </c>
       <c r="K230">
-        <v>42.84452925590215</v>
+        <v>-0.07155470744097847</v>
       </c>
       <c r="L230">
         <v>-0.006243373357222845</v>
@@ -17730,13 +17730,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U230">
-        <v>0.9999543311221986</v>
+        <v>-4.566887780144135E-05</v>
       </c>
       <c r="V230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W230">
-        <v>0.9996571820363388</v>
+        <v>-0.0003428179636612017</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17771,7 +17771,7 @@
         <v>1.070092551672046</v>
       </c>
       <c r="K231">
-        <v>51.69298110887438</v>
+        <v>0.01692981108874381</v>
       </c>
       <c r="L231">
         <v>-0.005457824372742884</v>
@@ -17801,13 +17801,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U231">
-        <v>0.9999543290364566</v>
+        <v>-4.567096354335387E-05</v>
       </c>
       <c r="V231">
-        <v>1.000182873862753</v>
+        <v>0.0001828738627529525</v>
       </c>
       <c r="W231">
-        <v>1.001371742112483</v>
+        <v>0.00137174211248281</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17842,7 +17842,7 @@
         <v>1.070092551672047</v>
       </c>
       <c r="K232">
-        <v>51.69298110887438</v>
+        <v>0.01692981108874381</v>
       </c>
       <c r="L232">
         <v>-0.004466270098854609</v>
@@ -17872,13 +17872,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U232">
-        <v>0.9999429086881557</v>
+        <v>-5.709131184428173E-05</v>
       </c>
       <c r="V232">
-        <v>1.000114275266261</v>
+        <v>0.0001142752662612878</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17913,7 +17913,7 @@
         <v>1.070092551672047</v>
       </c>
       <c r="K233">
-        <v>51.69298110887438</v>
+        <v>0.01692981108874381</v>
       </c>
       <c r="L233">
         <v>-0.003396788826915553</v>
@@ -17943,13 +17943,13 @@
         <v>0.04687499999997158</v>
       </c>
       <c r="U233">
-        <v>0.9999543243428415</v>
+        <v>-4.567565715851707E-05</v>
       </c>
       <c r="V233">
-        <v>1.000091409767134</v>
+        <v>9.140976713362114E-05</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17984,7 +17984,7 @@
         <v>0.9786408518100467</v>
       </c>
       <c r="K234">
-        <v>49.46025707064488</v>
+        <v>-0.005397429293551192</v>
       </c>
       <c r="L234">
         <v>-0.002460628731813573</v>
@@ -18014,13 +18014,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U234">
-        <v>0.999920063948841</v>
+        <v>-7.993605115896862E-05</v>
       </c>
       <c r="V234">
-        <v>1.000045700706076</v>
+        <v>4.570070607590182E-05</v>
       </c>
       <c r="W234">
-        <v>0.9996575342465752</v>
+        <v>-0.000342465753424781</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18055,7 +18055,7 @@
         <v>0.9786408518100467</v>
       </c>
       <c r="K235">
-        <v>49.46025707064488</v>
+        <v>-0.005397429293551192</v>
       </c>
       <c r="L235">
         <v>-0.001655938978358529</v>
@@ -18085,13 +18085,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U235">
-        <v>0.9999428982561126</v>
+        <v>-5.710174388739997E-05</v>
       </c>
       <c r="V235">
-        <v>1.000045698617617</v>
+        <v>4.569861761671845E-05</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18126,7 +18126,7 @@
         <v>0.9786408518100467</v>
       </c>
       <c r="K236">
-        <v>49.46025707064488</v>
+        <v>-0.005397429293551192</v>
       </c>
       <c r="L236">
         <v>-0.0009761516812874086</v>
@@ -18156,13 +18156,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U236">
-        <v>0.999954315996254</v>
+        <v>-4.568400374604931E-05</v>
       </c>
       <c r="V236">
-        <v>1.000045696529348</v>
+        <v>4.569652934849344E-05</v>
       </c>
       <c r="W236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18197,7 +18197,7 @@
         <v>0.7533603362826226</v>
       </c>
       <c r="K237">
-        <v>42.96665783371462</v>
+        <v>-0.07033342166285378</v>
       </c>
       <c r="L237">
         <v>-0.0007861339373772143</v>
@@ -18227,13 +18227,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U237">
-        <v>0.9999086278182608</v>
+        <v>-9.137218173915773E-05</v>
       </c>
       <c r="V237">
-        <v>0.9999771527793646</v>
+        <v>-2.284722063539135E-05</v>
       </c>
       <c r="W237">
-        <v>0.9989722507708121</v>
+        <v>-0.001027749229187913</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18268,7 +18268,7 @@
         <v>0.8341313308468582</v>
       </c>
       <c r="K238">
-        <v>45.47827719957881</v>
+        <v>-0.04521722800421185</v>
       </c>
       <c r="L238">
         <v>-0.0007773127046564579</v>
@@ -18298,13 +18298,13 @@
         <v>0.046875</v>
       </c>
       <c r="U238">
-        <v>0.9999314646014668</v>
+        <v>-6.853539853324264E-05</v>
       </c>
       <c r="V238">
-        <v>1.000022847742643</v>
+        <v>2.284774264271761E-05</v>
       </c>
       <c r="W238">
-        <v>1.000342935528121</v>
+        <v>0.0003429355281205915</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18339,7 +18339,7 @@
         <v>0.7687689782535233</v>
       </c>
       <c r="K239">
-        <v>43.46350414923057</v>
+        <v>-0.06536495850769436</v>
       </c>
       <c r="L239">
         <v>-0.001000779333463012</v>
@@ -18369,13 +18369,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U239">
-        <v>0.9999428832533699</v>
+        <v>-5.711674663011479E-05</v>
       </c>
       <c r="V239">
-        <v>1.000022847220636</v>
+        <v>2.284722063583544E-05</v>
       </c>
       <c r="W239">
-        <v>0.9996571820363388</v>
+        <v>-0.0003428179636612017</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18410,7 +18410,7 @@
         <v>0.7687689782535234</v>
       </c>
       <c r="K240">
-        <v>43.46350414923057</v>
+        <v>-0.06536495850769425</v>
       </c>
       <c r="L240">
         <v>-0.001347095778334399</v>
@@ -18440,13 +18440,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U240">
-        <v>0.9999314559890329</v>
+        <v>-6.854401096711982E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999771533013477</v>
+        <v>-2.284669865226796E-05</v>
       </c>
       <c r="W240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18481,7 +18481,7 @@
         <v>0.7687689782535234</v>
       </c>
       <c r="K241">
-        <v>43.46350414923057</v>
+        <v>-0.06536495850769425</v>
       </c>
       <c r="L241">
         <v>-0.001740874531566257</v>
@@ -18511,13 +18511,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U241">
-        <v>0.9999428760753579</v>
+        <v>-5.712392464207738E-05</v>
       </c>
       <c r="V241">
-        <v>0.9999543055587288</v>
+        <v>-4.569444127122679E-05</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18552,7 +18552,7 @@
         <v>0.7687689782535233</v>
       </c>
       <c r="K242">
-        <v>43.46350414923057</v>
+        <v>-0.06536495850769436</v>
       </c>
       <c r="L242">
         <v>-0.002131987600991347</v>
@@ -18582,13 +18582,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U242">
-        <v>0.9999314473744343</v>
+        <v>-6.855262556570985E-05</v>
       </c>
       <c r="V242">
-        <v>0.9999543034706514</v>
+        <v>-4.569652934860446E-05</v>
       </c>
       <c r="W242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18623,7 +18623,7 @@
         <v>0.8649742388205504</v>
       </c>
       <c r="K243">
-        <v>46.3799563991607</v>
+        <v>-0.03620043600839301</v>
       </c>
       <c r="L243">
         <v>-0.002364026206861074</v>
@@ -18653,13 +18653,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U243">
-        <v>0.9999542951164334</v>
+        <v>-4.570488356658853E-05</v>
       </c>
       <c r="V243">
-        <v>0.9999771506911916</v>
+        <v>-2.284930880835923E-05</v>
       </c>
       <c r="W243">
-        <v>1.000342935528121</v>
+        <v>0.0003429355281205915</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18694,7 +18694,7 @@
         <v>0.9662429341543205</v>
       </c>
       <c r="K244">
-        <v>49.14158456060267</v>
+        <v>-0.008584154393973309</v>
       </c>
       <c r="L244">
         <v>-0.0023515112765298</v>
@@ -18724,13 +18724,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U244">
-        <v>0.9999657197705508</v>
+        <v>-3.428022944917952E-05</v>
       </c>
       <c r="V244">
-        <v>1.000022849830911</v>
+        <v>2.284983091116466E-05</v>
       </c>
       <c r="W244">
-        <v>1.000342817963661</v>
+        <v>0.0003428179636613127</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18765,7 +18765,7 @@
         <v>0.9662429341543205</v>
       </c>
       <c r="K245">
-        <v>49.14158456060267</v>
+        <v>-0.008584154393973309</v>
       </c>
       <c r="L245">
         <v>-0.002183063656010496</v>
@@ -18795,13 +18795,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U245">
-        <v>1.000022854269749</v>
+        <v>2.285426974890648E-05</v>
       </c>
       <c r="V245">
-        <v>1.000045698617617</v>
+        <v>4.569861761671845E-05</v>
       </c>
       <c r="W245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18836,7 +18836,7 @@
         <v>0.8687601557292122</v>
       </c>
       <c r="K246">
-        <v>46.48858512237553</v>
+        <v>-0.03511414877624475</v>
       </c>
       <c r="L246">
         <v>-0.002047718487019091</v>
@@ -18866,13 +18866,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U246">
-        <v>1.000057134368608</v>
+        <v>5.71343686079917E-05</v>
       </c>
       <c r="V246">
-        <v>0.9999314552059771</v>
+        <v>-6.854479402285119E-05</v>
       </c>
       <c r="W246">
-        <v>0.9996572995202192</v>
+        <v>-0.0003427004797807998</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18907,7 +18907,7 @@
         <v>0.9749585529921201</v>
       </c>
       <c r="K247">
-        <v>49.36602601178791</v>
+        <v>-0.006339739882120887</v>
       </c>
       <c r="L247">
         <v>-0.001808800110640904</v>
@@ -18937,13 +18937,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U247">
-        <v>1.000034278662675</v>
+        <v>3.427866267502466E-05</v>
       </c>
       <c r="V247">
-        <v>0.9999543003381776</v>
+        <v>-4.569966182244034E-05</v>
       </c>
       <c r="W247">
-        <v>1.000342817963661</v>
+        <v>0.0003428179636613127</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18978,7 +18978,7 @@
         <v>0.8769286411934998</v>
       </c>
       <c r="K248">
-        <v>46.7214694233596</v>
+        <v>-0.03278530576640398</v>
       </c>
       <c r="L248">
         <v>-0.00164056574833949</v>
@@ -19008,13 +19008,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U248">
-        <v>1.00001142582923</v>
+        <v>1.142582922963875E-05</v>
       </c>
       <c r="V248">
-        <v>0.9999314473744343</v>
+        <v>-6.855262556570985E-05</v>
       </c>
       <c r="W248">
-        <v>0.9996572995202192</v>
+        <v>-0.0003427004797807998</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19049,7 +19049,7 @@
         <v>0.8769286411934998</v>
       </c>
       <c r="K249">
-        <v>46.7214694233596</v>
+        <v>-0.03278530576640398</v>
       </c>
       <c r="L249">
         <v>-0.001519902713117335</v>
@@ -19079,13 +19079,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V249">
-        <v>0.9999542951164332</v>
+        <v>-4.570488356681057E-05</v>
       </c>
       <c r="W249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19120,7 +19120,7 @@
         <v>0.8769286411934997</v>
       </c>
       <c r="K250">
-        <v>46.72146942335959</v>
+        <v>-0.03278530576640404</v>
       </c>
       <c r="L250">
         <v>-0.001430215932742952</v>
@@ -19150,13 +19150,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U250">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V250">
-        <v>0.9999542930274014</v>
+        <v>-4.570697259864698E-05</v>
       </c>
       <c r="W250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19191,7 +19191,7 @@
         <v>0.784882366835945</v>
       </c>
       <c r="K251">
-        <v>43.97389886411973</v>
+        <v>-0.06026101135880269</v>
       </c>
       <c r="L251">
         <v>-0.001484609436031168</v>
@@ -19221,13 +19221,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U251">
-        <v>0.9999885743013187</v>
+        <v>-1.142569868128884E-05</v>
       </c>
       <c r="V251">
-        <v>0.9999314364072678</v>
+        <v>-6.856359273221813E-05</v>
       </c>
       <c r="W251">
-        <v>0.9996571820363388</v>
+        <v>-0.0003428179636612017</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19262,7 +19262,7 @@
         <v>0.8953711917662691</v>
       </c>
       <c r="K252">
-        <v>47.23988607908964</v>
+        <v>-0.02760113920910362</v>
       </c>
       <c r="L252">
         <v>-0.001492618272963346</v>
@@ -19292,13 +19292,13 @@
         <v>0.015625</v>
       </c>
       <c r="U252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V252">
-        <v>1.000022856098007</v>
+        <v>2.285609800689592E-05</v>
       </c>
       <c r="W252">
-        <v>1.000342935528121</v>
+        <v>0.0003429355281205915</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19333,7 +19333,7 @@
         <v>0.8953711917662691</v>
       </c>
       <c r="K253">
-        <v>47.23988607908964</v>
+        <v>-0.02760113920910362</v>
       </c>
       <c r="L253">
         <v>-0.001466580407998677</v>
@@ -19363,13 +19363,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U253">
-        <v>1.000011425829229</v>
+        <v>1.142582922941671E-05</v>
       </c>
       <c r="V253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19404,7 +19404,7 @@
         <v>0.8953711917662693</v>
       </c>
       <c r="K254">
-        <v>47.23988607908964</v>
+        <v>-0.02760113920910356</v>
       </c>
       <c r="L254">
         <v>-0.00141623477106229</v>
@@ -19434,13 +19434,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U254">
-        <v>1.000022851397363</v>
+        <v>2.285139736302177E-05</v>
       </c>
       <c r="V254">
-        <v>1.000022855575618</v>
+        <v>2.285557561765295E-05</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19475,7 +19475,7 @@
         <v>0.7931579378905593</v>
       </c>
       <c r="K255">
-        <v>44.2324639191357</v>
+        <v>-0.05767536080864305</v>
       </c>
       <c r="L255">
         <v>-0.001474026615626411</v>
@@ -19505,13 +19505,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U255">
-        <v>0.999988574562406</v>
+        <v>-1.142543759402592E-05</v>
       </c>
       <c r="V255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W255">
-        <v>0.9996571820363388</v>
+        <v>-0.0003428179636612017</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19546,7 +19546,7 @@
         <v>0.7931579378905593</v>
       </c>
       <c r="K256">
-        <v>44.2324639191357</v>
+        <v>-0.05767536080864305</v>
       </c>
       <c r="L256">
         <v>-0.001588286814890723</v>
@@ -19576,13 +19576,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U256">
-        <v>0.9999771488637269</v>
+        <v>-2.285113627309432E-05</v>
       </c>
       <c r="V256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19617,7 +19617,7 @@
         <v>0.7931579378905593</v>
       </c>
       <c r="K257">
-        <v>44.2324639191357</v>
+        <v>-0.05767536080864305</v>
       </c>
       <c r="L257">
         <v>-0.001723698017673503</v>
@@ -19647,13 +19647,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U257">
-        <v>0.9999771483415409</v>
+        <v>-2.285165845905546E-05</v>
       </c>
       <c r="V257">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19688,7 +19688,7 @@
         <v>0.699959962064132</v>
       </c>
       <c r="K258">
-        <v>41.17508515990129</v>
+        <v>-0.08824914840098708</v>
       </c>
       <c r="L258">
         <v>-0.0019818416863433</v>
@@ -19718,13 +19718,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U258">
-        <v>0.9999657217289962</v>
+        <v>-3.427827100377367E-05</v>
       </c>
       <c r="V258">
-        <v>0.9999542898934953</v>
+        <v>-4.571010650467056E-05</v>
       </c>
       <c r="W258">
-        <v>0.9996570644718792</v>
+        <v>-0.0003429355281208135</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19759,7 +19759,7 @@
         <v>0.6999599620641319</v>
       </c>
       <c r="K259">
-        <v>41.17508515990129</v>
+        <v>-0.08824914840098713</v>
       </c>
       <c r="L259">
         <v>-0.002290687044157761</v>
@@ -19789,13 +19789,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U259">
-        <v>0.9999771470359704</v>
+        <v>-2.285296402959602E-05</v>
       </c>
       <c r="V259">
-        <v>0.9999314317059792</v>
+        <v>-6.856829402079878E-05</v>
       </c>
       <c r="W259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19830,7 +19830,7 @@
         <v>0.6999599620641319</v>
       </c>
       <c r="K260">
-        <v>41.17508515990129</v>
+        <v>-0.08824914840098713</v>
       </c>
       <c r="L260">
         <v>-0.002602240971829916</v>
@@ -19860,13 +19860,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U260">
-        <v>0.9999885732568503</v>
+        <v>-1.14267431496895E-05</v>
       </c>
       <c r="V260">
-        <v>0.9999314270040459</v>
+        <v>-6.857299595408595E-05</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19901,7 +19901,7 @@
         <v>0.6999599620641319</v>
       </c>
       <c r="K261">
-        <v>41.17508515990129</v>
+        <v>-0.08824914840098713</v>
       </c>
       <c r="L261">
         <v>-0.002886120668445331</v>
@@ -19931,13 +19931,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U261">
-        <v>0.999942865631392</v>
+        <v>-5.71343686079917E-05</v>
       </c>
       <c r="V261">
-        <v>0.9999542815343118</v>
+        <v>-4.571846568823812E-05</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19972,7 +19972,7 @@
         <v>0.6117129413264252</v>
       </c>
       <c r="K262">
-        <v>37.95421167388474</v>
+        <v>-0.1204578832611526</v>
       </c>
       <c r="L262">
         <v>-0.003249479213163858</v>
@@ -20002,13 +20002,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U262">
-        <v>0.9999314348402433</v>
+        <v>-6.856515975672828E-05</v>
       </c>
       <c r="V262">
-        <v>0.9999085588880759</v>
+        <v>-9.144111192405102E-05</v>
       </c>
       <c r="W262">
-        <v>0.9996569468267581</v>
+        <v>-0.0003430531732419029</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20043,7 +20043,7 @@
         <v>0.6117129413264252</v>
       </c>
       <c r="K263">
-        <v>37.95421167388474</v>
+        <v>-0.1204578832611526</v>
       </c>
       <c r="L263">
         <v>-0.003626026740600883</v>
@@ -20073,13 +20073,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U263">
-        <v>0.9999314301387398</v>
+        <v>-6.856986126024811E-05</v>
       </c>
       <c r="V263">
-        <v>0.9999314128943757</v>
+        <v>-6.858710562429593E-05</v>
       </c>
       <c r="W263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20114,7 +20114,7 @@
         <v>0.5367340839594482</v>
       </c>
       <c r="K264">
-        <v>34.9269330043448</v>
+        <v>-0.150730669956552</v>
       </c>
       <c r="L264">
         <v>-0.004098230284418366</v>
@@ -20144,13 +20144,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U264">
-        <v>0.9999314254365913</v>
+        <v>-6.85745634086965E-05</v>
       </c>
       <c r="V264">
-        <v>0.9999085442531496</v>
+        <v>-9.14557468504329E-05</v>
       </c>
       <c r="W264">
-        <v>0.9996568291008924</v>
+        <v>-0.0003431708991076254</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20185,7 +20185,7 @@
         <v>0.4753968929798938</v>
       </c>
       <c r="K265">
-        <v>32.22162763402081</v>
+        <v>-0.1777837236597919</v>
       </c>
       <c r="L265">
         <v>-0.004708256908217763</v>
@@ -20215,13 +20215,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U265">
-        <v>0.999919990856098</v>
+        <v>-8.000914390204894E-05</v>
       </c>
       <c r="V265">
-        <v>0.9998856698602887</v>
+        <v>-0.0001143301397112939</v>
       </c>
       <c r="W265">
-        <v>0.9996567112941983</v>
+        <v>-0.000343288705801692</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20256,7 +20256,7 @@
         <v>0.7159833066940802</v>
       </c>
       <c r="K266">
-        <v>41.72437481769298</v>
+        <v>-0.08275625182307017</v>
       </c>
       <c r="L266">
         <v>-0.005096122531521059</v>
@@ -20286,13 +20286,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U266">
-        <v>0.999942846038659</v>
+        <v>-5.715396134098327E-05</v>
       </c>
       <c r="V266">
-        <v>0.9999542627149652</v>
+        <v>-4.573728503476371E-05</v>
       </c>
       <c r="W266">
-        <v>1.000686813186813</v>
+        <v>0.0006868131868131844</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20327,7 +20327,7 @@
         <v>0.7159833066940802</v>
       </c>
       <c r="K267">
-        <v>41.72437481769298</v>
+        <v>-0.08275625182307017</v>
       </c>
       <c r="L267">
         <v>-0.005306137397697823</v>
@@ -20357,13 +20357,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U267">
-        <v>0.9999771371087588</v>
+        <v>-2.286289124120433E-05</v>
       </c>
       <c r="V267">
-        <v>0.9999313909344554</v>
+        <v>-6.860906554462254E-05</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20398,7 +20398,7 @@
         <v>0.5652896636150335</v>
       </c>
       <c r="K268">
-        <v>36.11406097894355</v>
+        <v>-0.1388593902105645</v>
       </c>
       <c r="L268">
         <v>-0.005625435689882843</v>
@@ -20428,13 +20428,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U268">
-        <v>0.9999428414650874</v>
+        <v>-5.71585349126158E-05</v>
       </c>
       <c r="V268">
-        <v>0.9998856437115476</v>
+        <v>-0.0001143562884523552</v>
       </c>
       <c r="W268">
-        <v>0.9993136582017845</v>
+        <v>-0.0006863417982154729</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20469,7 +20469,7 @@
         <v>0.4242889256470601</v>
       </c>
       <c r="K269">
-        <v>29.78952640906788</v>
+        <v>-0.2021047359093213</v>
       </c>
       <c r="L269">
         <v>-0.006344774093766162</v>
@@ -20499,13 +20499,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U269">
-        <v>0.9999199734769239</v>
+        <v>-8.002652307614877E-05</v>
       </c>
       <c r="V269">
-        <v>0.9998170090123061</v>
+        <v>-0.0001829909876939206</v>
       </c>
       <c r="W269">
-        <v>0.9989697802197802</v>
+        <v>-0.001030219780219777</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20540,7 +20540,7 @@
         <v>0.4242889256470601</v>
       </c>
       <c r="K270">
-        <v>29.78952640906788</v>
+        <v>-0.2021047359093213</v>
       </c>
       <c r="L270">
         <v>-0.007237656137238844</v>
@@ -20570,13 +20570,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U270">
-        <v>0.9999199670721669</v>
+        <v>-8.003292783309579E-05</v>
       </c>
       <c r="V270">
-        <v>0.9998398535804165</v>
+        <v>-0.0001601464195835067</v>
       </c>
       <c r="W270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20611,7 +20611,7 @@
         <v>0.42428892564706</v>
       </c>
       <c r="K271">
-        <v>29.78952640906788</v>
+        <v>-0.2021047359093213</v>
       </c>
       <c r="L271">
         <v>-0.008152556721247249</v>
@@ -20641,13 +20641,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U271">
-        <v>0.9999199606663846</v>
+        <v>-8.00393336154448E-05</v>
       </c>
       <c r="V271">
-        <v>0.9998398279294325</v>
+        <v>-0.0001601720705675103</v>
       </c>
       <c r="W271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20682,7 +20682,7 @@
         <v>0.5212635867776868</v>
       </c>
       <c r="K272">
-        <v>34.26517214428421</v>
+        <v>-0.1573482785571579</v>
       </c>
       <c r="L272">
         <v>-0.008868042392863217</v>
@@ -20712,13 +20712,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U272">
-        <v>0.9999313893653515</v>
+        <v>-6.861063464846939E-05</v>
       </c>
       <c r="V272">
-        <v>0.9998626876601978</v>
+        <v>-0.0001373123398021869</v>
       </c>
       <c r="W272">
-        <v>1.000343760742523</v>
+        <v>0.0003437607425231803</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20753,7 +20753,7 @@
         <v>0.4729822275775385</v>
       </c>
       <c r="K273">
-        <v>32.11051828883255</v>
+        <v>-0.1788948171116745</v>
       </c>
       <c r="L273">
         <v>-0.009509821057038971</v>
@@ -20783,13 +20783,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U273">
-        <v>0.9999085128768125</v>
+        <v>-9.148712318751695E-05</v>
       </c>
       <c r="V273">
-        <v>0.9998626688029296</v>
+        <v>-0.0001373311970703783</v>
       </c>
       <c r="W273">
-        <v>0.999656357388316</v>
+        <v>-0.0003436426116839586</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20824,7 +20824,7 @@
         <v>0.4309638449440761</v>
       </c>
       <c r="K274">
-        <v>30.11703240908361</v>
+        <v>-0.1988296759091639</v>
       </c>
       <c r="L274">
         <v>-0.01015644762234938</v>
@@ -20854,13 +20854,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U274">
-        <v>0.9998856306326916</v>
+        <v>-0.0001143693673083535</v>
       </c>
       <c r="V274">
-        <v>0.9998397582638954</v>
+        <v>-0.0001602417361046271</v>
       </c>
       <c r="W274">
-        <v>0.9996562392574769</v>
+        <v>-0.0003437607425230693</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20895,7 +20895,7 @@
         <v>0.5244766111272946</v>
       </c>
       <c r="K275">
-        <v>34.40371648204319</v>
+        <v>-0.155962835179568</v>
       </c>
       <c r="L275">
         <v>-0.01060302399233326</v>
@@ -20925,13 +20925,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U275">
-        <v>0.9998970557957586</v>
+        <v>-0.0001029442042413953</v>
       </c>
       <c r="V275">
-        <v>0.9998626279277424</v>
+        <v>-0.0001373720722576133</v>
       </c>
       <c r="W275">
-        <v>1.000343878954608</v>
+        <v>0.0003438789546079679</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20966,7 +20966,7 @@
         <v>0.4382072050166866</v>
       </c>
       <c r="K276">
-        <v>30.46898968995238</v>
+        <v>-0.1953101031004762</v>
       </c>
       <c r="L276">
         <v>-0.01111130062051458</v>
@@ -20996,13 +20996,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U276">
-        <v>0.9998856057746206</v>
+        <v>-0.0001143942253793995</v>
       </c>
       <c r="V276">
-        <v>0.9998168120720844</v>
+        <v>-0.0001831879279156068</v>
       </c>
       <c r="W276">
-        <v>0.9993124785149536</v>
+        <v>-0.0006875214850463607</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21037,7 +21037,7 @@
         <v>0.5247791314310054</v>
       </c>
       <c r="K277">
-        <v>34.41673096210991</v>
+        <v>-0.1558326903789009</v>
       </c>
       <c r="L277">
         <v>-0.01145929702784611</v>
@@ -21067,13 +21067,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U277">
-        <v>0.9998855926870847</v>
+        <v>-0.0001144073129153433</v>
       </c>
       <c r="V277">
-        <v>0.9998625838810892</v>
+        <v>-0.0001374161189108269</v>
       </c>
       <c r="W277">
-        <v>1.000343997248022</v>
+        <v>0.0003439972480221432</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21108,7 +21108,7 @@
         <v>0.5247791314310054</v>
       </c>
       <c r="K278">
-        <v>34.41673096210991</v>
+        <v>-0.1558326903789009</v>
       </c>
       <c r="L278">
         <v>-0.01164636646166331</v>
@@ -21138,13 +21138,13 @@
         <v>-0.09062499999998863</v>
       </c>
       <c r="U278">
-        <v>0.999897021636898</v>
+        <v>-0.0001029783631020242</v>
       </c>
       <c r="V278">
-        <v>0.999862564995304</v>
+        <v>-0.0001374350046959849</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21179,7 +21179,7 @@
         <v>0.5247791314310054</v>
       </c>
       <c r="K279">
-        <v>34.41673096210991</v>
+        <v>-0.1558326903789009</v>
       </c>
       <c r="L279">
         <v>-0.01168167240792314</v>
@@ -21209,13 +21209,13 @@
         <v>-0.07812500000002842</v>
       </c>
       <c r="U279">
-        <v>0.9998970110312629</v>
+        <v>-0.0001029889687370611</v>
       </c>
       <c r="V279">
-        <v>0.9998854550869399</v>
+        <v>-0.0001145449130600662</v>
       </c>
       <c r="W279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21250,7 +21250,7 @@
         <v>0.7267255992293297</v>
       </c>
       <c r="K280">
-        <v>42.08691870634692</v>
+        <v>-0.07913081293653079</v>
       </c>
       <c r="L280">
         <v>-0.01133028474947415</v>
@@ -21280,13 +21280,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U280">
-        <v>0.9999198892182333</v>
+        <v>-8.011078176672903E-05</v>
       </c>
       <c r="V280">
-        <v>0.9999541767859597</v>
+        <v>-4.58232140403414E-05</v>
       </c>
       <c r="W280">
-        <v>1.000687757909216</v>
+        <v>0.0006877579092159358</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21321,7 +21321,7 @@
         <v>0.8330132138600568</v>
       </c>
       <c r="K281">
-        <v>45.44501957549194</v>
+        <v>-0.04554980424508059</v>
       </c>
       <c r="L281">
         <v>-0.0106006741228153</v>
@@ -21351,13 +21351,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U281">
-        <v>0.9999427734285584</v>
+        <v>-5.722657144158205E-05</v>
       </c>
       <c r="V281">
-        <v>0.999931262029145</v>
+        <v>-6.87379708550484E-05</v>
       </c>
       <c r="W281">
-        <v>1.000343642611684</v>
+        <v>0.0003436426116838476</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21392,7 +21392,7 @@
         <v>0.7491923053965851</v>
       </c>
       <c r="K282">
-        <v>42.83075697767404</v>
+        <v>-0.07169243022325966</v>
       </c>
       <c r="L282">
         <v>-0.009774744283487222</v>
@@ -21422,13 +21422,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U282">
-        <v>0.9999198782148865</v>
+        <v>-8.012178511351831E-05</v>
       </c>
       <c r="V282">
-        <v>0.9999083430718818</v>
+        <v>-9.165692811818893E-05</v>
       </c>
       <c r="W282">
-        <v>0.9996564754379937</v>
+        <v>-0.0003435245620062588</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21463,7 +21463,7 @@
         <v>0.8551120360282891</v>
       </c>
       <c r="K283">
-        <v>46.09489989936377</v>
+        <v>-0.03905100100636227</v>
       </c>
       <c r="L283">
         <v>-0.008782418284113268</v>
@@ -21493,13 +21493,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U283">
-        <v>0.9999313186813188</v>
+        <v>-6.868131868120742E-05</v>
       </c>
       <c r="V283">
-        <v>0.9999770836675299</v>
+        <v>-2.291633247009095E-05</v>
       </c>
       <c r="W283">
-        <v>1.000343642611684</v>
+        <v>0.0003436426116838476</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21534,7 +21534,7 @@
         <v>0.9666064893247562</v>
       </c>
       <c r="K284">
-        <v>49.15098646179314</v>
+        <v>-0.008490135382068609</v>
       </c>
       <c r="L284">
         <v>-0.007595419387523071</v>
@@ -21564,13 +21564,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U284">
-        <v>0.9999427616365592</v>
+        <v>-5.723836344084798E-05</v>
       </c>
       <c r="V284">
-        <v>1.000068750572922</v>
+        <v>6.875057292154985E-05</v>
       </c>
       <c r="W284">
-        <v>1.000343524562006</v>
+        <v>0.0003435245620060368</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21605,7 +21605,7 @@
         <v>0.8650786275960417</v>
       </c>
       <c r="K285">
-        <v>46.38295752233613</v>
+        <v>-0.03617042477663868</v>
       </c>
       <c r="L285">
         <v>-0.006463452377299704</v>
@@ -21635,13 +21635,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U285">
-        <v>0.9999427583601416</v>
+        <v>-5.724163985842967E-05</v>
       </c>
       <c r="V285">
-        <v>1.000045830564403</v>
+        <v>4.583056440332633E-05</v>
       </c>
       <c r="W285">
-        <v>0.9996565934065935</v>
+        <v>-0.0003434065934064812</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21676,7 +21676,7 @@
         <v>0.8650786275960417</v>
       </c>
       <c r="K286">
-        <v>46.38295752233613</v>
+        <v>-0.03617042477663868</v>
       </c>
       <c r="L286">
         <v>-0.005413404350910362</v>
@@ -21706,13 +21706,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U286">
-        <v>0.9999427550833486</v>
+        <v>-5.724491665137776E-05</v>
       </c>
       <c r="V286">
-        <v>1.000045828464059</v>
+        <v>4.582846405898344E-05</v>
       </c>
       <c r="W286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21747,7 +21747,7 @@
         <v>0.8650786275960417</v>
       </c>
       <c r="K287">
-        <v>46.38295752233613</v>
+        <v>-0.03617042477663868</v>
       </c>
       <c r="L287">
         <v>-0.004460176534595454</v>
@@ -21777,13 +21777,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U287">
-        <v>0.9999427518061805</v>
+        <v>-5.724819381947022E-05</v>
       </c>
       <c r="V287">
-        <v>1.000022913181954</v>
+        <v>2.291318195357661E-05</v>
       </c>
       <c r="W287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21818,7 +21818,7 @@
         <v>0.9875867030399021</v>
       </c>
       <c r="K288">
-        <v>49.68772942229105</v>
+        <v>-0.003122705777089507</v>
       </c>
       <c r="L288">
         <v>-0.003485018788554029</v>
@@ -21848,13 +21848,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U288">
-        <v>0.9999656491171823</v>
+        <v>-3.435088281766863E-05</v>
       </c>
       <c r="V288">
-        <v>1.000068737970855</v>
+        <v>6.87379708550484E-05</v>
       </c>
       <c r="W288">
-        <v>1.000343524562006</v>
+        <v>0.0003435245620060368</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21889,7 +21889,7 @@
         <v>1.11654257192825</v>
       </c>
       <c r="K289">
-        <v>52.75313554931416</v>
+        <v>0.02753135549314156</v>
       </c>
       <c r="L289">
         <v>-0.002420921747536368</v>
@@ -21919,13 +21919,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U289">
-        <v>0.9999770986247722</v>
+        <v>-2.290137522775737E-05</v>
       </c>
       <c r="V289">
-        <v>1.000114555410452</v>
+        <v>0.0001145554104520219</v>
       </c>
       <c r="W289">
-        <v>1.000343406593407</v>
+        <v>0.0003434065934067032</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21960,7 +21960,7 @@
         <v>1.388028611693114</v>
       </c>
       <c r="K290">
-        <v>58.12445482841183</v>
+        <v>0.08124454828411831</v>
       </c>
       <c r="L290">
         <v>-0.001111738137777923</v>
@@ -21990,13 +21990,13 @@
         <v>0.078125</v>
       </c>
       <c r="U290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V290">
-        <v>1.000137450746816</v>
+        <v>0.0001374507468157038</v>
       </c>
       <c r="W290">
-        <v>1.000686577411603</v>
+        <v>0.000686577411603162</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22031,7 +22031,7 @@
         <v>1.530916001043084</v>
       </c>
       <c r="K291">
-        <v>60.48861362495384</v>
+        <v>0.1048861362495385</v>
       </c>
       <c r="L291">
         <v>0.0003916456056513945</v>
@@ -22061,13 +22061,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U291">
-        <v>1.000011450949857</v>
+        <v>1.145094985655071E-05</v>
       </c>
       <c r="V291">
-        <v>1.000206147785057</v>
+        <v>0.0002061477850567872</v>
       </c>
       <c r="W291">
-        <v>1.000343053173242</v>
+        <v>0.0003430531732420139</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22102,7 +22102,7 @@
         <v>1.530916001043084</v>
       </c>
       <c r="K292">
-        <v>60.48861362495384</v>
+        <v>0.1048861362495385</v>
       </c>
       <c r="L292">
         <v>0.001915421474367085</v>
@@ -22132,13 +22132,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U292">
-        <v>1.000022901637467</v>
+        <v>2.290163746687668E-05</v>
       </c>
       <c r="V292">
-        <v>1.000183204708361</v>
+        <v>0.0001832047083607513</v>
       </c>
       <c r="W292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22173,7 +22173,7 @@
         <v>1.530916001043084</v>
       </c>
       <c r="K293">
-        <v>60.48861362495385</v>
+        <v>0.1048861362495385</v>
       </c>
       <c r="L293">
         <v>0.003347411108665097</v>
@@ -22203,13 +22203,13 @@
         <v>0.09062499999998863</v>
       </c>
       <c r="U293">
-        <v>1.000022901112994</v>
+        <v>2.290111299418918E-05</v>
       </c>
       <c r="V293">
-        <v>1.000183171150544</v>
+        <v>0.0001831711505437816</v>
       </c>
       <c r="W293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22244,7 +22244,7 @@
         <v>1.312224792583974</v>
       </c>
       <c r="K294">
-        <v>56.75160982585638</v>
+        <v>0.06751609825856386</v>
       </c>
       <c r="L294">
         <v>0.004495186540707288</v>
@@ -22274,13 +22274,13 @@
         <v>0.09375</v>
       </c>
       <c r="U294">
-        <v>1.000022900588545</v>
+        <v>2.29005885450384E-05</v>
       </c>
       <c r="V294">
-        <v>1.000160245404391</v>
+        <v>0.0001602454043905244</v>
       </c>
       <c r="W294">
-        <v>0.9996570644718792</v>
+        <v>-0.0003429355281208135</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22315,7 +22315,7 @@
         <v>1.312224792583974</v>
       </c>
       <c r="K295">
-        <v>56.75160982585638</v>
+        <v>0.06751609825856386</v>
       </c>
       <c r="L295">
         <v>0.005381206846348098</v>
@@ -22345,13 +22345,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U295">
-        <v>1.00003435009618</v>
+        <v>3.435009618013574E-05</v>
       </c>
       <c r="V295">
-        <v>1.000114442664225</v>
+        <v>0.0001144426642252228</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22386,7 +22386,7 @@
         <v>1.628789683566076</v>
       </c>
       <c r="K296">
-        <v>61.95968029502257</v>
+        <v>0.1195968029502257</v>
       </c>
       <c r="L296">
         <v>0.006282692454613263</v>
@@ -22416,13 +22416,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U296">
-        <v>1.000034348916292</v>
+        <v>3.434891629194858E-05</v>
       </c>
       <c r="V296">
-        <v>1.000137315482321</v>
+        <v>0.0001373154823207656</v>
       </c>
       <c r="W296">
-        <v>1.000686106346484</v>
+        <v>0.0006861063464835837</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22457,7 +22457,7 @@
         <v>1.962015884599867</v>
       </c>
       <c r="K297">
-        <v>66.23920873621216</v>
+        <v>0.1623920873621216</v>
       </c>
       <c r="L297">
         <v>0.007363262686573286</v>
@@ -22487,13 +22487,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U297">
-        <v>1.000057246227473</v>
+        <v>5.724622747349528E-05</v>
       </c>
       <c r="V297">
-        <v>1.000205944944051</v>
+        <v>0.0002059449440514616</v>
       </c>
       <c r="W297">
-        <v>1.000685635927323</v>
+        <v>0.0006856359273226253</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22528,7 +22528,7 @@
         <v>2.663544728881633</v>
       </c>
       <c r="K298">
-        <v>72.70403191432388</v>
+        <v>0.2270403191432387</v>
       </c>
       <c r="L298">
         <v>0.008956729959772276</v>
@@ -22558,13 +22558,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U298">
-        <v>1.000125934491167</v>
+        <v>0.0001259344911672677</v>
       </c>
       <c r="V298">
-        <v>1.000274536719286</v>
+        <v>0.0002745367192862336</v>
       </c>
       <c r="W298">
-        <v>1.001370332305584</v>
+        <v>0.001370332305584254</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22599,7 +22599,7 @@
         <v>3.032770436398299</v>
       </c>
       <c r="K299">
-        <v>75.20315089164588</v>
+        <v>0.2520315089164588</v>
       </c>
       <c r="L299">
         <v>0.0109765440851144</v>
@@ -22629,13 +22629,13 @@
         <v>0.140625</v>
       </c>
       <c r="U299">
-        <v>1.000183154376245</v>
+        <v>0.0001831543762449428</v>
       </c>
       <c r="V299">
-        <v>1.000297333150359</v>
+        <v>0.0002973331503592913</v>
       </c>
       <c r="W299">
-        <v>1.00068422853233</v>
+        <v>0.0006842285323298558</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22670,7 +22670,7 @@
         <v>3.227099756143967</v>
       </c>
       <c r="K300">
-        <v>76.34311803154091</v>
+        <v>0.2634311803154091</v>
       </c>
       <c r="L300">
         <v>0.01321056260015485</v>
@@ -22700,13 +22700,13 @@
         <v>0.1593749999999829</v>
       </c>
       <c r="U300">
-        <v>1.000194565889166</v>
+        <v>0.0001945658891662205</v>
       </c>
       <c r="V300">
-        <v>1.000342974734195</v>
+        <v>0.0003429747341947564</v>
       </c>
       <c r="W300">
-        <v>1.00034188034188</v>
+        <v>0.0003418803418804295</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22741,7 +22741,7 @@
         <v>3.636214113503154</v>
       </c>
       <c r="K301">
-        <v>78.43067693773114</v>
+        <v>0.2843067693773114</v>
       </c>
       <c r="L301">
         <v>0.01563339361752792</v>
@@ -22771,13 +22771,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U301">
-        <v>1.000217413692486</v>
+        <v>0.000217413692485513</v>
       </c>
       <c r="V301">
-        <v>1.000388571428571</v>
+        <v>0.0003885714285711828</v>
       </c>
       <c r="W301">
-        <v>1.000683526999316</v>
+        <v>0.0006835269993163973</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22812,7 +22812,7 @@
         <v>3.851537459481612</v>
       </c>
       <c r="K302">
-        <v>79.3879773504449</v>
+        <v>0.2938797735044489</v>
       </c>
       <c r="L302">
         <v>0.01808362344892892</v>
@@ -22842,13 +22842,13 @@
         <v>0.2124999999999773</v>
       </c>
       <c r="U302">
-        <v>1.000217366434047</v>
+        <v>0.0002173664340465731</v>
       </c>
       <c r="V302">
-        <v>1.000411268764137</v>
+        <v>0.0004112687641373292</v>
       </c>
       <c r="W302">
-        <v>1.000341530054645</v>
+        <v>0.0003415300546447675</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22883,7 +22883,7 @@
         <v>4.984818227789673</v>
       </c>
       <c r="K303">
-        <v>83.29105476659862</v>
+        <v>0.3329105476659862</v>
       </c>
       <c r="L303">
         <v>0.02095259847479278</v>
@@ -22913,13 +22913,13 @@
         <v>0.2593750000000057</v>
       </c>
       <c r="U303">
-        <v>1.000285946310721</v>
+        <v>0.0002859463107205418</v>
       </c>
       <c r="V303">
-        <v>1.000502455178714</v>
+        <v>0.0005024551787142784</v>
       </c>
       <c r="W303">
-        <v>1.00170706725845</v>
+        <v>0.001707067258450046</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -22954,7 +22954,7 @@
         <v>3.374571213896959</v>
       </c>
       <c r="K304">
-        <v>77.14061673465868</v>
+        <v>0.2714061673465867</v>
       </c>
       <c r="L304">
         <v>0.02356509069528329</v>
@@ -22984,13 +22984,13 @@
         <v>0.2906249999999773</v>
       </c>
       <c r="U304">
-        <v>1.00027442998605</v>
+        <v>0.0002744299860495403</v>
       </c>
       <c r="V304">
-        <v>1.000433720638254</v>
+        <v>0.000433720638254087</v>
       </c>
       <c r="W304">
-        <v>0.9993183367416497</v>
+        <v>-0.0006816632583502846</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23025,7 +23025,7 @@
         <v>2.884209669970235</v>
       </c>
       <c r="K305">
-        <v>74.25473687140934</v>
+        <v>0.2425473687140933</v>
       </c>
       <c r="L305">
         <v>0.02564407629674491</v>
@@ -23055,13 +23055,13 @@
         <v>0.3093750000000171</v>
       </c>
       <c r="U305">
-        <v>1.000251491803654</v>
+        <v>0.0002514918036535807</v>
       </c>
       <c r="V305">
-        <v>1.000365080089445</v>
+        <v>0.0003650800894445805</v>
       </c>
       <c r="W305">
-        <v>0.9996589358799456</v>
+        <v>-0.0003410641200544129</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23096,7 +23096,7 @@
         <v>2.884209669970235</v>
       </c>
       <c r="K306">
-        <v>74.25473687140934</v>
+        <v>0.2425473687140933</v>
       </c>
       <c r="L306">
         <v>0.02717329895581804</v>
@@ -23126,13 +23126,13 @@
         <v>0.3093749999999886</v>
       </c>
       <c r="U306">
-        <v>1.000274285714286</v>
+        <v>0.0002742857142856714</v>
       </c>
       <c r="V306">
-        <v>1.000342137676201</v>
+        <v>0.0003421376762009487</v>
       </c>
       <c r="W306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23167,7 +23167,7 @@
         <v>3.528246326882557</v>
       </c>
       <c r="K307">
-        <v>77.91639571232328</v>
+        <v>0.2791639571232328</v>
       </c>
       <c r="L307">
         <v>0.02867191729901534</v>
@@ -23197,13 +23197,13 @@
         <v>0.3125</v>
       </c>
       <c r="U307">
-        <v>1.000308486815045</v>
+        <v>0.0003084868150451392</v>
       </c>
       <c r="V307">
-        <v>1.000433226166861</v>
+        <v>0.0004332261668607007</v>
       </c>
       <c r="W307">
-        <v>1.001364721937905</v>
+        <v>0.001364721937905156</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23238,7 +23238,7 @@
         <v>3.016927419196507</v>
       </c>
       <c r="K308">
-        <v>75.10535054178234</v>
+        <v>0.2510535054178235</v>
       </c>
       <c r="L308">
         <v>0.02982634386578783</v>
@@ -23268,13 +23268,13 @@
         <v>0.3062500000000057</v>
       </c>
       <c r="U308">
-        <v>1.000296969766193</v>
+        <v>0.0002969697661934223</v>
       </c>
       <c r="V308">
-        <v>1.000410247059896</v>
+        <v>0.0004102470598958963</v>
       </c>
       <c r="W308">
-        <v>0.9996592844974446</v>
+        <v>-0.0003407155025554331</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23309,7 +23309,7 @@
         <v>2.617613163404665</v>
       </c>
       <c r="K309">
-        <v>72.35746458145724</v>
+        <v>0.2235746458145723</v>
       </c>
       <c r="L309">
         <v>0.03046463932601237</v>
@@ -23339,13 +23339,13 @@
         <v>0.2843749999999829</v>
       </c>
       <c r="U309">
-        <v>1.000285463078206</v>
+        <v>0.00028546307820565</v>
       </c>
       <c r="V309">
-        <v>1.000410078826263</v>
+        <v>0.0004100788262633159</v>
       </c>
       <c r="W309">
-        <v>0.9996591683708249</v>
+        <v>-0.0003408316291750868</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23380,7 +23380,7 @@
         <v>2.756937295929638</v>
       </c>
       <c r="K310">
-        <v>73.38257412271891</v>
+        <v>0.233825741227189</v>
       </c>
       <c r="L310">
         <v>0.03076299563067888</v>
@@ -23410,13 +23410,13 @@
         <v>0.2562500000000227</v>
       </c>
       <c r="U310">
-        <v>1.0002739663478</v>
+        <v>0.0002739663478001919</v>
       </c>
       <c r="V310">
-        <v>1.000432683548916</v>
+        <v>0.000432683548915902</v>
       </c>
       <c r="W310">
-        <v>1.000340947834981</v>
+        <v>0.0003409478349811756</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23451,7 +23451,7 @@
         <v>2.404326088932132</v>
       </c>
       <c r="K311">
-        <v>70.6256106531299</v>
+        <v>0.206256106531299</v>
       </c>
       <c r="L311">
         <v>0.03059926284193109</v>
@@ -23481,13 +23481,13 @@
         <v>0.1937500000000227</v>
       </c>
       <c r="U311">
-        <v>1.000251067034898</v>
+        <v>0.0002510670348980781</v>
       </c>
       <c r="V311">
-        <v>1.000364207507227</v>
+        <v>0.00036420750722721</v>
       </c>
       <c r="W311">
-        <v>0.9996591683708249</v>
+        <v>-0.0003408316291750868</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23522,7 +23522,7 @@
         <v>2.404326088932132</v>
       </c>
       <c r="K312">
-        <v>70.6256106531299</v>
+        <v>0.206256106531299</v>
       </c>
       <c r="L312">
         <v>0.03005442535323013</v>
@@ -23552,13 +23552,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U312">
-        <v>1.000262413289522</v>
+        <v>0.0002624132895217013</v>
       </c>
       <c r="V312">
-        <v>1.000318565544861</v>
+        <v>0.0003185655448612046</v>
       </c>
       <c r="W312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23593,7 +23593,7 @@
         <v>2.404326088932132</v>
       </c>
       <c r="K313">
-        <v>70.62561065312988</v>
+        <v>0.2062561065312988</v>
       </c>
       <c r="L313">
         <v>0.02920388277586449</v>
@@ -23623,13 +23623,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U313">
-        <v>1.000250938166555</v>
+        <v>0.0002509381665549704</v>
       </c>
       <c r="V313">
-        <v>1.000227474352267</v>
+        <v>0.0002274743522667766</v>
       </c>
       <c r="W313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23664,7 +23664,7 @@
         <v>2.553501899685774</v>
       </c>
       <c r="K314">
-        <v>71.85874587295346</v>
+        <v>0.2185874587295347</v>
       </c>
       <c r="L314">
         <v>0.02824053086711959</v>
@@ -23694,13 +23694,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U314">
-        <v>1.000250875212388</v>
+        <v>0.0002508752123884239</v>
       </c>
       <c r="V314">
-        <v>1.000204680357508</v>
+        <v>0.0002046803575082023</v>
       </c>
       <c r="W314">
-        <v>1.000340947834981</v>
+        <v>0.0003409478349811756</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23735,7 +23735,7 @@
         <v>2.206950681564067</v>
       </c>
       <c r="K315">
-        <v>68.81773063275521</v>
+        <v>0.1881773063275521</v>
       </c>
       <c r="L315">
         <v>0.02704269240732176</v>
@@ -23765,13 +23765,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U315">
-        <v>1.000250812289802</v>
+        <v>0.0002508122898023935</v>
       </c>
       <c r="V315">
-        <v>1.000159163256026</v>
+        <v>0.0001591632560256073</v>
       </c>
       <c r="W315">
-        <v>0.9996591683708249</v>
+        <v>-0.0003408316291750868</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23806,7 +23806,7 @@
         <v>2.206950681564068</v>
       </c>
       <c r="K316">
-        <v>68.81773063275523</v>
+        <v>0.1881773063275523</v>
       </c>
       <c r="L316">
         <v>0.02568067647891296</v>
@@ -23836,13 +23836,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U316">
-        <v>1.000250749398771</v>
+        <v>0.0002507493987711218</v>
       </c>
       <c r="V316">
-        <v>1.000113669947939</v>
+        <v>0.0001136699479391545</v>
       </c>
       <c r="W316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23877,7 +23877,7 @@
         <v>1.696667937374305</v>
       </c>
       <c r="K317">
-        <v>62.91719917975212</v>
+        <v>0.1291719917975213</v>
       </c>
       <c r="L317">
         <v>0.02396353010586096</v>
@@ -23907,13 +23907,13 @@
         <v>0.01562500000002842</v>
       </c>
       <c r="U317">
-        <v>1.000227896853884</v>
+        <v>0.0002278968538840243</v>
       </c>
       <c r="V317">
-        <v>1.00004546281142</v>
+        <v>4.546281142014941E-05</v>
       </c>
       <c r="W317">
-        <v>0.9993181043300375</v>
+        <v>-0.0006818956699624623</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -23948,7 +23948,7 @@
         <v>1.05483758294476</v>
       </c>
       <c r="K318">
-        <v>51.33435322090453</v>
+        <v>0.01334353220904527</v>
       </c>
       <c r="L318">
         <v>0.02143134354483854</v>
@@ -23978,13 +23978,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U318">
-        <v>1.000159491450119</v>
+        <v>0.0001594914501190647</v>
       </c>
       <c r="V318">
-        <v>0.9998181570214122</v>
+        <v>-0.0001818429785878095</v>
       </c>
       <c r="W318">
-        <v>0.9982940975776186</v>
+        <v>-0.001705902422381445</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24019,7 +24019,7 @@
         <v>1.293756779040951</v>
       </c>
       <c r="K319">
-        <v>56.4033986019166</v>
+        <v>0.06403398601916599</v>
       </c>
       <c r="L319">
         <v>0.01886265239238897</v>
@@ -24049,13 +24049,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U319">
-        <v>1.000182246876175</v>
+        <v>0.0001822468761747409</v>
       </c>
       <c r="V319">
-        <v>0.9999317964806983</v>
+        <v>-6.820351930170165E-05</v>
       </c>
       <c r="W319">
-        <v>1.001025290498974</v>
+        <v>0.001025290498974485</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24090,7 +24090,7 @@
         <v>1.293756779040951</v>
       </c>
       <c r="K320">
-        <v>56.4033986019166</v>
+        <v>0.06403398601916599</v>
       </c>
       <c r="L320">
         <v>0.01636703411123963</v>
@@ -24120,13 +24120,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U320">
-        <v>1.000159436959765</v>
+        <v>0.000159436959765058</v>
       </c>
       <c r="V320">
-        <v>0.9999545278857743</v>
+        <v>-4.547211422567532E-05</v>
       </c>
       <c r="W320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24161,7 +24161,7 @@
         <v>1.188848648520369</v>
       </c>
       <c r="K321">
-        <v>54.31388092200957</v>
+        <v>0.04313880922009572</v>
       </c>
       <c r="L321">
         <v>0.01389084416586351</v>
@@ -24191,13 +24191,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U321">
-        <v>1.000136638466005</v>
+        <v>0.0001366384660053122</v>
       </c>
       <c r="V321">
-        <v>0.9999317887269501</v>
+        <v>-6.821127304990071E-05</v>
       </c>
       <c r="W321">
-        <v>0.9996585865483101</v>
+        <v>-0.0003414134516899203</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24232,7 +24232,7 @@
         <v>1.188848648520369</v>
       </c>
       <c r="K322">
-        <v>54.31388092200957</v>
+        <v>0.04313880922009572</v>
       </c>
       <c r="L322">
         <v>0.01153376015920185</v>
@@ -24262,13 +24262,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U322">
-        <v>1.000136619798486</v>
+        <v>0.000136619798485782</v>
       </c>
       <c r="V322">
-        <v>0.9998408295056619</v>
+        <v>-0.0001591704943381123</v>
       </c>
       <c r="W322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Equinor 15.12.2020.xlsx
+++ b/data_clean/Equinor 15.12.2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1403,13 +1406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W322"/>
+  <dimension ref="A1:X322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1479,10 +1482,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>144.85</v>
@@ -1539,7 +1545,7 @@
         <v>144.85</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>144.85</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1550,10 +1556,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>145.35</v>
@@ -1610,7 +1619,7 @@
         <v>145.1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>145.1</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1621,10 +1630,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>145.3</v>
@@ -1681,21 +1693,24 @@
         <v>145.1666666666667</v>
       </c>
       <c r="T4">
+        <v>145.1666666666667</v>
+      </c>
+      <c r="U4">
         <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.0004594532506316806</v>
       </c>
       <c r="V4">
         <v>0.0004594532506316806</v>
       </c>
       <c r="W4">
+        <v>0.0004594532506316806</v>
+      </c>
+      <c r="X4">
         <v>-0.0003439972480219211</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>145.5</v>
@@ -1752,21 +1767,24 @@
         <v>145.25</v>
       </c>
       <c r="T5">
+        <v>145.3833333333333</v>
+      </c>
+      <c r="U5">
         <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.0005740528128588274</v>
       </c>
       <c r="V5">
         <v>0.0005740528128588274</v>
       </c>
       <c r="W5">
+        <v>0.0005740528128588274</v>
+      </c>
+      <c r="X5">
         <v>0.001376462491397001</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>145.45</v>
@@ -1823,21 +1841,24 @@
         <v>145.29</v>
       </c>
       <c r="T6">
+        <v>145.4166666666667</v>
+      </c>
+      <c r="U6">
         <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0002753872633391996</v>
       </c>
       <c r="V6">
         <v>0.0002753872633391996</v>
       </c>
       <c r="W6">
+        <v>0.0002753872633391996</v>
+      </c>
+      <c r="X6">
         <v>-0.0003436426116839586</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>145.55</v>
@@ -1894,21 +1915,24 @@
         <v>145.3333333333333</v>
       </c>
       <c r="T7">
+        <v>145.5</v>
+      </c>
+      <c r="U7">
         <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.000298254066579462</v>
       </c>
       <c r="V7">
         <v>0.000298254066579462</v>
       </c>
       <c r="W7">
+        <v>0.000298254066579462</v>
+      </c>
+      <c r="X7">
         <v>0.0006875214850465827</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>145.65</v>
@@ -1965,21 +1989,24 @@
         <v>145.3785714285714</v>
       </c>
       <c r="T8">
+        <v>145.55</v>
+      </c>
+      <c r="U8">
         <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.0003112712975097409</v>
       </c>
       <c r="V8">
         <v>0.0003112712975097409</v>
       </c>
       <c r="W8">
+        <v>0.0003112712975097409</v>
+      </c>
+      <c r="X8">
         <v>0.0006870491240122956</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>146.15</v>
@@ -2036,21 +2063,24 @@
         <v>145.475</v>
       </c>
       <c r="T9">
+        <v>145.7833333333333</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.0006632928806562521</v>
       </c>
       <c r="V9">
         <v>0.0006632928806562521</v>
       </c>
       <c r="W9">
+        <v>0.0006632928806562521</v>
+      </c>
+      <c r="X9">
         <v>0.00343288705801581</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>146.05</v>
@@ -2107,21 +2137,24 @@
         <v>145.5388888888889</v>
       </c>
       <c r="T10">
+        <v>145.95</v>
+      </c>
+      <c r="U10">
         <v>0.08611111111110858</v>
-      </c>
-      <c r="U10">
-        <v>0.0004391743522178526</v>
       </c>
       <c r="V10">
         <v>0.0004391743522178526</v>
       </c>
       <c r="W10">
+        <v>0.0004391743522178526</v>
+      </c>
+      <c r="X10">
         <v>-0.0006842285323297448</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>146.05</v>
@@ -2178,21 +2211,24 @@
         <v>145.59</v>
       </c>
       <c r="T11">
+        <v>146.0833333333333</v>
+      </c>
+      <c r="U11">
         <v>0.1225000000000023</v>
-      </c>
-      <c r="U11">
-        <v>0.0003511852502195989</v>
       </c>
       <c r="V11">
         <v>0.0003511852502195989</v>
       </c>
       <c r="W11">
+        <v>0.0003511852502195989</v>
+      </c>
+      <c r="X11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>146</v>
@@ -2249,21 +2285,24 @@
         <v>145.6272727272727</v>
       </c>
       <c r="T12">
+        <v>146.0333333333333</v>
+      </c>
+      <c r="U12">
         <v>0.1727272727272862</v>
-      </c>
-      <c r="U12">
-        <v>0.0002560115892074055</v>
       </c>
       <c r="V12">
         <v>0.0002560115892074055</v>
       </c>
       <c r="W12">
+        <v>0.0002560115892074055</v>
+      </c>
+      <c r="X12">
         <v>-0.000342348510784074</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>145.6</v>
@@ -2320,21 +2359,24 @@
         <v>145.625</v>
       </c>
       <c r="T13">
+        <v>145.8833333333333</v>
+      </c>
+      <c r="U13">
         <v>0.1875</v>
-      </c>
-      <c r="U13">
-        <v>-1.560646732001736E-05</v>
       </c>
       <c r="V13">
         <v>-1.560646732001736E-05</v>
       </c>
       <c r="W13">
+        <v>-1.560646732001736E-05</v>
+      </c>
+      <c r="X13">
         <v>-0.002739726027397249</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>145.7</v>
@@ -2391,21 +2433,24 @@
         <v>145.6307692307692</v>
       </c>
       <c r="T14">
+        <v>145.7666666666667</v>
+      </c>
+      <c r="U14">
         <v>0.2129807692307679</v>
-      </c>
-      <c r="U14">
-        <v>3.961703532517902E-05</v>
       </c>
       <c r="V14">
         <v>3.961703532517902E-05</v>
       </c>
       <c r="W14">
+        <v>3.961703532517902E-05</v>
+      </c>
+      <c r="X14">
         <v>0.0006868131868131844</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>145.55</v>
@@ -2462,21 +2507,24 @@
         <v>145.625</v>
       </c>
       <c r="T15">
+        <v>145.6166666666667</v>
+      </c>
+      <c r="U15">
         <v>0.21875</v>
-      </c>
-      <c r="U15">
-        <v>-3.961546587794018E-05</v>
       </c>
       <c r="V15">
         <v>-3.961546587794018E-05</v>
       </c>
       <c r="W15">
+        <v>-3.961546587794018E-05</v>
+      </c>
+      <c r="X15">
         <v>-0.001029512697323098</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>145.4</v>
@@ -2533,21 +2581,24 @@
         <v>145.61</v>
       </c>
       <c r="T16">
+        <v>145.55</v>
+      </c>
+      <c r="U16">
         <v>0.2024999999999864</v>
-      </c>
-      <c r="U16">
-        <v>-0.0001030042918453988</v>
       </c>
       <c r="V16">
         <v>-0.0001030042918453988</v>
       </c>
       <c r="W16">
+        <v>-0.0001030042918453988</v>
+      </c>
+      <c r="X16">
         <v>-0.001030573686018554</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>145.5</v>
@@ -2604,21 +2655,24 @@
         <v>145.6533333333333</v>
       </c>
       <c r="T17">
+        <v>145.4833333333333</v>
+      </c>
+      <c r="U17">
         <v>0.1281249999999829</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-4.72151637938012E-05</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.0002975986081541482</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.0006877579092159358</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>145.6</v>
@@ -2675,21 +2729,24 @@
         <v>145.67</v>
       </c>
       <c r="T18">
+        <v>145.5</v>
+      </c>
+      <c r="U18">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-1.262497143716956E-06</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0001144269498352113</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.0006872852233676952</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>145.85</v>
@@ -2746,21 +2803,24 @@
         <v>145.7066666666666</v>
       </c>
       <c r="T19">
+        <v>145.65</v>
+      </c>
+      <c r="U19">
         <v>-0.03125</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>9.426657240019232E-05</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0002517104871739839</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.001717032967033072</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>146</v>
@@ -2817,21 +2877,24 @@
         <v>145.74</v>
       </c>
       <c r="T20">
+        <v>145.8166666666667</v>
+      </c>
+      <c r="U20">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.0001385517129208758</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0002287701317715829</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.001028453890983938</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>146</v>
@@ -2888,21 +2951,24 @@
         <v>145.7766666666667</v>
       </c>
       <c r="T21">
+        <v>145.95</v>
+      </c>
+      <c r="U21">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0001246792671028008</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0002515895887655883</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>146.05</v>
@@ -2959,21 +3025,24 @@
         <v>145.81</v>
       </c>
       <c r="T22">
+        <v>146.0166666666667</v>
+      </c>
+      <c r="U22">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0001291375085614721</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0002286602794228099</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.000342465753424781</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>146.1</v>
@@ -3030,21 +3099,24 @@
         <v>145.84</v>
       </c>
       <c r="T23">
+        <v>146.05</v>
+      </c>
+      <c r="U23">
         <v>-0.015625</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.000132984058257346</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.000205747205267226</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.000342348510783852</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>146.2</v>
@@ -3101,21 +3173,24 @@
         <v>145.8433333333333</v>
       </c>
       <c r="T24">
+        <v>146.1166666666667</v>
+      </c>
+      <c r="U24">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0001512464265489566</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>2.285609800689592E-05</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.000684462696783017</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>146.1</v>
@@ -3172,21 +3247,24 @@
         <v>145.8466666666667</v>
       </c>
       <c r="T25">
+        <v>146.1333333333333</v>
+      </c>
+      <c r="U25">
         <v>0.1281249999999829</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001100270032374784</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>2.285557561765295E-05</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-0.0006839945280436854</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>146.3</v>
@@ -3243,21 +3321,24 @@
         <v>145.8633333333333</v>
       </c>
       <c r="T26">
+        <v>146.2</v>
+      </c>
+      <c r="U26">
         <v>0.1999999999999886</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001561092764934546</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0001142752662612878</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.001368925393566256</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>146.2</v>
@@ -3314,21 +3395,24 @@
         <v>145.8766666666667</v>
       </c>
       <c r="T27">
+        <v>146.2</v>
+      </c>
+      <c r="U27">
         <v>0.234375</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0001176903972024412</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>9.140976713362114E-05</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.0006835269993166193</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>146.1</v>
@@ -3385,21 +3469,24 @@
         <v>145.91</v>
       </c>
       <c r="T28">
+        <v>146.2</v>
+      </c>
+      <c r="U28">
         <v>0.2406249999999943</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>8.355210793165035E-05</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.0002285035303795091</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.0006839945280436854</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>146.15</v>
@@ -3456,21 +3543,24 @@
         <v>145.94</v>
       </c>
       <c r="T29">
+        <v>146.15</v>
+      </c>
+      <c r="U29">
         <v>0.2249999999999943</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>8.982671609869541E-05</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.00020560619559995</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.0003422313483916195</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>146.2</v>
@@ -3527,21 +3617,24 @@
         <v>145.9833333333333</v>
       </c>
       <c r="T30">
+        <v>146.15</v>
+      </c>
+      <c r="U30">
         <v>0.2124999999999773</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>9.544991118093371E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.000296925677218951</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.0003421142661648169</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>146.05</v>
@@ -3598,21 +3691,24 @@
         <v>146.0266666666667</v>
       </c>
       <c r="T31">
+        <v>146.1333333333334</v>
+      </c>
+      <c r="U31">
         <v>0.1749999999999829</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>5.478696149130435E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0002968375385319355</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.001025991792065528</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>145.85</v>
@@ -3669,21 +3765,24 @@
         <v>146.05</v>
       </c>
       <c r="T32">
+        <v>146.0333333333333</v>
+      </c>
+      <c r="U32">
         <v>0.1031250000000057</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0002285949411937604</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0001597881665449385</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-0.001369394043136074</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>146</v>
@@ -3740,21 +3839,24 @@
         <v>146.0766666666667</v>
       </c>
       <c r="T33">
+        <v>145.9666666666667</v>
+      </c>
+      <c r="U33">
         <v>0.05937500000001705</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0001485527533684472</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0001825858724180396</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.001028453890983938</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>146.1</v>
@@ -3811,21 +3913,24 @@
         <v>146.0933333333333</v>
       </c>
       <c r="T34">
+        <v>145.9833333333333</v>
+      </c>
+      <c r="U34">
         <v>0.003125000000011369</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0001828070015081895</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0001140953380642795</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.00068493150684934</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>146.05</v>
@@ -3882,21 +3987,24 @@
         <v>146.0966666666667</v>
       </c>
       <c r="T35">
+        <v>146.05</v>
+      </c>
+      <c r="U35">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0001256568425862525</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>2.281646436075313E-05</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.0003422313483913975</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>145.95</v>
@@ -3953,21 +4061,24 @@
         <v>146.0933333333333</v>
       </c>
       <c r="T36">
+        <v>146.0333333333333</v>
+      </c>
+      <c r="U36">
         <v>-0.04375000000001705</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.000114219140843419</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-2.28159437817288E-05</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-0.000684697021568148</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>145.8</v>
@@ -4024,21 +4135,24 @@
         <v>146.0766666666667</v>
       </c>
       <c r="T37">
+        <v>145.9333333333333</v>
+      </c>
+      <c r="U37">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>5.710304816064493E-05</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-0.0001140823218033216</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>-0.001027749229187913</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>146.05</v>
@@ -4095,21 +4209,24 @@
         <v>146.0733333333333</v>
       </c>
       <c r="T38">
+        <v>145.9333333333333</v>
+      </c>
+      <c r="U38">
         <v>-0.09375</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>9.135966014217622E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-2.281906761303354E-05</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.001714677640603623</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>146.1</v>
@@ -4166,21 +4283,24 @@
         <v>146.0666666666667</v>
       </c>
       <c r="T39">
+        <v>145.9833333333333</v>
+      </c>
+      <c r="U39">
         <v>-0.08749999999997726</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>-1.14189142897958E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-4.563917666922102E-05</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.000342348510783852</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>146.1</v>
@@ -4237,21 +4357,24 @@
         <v>146.0666666666667</v>
       </c>
       <c r="T40">
+        <v>146.0833333333333</v>
+      </c>
+      <c r="U40">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>1.141904468271449E-05</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>146.3</v>
@@ -4308,21 +4431,24 @@
         <v>146.0666666666667</v>
       </c>
       <c r="T41">
+        <v>146.1666666666667</v>
+      </c>
+      <c r="U41">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>5.709457144842389E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.001368925393566256</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>146.45</v>
@@ -4379,21 +4505,24 @@
         <v>146.0833333333333</v>
       </c>
       <c r="T42">
+        <v>146.2833333333333</v>
+      </c>
+      <c r="U42">
         <v>0.009374999999977263</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0001027643613193963</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>0.0001141031492470912</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.001025290498974485</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>146.4</v>
@@ -4450,21 +4579,24 @@
         <v>146.1033333333333</v>
       </c>
       <c r="T43">
+        <v>146.3833333333333</v>
+      </c>
+      <c r="U43">
         <v>0.04062500000003411</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.0001826734255832019</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0.000136908157444271</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>-0.0003414134516899203</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>146.5</v>
@@ -4521,21 +4653,24 @@
         <v>146.1266666666667</v>
       </c>
       <c r="T44">
+        <v>146.45</v>
+      </c>
+      <c r="U44">
         <v>0.08437500000002274</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>0.000182640062097672</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0.0001597043188610314</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.000683060109289535</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>146.75</v>
@@ -4592,21 +4727,24 @@
         <v>146.1633333333333</v>
       </c>
       <c r="T45">
+        <v>146.55</v>
+      </c>
+      <c r="U45">
         <v>0.1656250000000341</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>0.0002739100661948157</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0.0002509238560153282</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.00170648464163814</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>146.85</v>
@@ -4663,21 +4801,24 @@
         <v>146.2166666666667</v>
       </c>
       <c r="T46">
+        <v>146.7</v>
+      </c>
+      <c r="U46">
         <v>0.2249999999999659</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>0.000330884030852463</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0.000364888594950985</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.0006814310051106443</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>147.15</v>
@@ -4734,21 +4875,24 @@
         <v>146.3033333333333</v>
       </c>
       <c r="T47">
+        <v>146.9166666666667</v>
+      </c>
+      <c r="U47">
         <v>0.2875000000000227</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>0.0003763986632143723</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0.0005927276872219611</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.002042900919305479</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>147.05</v>
@@ -4805,21 +4949,24 @@
         <v>146.3733333333333</v>
       </c>
       <c r="T48">
+        <v>147.0166666666667</v>
+      </c>
+      <c r="U48">
         <v>0.3312500000000114</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>0.0003306501265589734</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>0.000478457998223103</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0006795786612300292</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>146.95</v>
@@ -4876,21 +5023,24 @@
         <v>146.43</v>
       </c>
       <c r="T49">
+        <v>147.05</v>
+      </c>
+      <c r="U49">
         <v>0.3531250000000341</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>0.0002507551148343001</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>0.0003871379121878071</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>-0.0006800408024483229</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>147</v>
@@ -4947,21 +5097,24 @@
         <v>146.4933333333333</v>
       </c>
       <c r="T50">
+        <v>147</v>
+      </c>
+      <c r="U50">
         <v>0.3656250000000227</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>0.0002279020476998461</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0.0004325161055338533</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.0003402517863220211</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>147.05</v>
@@ -5018,21 +5171,24 @@
         <v>146.5666666666667</v>
       </c>
       <c r="T51">
+        <v>147</v>
+      </c>
+      <c r="U51">
         <v>0.3843750000000057</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>0.0002392426262005642</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0.0005005916082645445</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.0003401360544217358</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>147.05</v>
@@ -5089,21 +5245,24 @@
         <v>146.65</v>
       </c>
       <c r="T52">
+        <v>147.0333333333333</v>
+      </c>
+      <c r="U52">
         <v>0.3843749999999773</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>0.0002277956217682231</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>0.0005685694791903728</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>147.25</v>
@@ -5160,21 +5319,24 @@
         <v>146.73</v>
       </c>
       <c r="T53">
+        <v>147.1166666666667</v>
+      </c>
+      <c r="U53">
         <v>0.3562499999999886</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>0.0002619053041517105</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>0.0005455165359700143</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.001360081604896202</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>147.25</v>
@@ -5231,21 +5393,24 @@
         <v>146.8066666666667</v>
       </c>
       <c r="T54">
+        <v>147.1833333333333</v>
+      </c>
+      <c r="U54">
         <v>0.3312499999999829</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>0.0002390683166175744</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>0.0005225016470160604</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>147.4</v>
@@ -5302,21 +5467,24 @@
         <v>146.8933333333333</v>
       </c>
       <c r="T55">
+        <v>147.3</v>
+      </c>
+      <c r="U55">
         <v>0.28125</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>0.0002959185996220803</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>0.0005903455792195533</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.001018675721562001</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>147.45</v>
@@ -5373,21 +5541,24 @@
         <v>146.97</v>
       </c>
       <c r="T56">
+        <v>147.3666666666666</v>
+      </c>
+      <c r="U56">
         <v>0.2468750000000171</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>0.0002616967048971741</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>0.0005219206680584509</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.0003392130257799941</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>147.4</v>
@@ -5444,21 +5615,24 @@
         <v>147.0333333333333</v>
       </c>
       <c r="T57">
+        <v>147.4166666666667</v>
+      </c>
+      <c r="U57">
         <v>0.2343749999999716</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>0.0002730033784168473</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>0.0004309269465423426</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>-0.0003390979993216359</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>147.4</v>
@@ -5515,21 +5689,24 @@
         <v>147.1</v>
       </c>
       <c r="T58">
+        <v>147.4166666666667</v>
+      </c>
+      <c r="U58">
         <v>0.2250000000000227</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>0.0002956729402399105</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>0.0004534119247336932</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>147.4</v>
@@ -5586,21 +5763,24 @@
         <v>147.16</v>
       </c>
       <c r="T59">
+        <v>147.4</v>
+      </c>
+      <c r="U59">
         <v>0.2062500000000114</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>0.0002842168688397262</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>0.0004078857919782575</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>147.4</v>
@@ -5657,21 +5837,24 @@
         <v>147.2033333333333</v>
       </c>
       <c r="T60">
+        <v>147.4</v>
+      </c>
+      <c r="U60">
         <v>0.1937499999999943</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>0.0002727706680607511</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>0.0002944640753830274</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>147.5</v>
@@ -5728,21 +5911,24 @@
         <v>147.2466666666666</v>
       </c>
       <c r="T61">
+        <v>147.4333333333333</v>
+      </c>
+      <c r="U61">
         <v>0.1781249999999943</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>0.0003295080104532833</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>0.0002943773918160364</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.0006784260515604323</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>147.55</v>
@@ -5799,21 +5985,24 @@
         <v>147.2733333333334</v>
       </c>
       <c r="T62">
+        <v>147.4833333333333</v>
+      </c>
+      <c r="U62">
         <v>0.171875</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>0.0003861924828771901</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>0.0001811020057052026</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.0003389830508475633</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>147.5</v>
@@ -5870,21 +6059,24 @@
         <v>147.3033333333333</v>
       </c>
       <c r="T63">
+        <v>147.5166666666667</v>
+      </c>
+      <c r="U63">
         <v>0.1624999999999659</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>0.0003406265257228647</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>0.0002037028654200412</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>-0.0003388681802779514</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>147.45</v>
@@ -5941,21 +6133,24 @@
         <v>147.3366666666667</v>
       </c>
       <c r="T64">
+        <v>147.5</v>
+      </c>
+      <c r="U64">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>0.0003064594849209179</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>0.0002262904211265404</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>-0.0003389830508475633</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>147.4</v>
@@ -6012,21 +6207,24 @@
         <v>147.3633333333333</v>
       </c>
       <c r="T65">
+        <v>147.45</v>
+      </c>
+      <c r="U65">
         <v>0.109375</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>0.0003063655962780576</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>0.000180991380285489</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>-0.0003390979993216359</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>147.4</v>
@@ -6083,21 +6281,24 @@
         <v>147.3866666666667</v>
       </c>
       <c r="T66">
+        <v>147.4166666666667</v>
+      </c>
+      <c r="U66">
         <v>0.08437499999996589</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>0.0003289585625645408</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>0.0001583387997918795</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>147.2</v>
@@ -6154,21 +6355,24 @@
         <v>147.3966666666666</v>
       </c>
       <c r="T67">
+        <v>147.3333333333333</v>
+      </c>
+      <c r="U67">
         <v>0.04999999999998295</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>0.0003175107159867352</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>6.78487425362917E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>-0.001356852103120865</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>147.3</v>
@@ -6225,21 +6429,24 @@
         <v>147.4</v>
       </c>
       <c r="T68">
+        <v>147.3</v>
+      </c>
+      <c r="U68">
         <v>0.02187500000002274</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>0.0002834017276167611</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>2.26147131325849E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.0006793478260871399</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>147.4</v>
@@ -6296,21 +6503,24 @@
         <v>147.41</v>
       </c>
       <c r="T69">
+        <v>147.3</v>
+      </c>
+      <c r="U69">
         <v>0</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>0.0002946542911863581</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>6.784260515591001E-05</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.0006788866259335169</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>147.25</v>
@@ -6367,21 +6577,24 @@
         <v>147.4</v>
       </c>
       <c r="T70">
+        <v>147.3166666666667</v>
+      </c>
+      <c r="U70">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>0.0002605789384240165</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-6.783800284915209E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>-0.001017639077340649</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>147.15</v>
@@ -6438,21 +6651,24 @@
         <v>147.38</v>
       </c>
       <c r="T71">
+        <v>147.2666666666667</v>
+      </c>
+      <c r="U71">
         <v>-0.06562499999995453</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>0.0001925516491485535</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-0.0001356852103121531</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>-0.0006791171477079638</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>147.1</v>
@@ -6509,21 +6725,24 @@
         <v>147.36</v>
       </c>
       <c r="T72">
+        <v>147.1666666666667</v>
+      </c>
+      <c r="U72">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>0.000147217031877922</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>-0.0001357036232866315</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>-0.0003397893306150701</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>146.9</v>
@@ -6580,21 +6799,24 @@
         <v>147.3266666666667</v>
       </c>
       <c r="T73">
+        <v>147.05</v>
+      </c>
+      <c r="U73">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>0.0001132272017030367</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>-0.0002262034020993342</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>-0.001359619306594118</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>146.7</v>
@@ -6651,21 +6873,24 @@
         <v>147.28</v>
       </c>
       <c r="T74">
+        <v>146.9</v>
+      </c>
+      <c r="U74">
         <v>-0.1624999999999943</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>4.528575310214222E-05</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>-0.0003167564143170543</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>-0.001361470388019148</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>146.55</v>
@@ -6722,21 +6947,24 @@
         <v>147.2233333333333</v>
       </c>
       <c r="T75">
+        <v>146.7166666666667</v>
+      </c>
+      <c r="U75">
         <v>-0.1906249999999829</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-4.528370239542667E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>-0.0003847546623214626</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>-0.001022494887525371</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>146.55</v>
@@ -6793,21 +7021,24 @@
         <v>147.16</v>
       </c>
       <c r="T76">
+        <v>146.6</v>
+      </c>
+      <c r="U76">
         <v>-0.2312499999999886</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-6.792862965310231E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>-0.0004301854325627907</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>146.65</v>
@@ -6864,21 +7095,24 @@
         <v>147.1</v>
       </c>
       <c r="T77">
+        <v>146.5833333333333</v>
+      </c>
+      <c r="U77">
         <v>-0.2718749999999943</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-0.0001132220737756207</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>-0.0004077194889915425</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0.0006823609689525778</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>146.6</v>
@@ -6935,21 +7169,24 @@
         <v>147.04</v>
       </c>
       <c r="T78">
+        <v>146.6</v>
+      </c>
+      <c r="U78">
         <v>-0.2937499999999886</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-0.0001019114050186953</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>-0.0004078857919782575</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>-0.0003409478349812867</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>146.55</v>
@@ -7006,21 +7243,24 @@
         <v>146.98</v>
       </c>
       <c r="T79">
+        <v>146.6</v>
+      </c>
+      <c r="U79">
         <v>-0.3093750000000171</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-9.059714845471856E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>-0.0004080522306852963</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.0003410641200544129</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>146.45</v>
@@ -7077,21 +7317,24 @@
         <v>146.9166666666667</v>
       </c>
       <c r="T80">
+        <v>146.5333333333333</v>
+      </c>
+      <c r="U80">
         <v>-0.328125</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-0.0001245823659322687</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-0.0004308976277953569</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.0006823609689526888</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>146.4</v>
@@ -7148,21 +7391,24 @@
         <v>146.85</v>
       </c>
       <c r="T81">
+        <v>146.4666666666667</v>
+      </c>
+      <c r="U81">
         <v>-0.328125</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-0.0001472520502017183</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>-0.0004537719795801864</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>-0.0003414134516899203</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>146.45</v>
@@ -7219,21 +7465,24 @@
         <v>146.8</v>
       </c>
       <c r="T82">
+        <v>146.4333333333333</v>
+      </c>
+      <c r="U82">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-0.0001359449875950602</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-0.0003404834865508022</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.0003415300546447675</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>146.4</v>
@@ -7290,21 +7539,24 @@
         <v>146.74</v>
       </c>
       <c r="T83">
+        <v>146.4166666666667</v>
+      </c>
+      <c r="U83">
         <v>-0.2687500000000114</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-0.0001926149174587</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-0.0004087193460492466</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>-0.0003414134516899203</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>146.45</v>
@@ -7361,21 +7613,24 @@
         <v>146.6766666666666</v>
       </c>
       <c r="T84">
+        <v>146.4333333333333</v>
+      </c>
+      <c r="U84">
         <v>-0.2281249999999773</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-0.0001813195530473433</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>-0.0004316023806278935</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0.0003415300546447675</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>146.55</v>
@@ -7432,21 +7687,24 @@
         <v>146.63</v>
       </c>
       <c r="T85">
+        <v>146.4666666666667</v>
+      </c>
+      <c r="U85">
         <v>-0.1875</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-0.0001926869630267669</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0003181601254459432</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.0006828269033800627</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>146.45</v>
@@ -7503,21 +7761,24 @@
         <v>146.5833333333333</v>
       </c>
       <c r="T86">
+        <v>146.4833333333333</v>
+      </c>
+      <c r="U86">
         <v>-0.1562499999999716</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-0.0002267342334681954</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-0.0003182613835276404</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>-0.0006823609689526888</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>146.35</v>
@@ -7574,21 +7835,24 @@
         <v>146.5333333333333</v>
       </c>
       <c r="T87">
+        <v>146.45</v>
+      </c>
+      <c r="U87">
         <v>-0.1312500000000227</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-0.000238124936216666</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-0.0003411028993747234</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.0006828269033799517</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>146.4</v>
@@ -7645,21 +7909,24 @@
         <v>146.5</v>
       </c>
       <c r="T88">
+        <v>146.4</v>
+      </c>
+      <c r="U88">
         <v>-0.09374999999997158</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>-0.0002268396697212571</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.0002274795268425445</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.0003416467372736598</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>146.4</v>
@@ -7716,21 +7983,24 @@
         <v>146.48</v>
       </c>
       <c r="T89">
+        <v>146.3833333333333</v>
+      </c>
+      <c r="U89">
         <v>-0.06250000000002842</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>-0.0002268911376323013</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-0.00013651877133114</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>146.45</v>
@@ -7787,21 +8057,24 @@
         <v>146.4733333333334</v>
       </c>
       <c r="T90">
+        <v>146.4166666666667</v>
+      </c>
+      <c r="U90">
         <v>-0.046875</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>-0.0002155954974581986</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-4.551247041661988E-05</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.0003415300546447675</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>146.55</v>
@@ -7858,21 +8131,24 @@
         <v>146.4733333333333</v>
       </c>
       <c r="T91">
+        <v>146.4666666666667</v>
+      </c>
+      <c r="U91">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>-0.0002156419889001171</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.0006828269033800627</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>146.65</v>
@@ -7929,21 +8205,24 @@
         <v>146.4733333333333</v>
       </c>
       <c r="T92">
+        <v>146.55</v>
+      </c>
+      <c r="U92">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>-0.0002043364740604847</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.0006823609689525778</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>146.65</v>
@@ -8000,21 +8279,24 @@
         <v>146.4766666666667</v>
       </c>
       <c r="T93">
+        <v>146.6166666666667</v>
+      </c>
+      <c r="U93">
         <v>0.003125000000011369</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>-0.0001930238895451186</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>2.275727094813718E-05</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>146.75</v>
@@ -8071,21 +8353,24 @@
         <v>146.49</v>
       </c>
       <c r="T94">
+        <v>146.6833333333333</v>
+      </c>
+      <c r="U94">
         <v>0.03125</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-0.0001589915393787056</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>9.102701226582077E-05</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.0006818956699623513</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>147.05</v>
@@ -8142,21 +8427,24 @@
         <v>146.53</v>
       </c>
       <c r="T95">
+        <v>146.8166666666667</v>
+      </c>
+      <c r="U95">
         <v>0.08750000000003411</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-7.950841085391236E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.0002730561813093502</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.002044293015332377</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>147.1</v>
@@ -8213,21 +8501,24 @@
         <v>146.5766666666667</v>
       </c>
       <c r="T96">
+        <v>146.9666666666667</v>
+      </c>
+      <c r="U96">
         <v>0.1343749999999773</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-6.815548538097183E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0.0003184785823153735</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.0003400204012240504</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>147</v>
@@ -8284,21 +8575,24 @@
         <v>146.6133333333333</v>
       </c>
       <c r="T97">
+        <v>147.05</v>
+      </c>
+      <c r="U97">
         <v>0.171875</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-4.54400872449412E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0.0002501535032861657</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>-0.0006798096532970588</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>146.85</v>
@@ -8355,21 +8649,24 @@
         <v>146.6433333333333</v>
       </c>
       <c r="T98">
+        <v>146.9833333333333</v>
+      </c>
+      <c r="U98">
         <v>0.1968750000000057</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-0.0001022448423156908</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>0.0002046198617680073</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>-0.001020408163265318</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>146.85</v>
@@ -8426,21 +8723,24 @@
         <v>146.67</v>
       </c>
       <c r="T99">
+        <v>146.9</v>
+      </c>
+      <c r="U99">
         <v>0.2062500000000114</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-0.0001249786968129385</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.0001818471120405007</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>146.9</v>
@@ -8497,21 +8797,24 @@
         <v>146.6933333333333</v>
       </c>
       <c r="T100">
+        <v>146.8666666666667</v>
+      </c>
+      <c r="U100">
         <v>0.2093749999999943</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-7.954183900726886E-05</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.0001590872934704723</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>0.0003404834865510242</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>146.85</v>
@@ -8568,21 +8871,24 @@
         <v>146.72</v>
       </c>
       <c r="T101">
+        <v>146.8666666666666</v>
+      </c>
+      <c r="U101">
         <v>0.2156249999999886</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-6.818414264153638E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>0.0001817851299763529</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0003403675970048425</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>147.05</v>
@@ -8639,21 +8945,24 @@
         <v>146.7666666666667</v>
       </c>
       <c r="T102">
+        <v>146.9333333333333</v>
+      </c>
+      <c r="U102">
         <v>0.2156249999999602</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-1.136479867236417E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>0.0003180661577608657</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>0.001361933946203653</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>147.1</v>
@@ -8710,21 +9019,24 @@
         <v>146.8133333333334</v>
       </c>
       <c r="T103">
+        <v>147</v>
+      </c>
+      <c r="U103">
         <v>0.1750000000000114</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>4.545971133085303E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>0.0003179650238473997</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0003400204012240504</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>147.05</v>
@@ -8781,21 +9093,24 @@
         <v>146.8566666666667</v>
       </c>
       <c r="T104">
+        <v>147.0666666666667</v>
+      </c>
+      <c r="U104">
         <v>0.1281250000000114</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>7.955087846900355E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>0.0002951593860682777</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>-0.0003399048266484739</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>147.15</v>
@@ -8852,21 +9167,24 @@
         <v>146.9033333333333</v>
       </c>
       <c r="T105">
+        <v>147.1</v>
+      </c>
+      <c r="U105">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>0.0001363620867942394</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>0.0003177701613816808</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.0006800408024481008</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>147.1</v>
@@ -8923,21 +9241,24 @@
         <v>146.94</v>
       </c>
       <c r="T106">
+        <v>147.1</v>
+      </c>
+      <c r="U106">
         <v>0.09062500000001705</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>0.0001249815368185025</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>0.0002495972408160796</v>
       </c>
-      <c r="W106">
+      <c r="X106">
         <v>-0.0003397893306150701</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>147</v>
@@ -8994,21 +9315,24 @@
         <v>146.9633333333333</v>
       </c>
       <c r="T107">
+        <v>147.0833333333333</v>
+      </c>
+      <c r="U107">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>7.952376624542623E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>0.000158794973004639</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>-0.0006798096532970588</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>146.9</v>
@@ -9065,21 +9389,24 @@
         <v>146.98</v>
       </c>
       <c r="T108">
+        <v>147</v>
+      </c>
+      <c r="U108">
         <v>0.06562499999998295</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>6.815780804503291E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>0.00011340697226081</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.0006802721088434716</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>146.8</v>
@@ -9136,21 +9463,24 @@
         <v>146.9833333333333</v>
       </c>
       <c r="T109">
+        <v>146.9</v>
+      </c>
+      <c r="U109">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>5.679430239546868E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>2.267882251549835E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.000680735194009463</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>146.7</v>
@@ -9207,21 +9537,24 @@
         <v>146.96</v>
       </c>
       <c r="T110">
+        <v>146.8</v>
+      </c>
+      <c r="U110">
         <v>0.009375000000034106</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>5.679107698575159E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-0.0001587481573873673</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>-0.0006811989100818927</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>146.55</v>
@@ -9278,21 +9611,24 @@
         <v>146.9233333333333</v>
       </c>
       <c r="T111">
+        <v>146.6833333333333</v>
+      </c>
+      <c r="U111">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>3.407271116584454E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-0.0002495009980041374</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>-0.001022494887525371</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>146.5</v>
@@ -9349,21 +9685,24 @@
         <v>146.89</v>
       </c>
       <c r="T112">
+        <v>146.5833333333333</v>
+      </c>
+      <c r="U112">
         <v>-0.05937499999998863</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>1.135718341860326E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-0.0002268756948068384</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>-0.0003411804844763999</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>146.5</v>
@@ -9420,21 +9759,24 @@
         <v>146.8666666666667</v>
       </c>
       <c r="T113">
+        <v>146.5166666666667</v>
+      </c>
+      <c r="U113">
         <v>-0.1093749999999716</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>2.271410886867109E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-0.0001588490253475738</v>
       </c>
-      <c r="W113">
+      <c r="X113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>146.45</v>
@@ -9491,21 +9833,24 @@
         <v>146.84</v>
       </c>
       <c r="T114">
+        <v>146.4833333333333</v>
+      </c>
+      <c r="U114">
         <v>-0.1656249999999773</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>0</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>-0.0001815705855651162</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0003412969283277389</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>146.6</v>
@@ -9562,21 +9907,24 @@
         <v>146.82</v>
       </c>
       <c r="T115">
+        <v>146.5166666666667</v>
+      </c>
+      <c r="U115">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>1.135679647501497E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-0.0001362026695723717</v>
       </c>
-      <c r="W115">
+      <c r="X115">
         <v>0.001024240355069983</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>146.65</v>
@@ -9633,21 +9981,24 @@
         <v>146.8066666666667</v>
       </c>
       <c r="T116">
+        <v>146.5666666666667</v>
+      </c>
+      <c r="U116">
         <v>-0.2156249999999886</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>4.542666999762801E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>-9.081414884426486E-05</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>0.000341064120054746</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>146.8</v>
@@ -9704,21 +10055,24 @@
         <v>146.79</v>
       </c>
       <c r="T117">
+        <v>146.6833333333333</v>
+      </c>
+      <c r="U117">
         <v>-0.2125000000000057</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>0.000102205364646224</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>-0.0001135279960039481</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>0.001022843504943749</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>146.8</v>
@@ -9775,21 +10129,24 @@
         <v>146.77</v>
       </c>
       <c r="T118">
+        <v>146.75</v>
+      </c>
+      <c r="U118">
         <v>-0.1843749999999602</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>9.08399286905226E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>-0.0001362490632875746</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>146.9</v>
@@ -9846,21 +10203,24 @@
         <v>146.76</v>
       </c>
       <c r="T119">
+        <v>146.8333333333333</v>
+      </c>
+      <c r="U119">
         <v>-0.1281249999999829</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>0.0001135395969344977</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-6.813381481218794E-05</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.0006811989100816707</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>146.75</v>
@@ -9917,21 +10277,24 @@
         <v>146.7333333333333</v>
       </c>
       <c r="T120">
+        <v>146.8166666666667</v>
+      </c>
+      <c r="U120">
         <v>-0.078125</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>6.811602429457331E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-0.0001817025529210481</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.001021102791014306</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>146.5</v>
@@ -9988,21 +10351,24 @@
         <v>146.6933333333333</v>
       </c>
       <c r="T121">
+        <v>146.7166666666667</v>
+      </c>
+      <c r="U121">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-1.135189746970244E-05</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-0.0002726033621081037</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.001703577512776833</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>146.5</v>
@@ -10059,21 +10425,24 @@
         <v>146.66</v>
       </c>
       <c r="T122">
+        <v>146.5833333333333</v>
+      </c>
+      <c r="U122">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-3.405607901008079E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-0.0002272314124704966</v>
       </c>
-      <c r="W122">
+      <c r="X122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>146.45</v>
@@ -10130,21 +10499,24 @@
         <v>146.63</v>
       </c>
       <c r="T123">
+        <v>146.4833333333333</v>
+      </c>
+      <c r="U123">
         <v>0.02187499999996589</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-4.540965182164847E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-0.0002045547524885949</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>-0.0003412969283277389</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>146.5</v>
@@ -10201,21 +10573,24 @@
         <v>146.61</v>
       </c>
       <c r="T124">
+        <v>146.4833333333333</v>
+      </c>
+      <c r="U124">
         <v>0.02812499999996021</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-5.676464243942192E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-0.0001363977357976554</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0.0003414134516901424</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>146.55</v>
@@ -10272,21 +10647,24 @@
         <v>146.6</v>
       </c>
       <c r="T125">
+        <v>146.5</v>
+      </c>
+      <c r="U125">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-0.0001135357296940809</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-6.820817133901258E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0.0003412969283276279</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>146.55</v>
@@ -10343,21 +10721,24 @@
         <v>146.6</v>
       </c>
       <c r="T126">
+        <v>146.5333333333333</v>
+      </c>
+      <c r="U126">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-0.0001249034836715568</v>
-      </c>
-      <c r="V126">
-        <v>0</v>
       </c>
       <c r="W126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="X126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>146.6</v>
@@ -10414,21 +10795,24 @@
         <v>146.6066666666667</v>
       </c>
       <c r="T127">
+        <v>146.5666666666667</v>
+      </c>
+      <c r="U127">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-9.085024472776926E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>4.547521600728466E-05</v>
       </c>
-      <c r="W127">
+      <c r="X127">
         <v>0.0003411804844761779</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>146.6</v>
@@ -10485,21 +10869,24 @@
         <v>146.6133333333333</v>
       </c>
       <c r="T128">
+        <v>146.5833333333333</v>
+      </c>
+      <c r="U128">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-5.678656202834365E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>4.547314810610104E-05</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>146.65</v>
@@ -10556,21 +10943,24 @@
         <v>146.6266666666667</v>
       </c>
       <c r="T129">
+        <v>146.6166666666667</v>
+      </c>
+      <c r="U129">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-4.54318295393108E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>9.094216078575634E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>0.000341064120054746</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>146.6</v>
@@ -10627,21 +11017,24 @@
         <v>146.6266666666667</v>
       </c>
       <c r="T130">
+        <v>146.6166666666667</v>
+      </c>
+      <c r="U130">
         <v>-0.0625</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-6.815084052735898E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>0</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0003409478349812867</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>146.55</v>
@@ -10698,21 +11091,24 @@
         <v>146.62</v>
       </c>
       <c r="T131">
+        <v>146.6</v>
+      </c>
+      <c r="U131">
         <v>-0.046875</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-6.815548538063876E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-4.546694553053676E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>-0.0003410641200544129</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>146.55</v>
@@ -10769,21 +11165,24 @@
         <v>146.6033333333334</v>
       </c>
       <c r="T132">
+        <v>146.5666666666667</v>
+      </c>
+      <c r="U132">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>-0.000113600218112353</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-0.0001136725321692067</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>146.45</v>
@@ -10840,21 +11239,24 @@
         <v>146.58</v>
       </c>
       <c r="T133">
+        <v>146.5166666666667</v>
+      </c>
+      <c r="U133">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-0.0001476970619646023</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.000159159637116324</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0006823609689526888</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>146.55</v>
@@ -10911,21 +11313,24 @@
         <v>146.5566666666667</v>
       </c>
       <c r="T134">
+        <v>146.5166666666667</v>
+      </c>
+      <c r="U134">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-0.0001136299073917213</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-0.0001591849729382089</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0006828269033800627</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>146.55</v>
@@ -10982,21 +11387,24 @@
         <v>146.5433333333334</v>
       </c>
       <c r="T135">
+        <v>146.5166666666667</v>
+      </c>
+      <c r="U135">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-0.0001363713847376546</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-9.097732390217494E-05</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>146.55</v>
@@ -11053,21 +11461,24 @@
         <v>146.5466666666667</v>
       </c>
       <c r="T136">
+        <v>146.55</v>
+      </c>
+      <c r="U136">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-0.0001250241523933493</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>2.274640038213427E-05</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>146.55</v>
@@ -11124,21 +11535,24 @@
         <v>146.55</v>
       </c>
       <c r="T137">
+        <v>146.55</v>
+      </c>
+      <c r="U137">
         <v>-0.003124999999982947</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-0.0001023052789522749</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>2.274588299511215E-05</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>146.55</v>
@@ -11195,21 +11609,24 @@
         <v>146.5566666666667</v>
       </c>
       <c r="T138">
+        <v>146.55</v>
+      </c>
+      <c r="U138">
         <v>-0.01250000000001705</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-7.957891386145555E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>4.549073126347558E-05</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>146.55</v>
@@ -11266,21 +11683,24 @@
         <v>146.56</v>
       </c>
       <c r="T139">
+        <v>146.55</v>
+      </c>
+      <c r="U139">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-5.684660512073059E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>2.274433097548823E-05</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>146.6</v>
@@ -11337,21 +11757,24 @@
         <v>146.5633333333334</v>
       </c>
       <c r="T140">
+        <v>146.5666666666667</v>
+      </c>
+      <c r="U140">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-2.273993473655977E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>2.274381368283507E-05</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>0.0003411804844761779</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>146.65</v>
@@ -11408,21 +11831,24 @@
         <v>146.57</v>
       </c>
       <c r="T141">
+        <v>146.6</v>
+      </c>
+      <c r="U141">
         <v>-2.842170943040401E-14</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>2.274045185290952E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>4.548659282677114E-05</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>0.000341064120054746</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>146.65</v>
@@ -11479,21 +11905,24 @@
         <v>146.5733333333334</v>
       </c>
       <c r="T142">
+        <v>146.6333333333334</v>
+      </c>
+      <c r="U142">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>3.410990210461762E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>2.274226194542983E-05</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>146.55</v>
@@ -11550,21 +11979,24 @@
         <v>146.57</v>
       </c>
       <c r="T143">
+        <v>146.6166666666667</v>
+      </c>
+      <c r="U143">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>1.136957955294449E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-2.274174474659052E-05</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>-0.0006818956699624623</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>146.5</v>
@@ -11621,21 +12053,24 @@
         <v>146.56</v>
       </c>
       <c r="T144">
+        <v>146.5666666666667</v>
+      </c>
+      <c r="U144">
         <v>0.009374999999977263</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>1.136945028701319E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>-6.822678583628949E-05</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>-0.0003411804844763999</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>146.5</v>
@@ -11692,21 +12127,24 @@
         <v>146.5533333333333</v>
       </c>
       <c r="T145">
+        <v>146.5166666666667</v>
+      </c>
+      <c r="U145">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-2.273864204827003E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>-4.548762736533707E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>146.55</v>
@@ -11763,21 +12201,24 @@
         <v>146.5533333333333</v>
       </c>
       <c r="T146">
+        <v>146.5166666666667</v>
+      </c>
+      <c r="U146">
         <v>0.015625</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-2.273915910588897E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>0</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.0003412969283276279</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>146.55</v>
@@ -11834,21 +12275,24 @@
         <v>146.5533333333333</v>
       </c>
       <c r="T147">
+        <v>146.5333333333333</v>
+      </c>
+      <c r="U147">
         <v>0.01562500000002842</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-5.684919046744508E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>146.6</v>
@@ -11905,21 +12349,24 @@
         <v>146.5633333333334</v>
       </c>
       <c r="T148">
+        <v>146.5666666666667</v>
+      </c>
+      <c r="U148">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-4.548193798548095E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>6.823454487592251E-05</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>0.0003411804844761779</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>146.5</v>
@@ -11976,21 +12423,24 @@
         <v>146.56</v>
       </c>
       <c r="T149">
+        <v>146.55</v>
+      </c>
+      <c r="U149">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-9.096801337216132E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>-2.274329641360762E-05</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>-0.0006821282401090478</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>146.55</v>
@@ -12047,21 +12497,24 @@
         <v>146.56</v>
       </c>
       <c r="T150">
+        <v>146.55</v>
+      </c>
+      <c r="U150">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-4.548814465221707E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>0</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0.0003412969283276279</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>146.6</v>
@@ -12118,21 +12571,24 @@
         <v>146.5633333333333</v>
       </c>
       <c r="T151">
+        <v>146.55</v>
+      </c>
+      <c r="U151">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>2.274510695876586E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>2.274381368261302E-05</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>0.0003411804844761779</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>146.55</v>
@@ -12189,21 +12645,24 @@
         <v>146.5633333333334</v>
       </c>
       <c r="T152">
+        <v>146.5666666666667</v>
+      </c>
+      <c r="U152">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>1.137229481562585E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W152">
+      <c r="X152">
         <v>-0.0003410641200544129</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>146.55</v>
@@ -12260,21 +12719,24 @@
         <v>146.5633333333334</v>
       </c>
       <c r="T153">
+        <v>146.5666666666667</v>
+      </c>
+      <c r="U153">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>2.274433097526618E-05</v>
-      </c>
-      <c r="V153">
-        <v>0</v>
       </c>
       <c r="W153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="X153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>146.5</v>
@@ -12331,21 +12793,24 @@
         <v>146.56</v>
       </c>
       <c r="T154">
+        <v>146.5333333333333</v>
+      </c>
+      <c r="U154">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>0</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>-2.274329641360762E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>-0.0003411804844763999</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>146.4</v>
@@ -12402,21 +12867,24 @@
         <v>146.5466666666667</v>
       </c>
       <c r="T155">
+        <v>146.4833333333333</v>
+      </c>
+      <c r="U155">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>-3.411572052403056E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>-9.097525473078516E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.0006825938566552558</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>146.45</v>
@@ -12473,21 +12941,24 @@
         <v>146.5333333333333</v>
       </c>
       <c r="T156">
+        <v>146.45</v>
+      </c>
+      <c r="U156">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>-2.274458963069659E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>-9.098353198067066E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>0.0003415300546447675</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>146.45</v>
@@ -12544,21 +13015,24 @@
         <v>146.52</v>
       </c>
       <c r="T157">
+        <v>146.4333333333333</v>
+      </c>
+      <c r="U157">
         <v>-0.02187499999999432</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>-3.411766043848186E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-9.099181073690676E-05</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>146.4</v>
@@ -12615,21 +13089,24 @@
         <v>146.51</v>
       </c>
       <c r="T158">
+        <v>146.4333333333333</v>
+      </c>
+      <c r="U158">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>-4.549176599011329E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-6.825006824995317E-05</v>
       </c>
-      <c r="W158">
+      <c r="X158">
         <v>-0.0003414134516899203</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>146.4</v>
@@ -12686,21 +13163,24 @@
         <v>146.5033333333334</v>
       </c>
       <c r="T159">
+        <v>146.4166666666667</v>
+      </c>
+      <c r="U159">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>-5.686729448173278E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>-4.55031510931958E-05</v>
       </c>
-      <c r="W159">
+      <c r="X159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>146.2</v>
@@ -12757,21 +13237,24 @@
         <v>146.4833333333333</v>
       </c>
       <c r="T160">
+        <v>146.3333333333333</v>
+      </c>
+      <c r="U160">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>-9.099284568747645E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-0.0001365156651728094</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>-0.001366120218579403</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>146.3</v>
@@ -12828,21 +13311,24 @@
         <v>146.4666666666667</v>
       </c>
       <c r="T161">
+        <v>146.3</v>
+      </c>
+      <c r="U161">
         <v>-0.08437499999999432</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>-5.687570383683394E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-0.0001137785868698948</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0.0006839945280439075</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>146.25</v>
@@ -12899,21 +13385,24 @@
         <v>146.4466666666667</v>
       </c>
       <c r="T162">
+        <v>146.25</v>
+      </c>
+      <c r="U162">
         <v>-0.09687499999998295</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>-6.825472663996024E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-0.0001365498406917798</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>-0.0003417634996583097</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>146.15</v>
@@ -12970,21 +13459,24 @@
         <v>146.4166666666667</v>
       </c>
       <c r="T163">
+        <v>146.2333333333333</v>
+      </c>
+      <c r="U163">
         <v>-0.1031250000000341</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>-6.825938566568102E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>-0.0002048527336461214</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0006837606837606369</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>146.1</v>
@@ -13041,21 +13533,24 @@
         <v>146.39</v>
       </c>
       <c r="T164">
+        <v>146.1666666666667</v>
+      </c>
+      <c r="U164">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>-0.0001023960679908953</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>-0.0001821286283437695</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>-0.0003421142661649279</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>146.15</v>
@@ -13112,21 +13607,24 @@
         <v>146.3633333333333</v>
       </c>
       <c r="T165">
+        <v>146.1333333333333</v>
+      </c>
+      <c r="U165">
         <v>-0.1312499999999943</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>-9.102804801741637E-05</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-0.0001821618052233465</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>0.0003422313483916195</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>146.1</v>
@@ -13183,21 +13681,24 @@
         <v>146.33</v>
       </c>
       <c r="T166">
+        <v>146.1166666666667</v>
+      </c>
+      <c r="U166">
         <v>-0.140625</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>-0.0001024158767365391</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>-0.0002277437427407047</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>-0.0003421142661649279</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>146.1</v>
@@ -13254,21 +13755,24 @@
         <v>146.3</v>
       </c>
       <c r="T167">
+        <v>146.1166666666666</v>
+      </c>
+      <c r="U167">
         <v>-0.1468750000000227</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-0.0001024263668228942</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>-0.0002050160595913342</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>146.15</v>
@@ -13325,21 +13829,24 @@
         <v>146.2733333333333</v>
       </c>
       <c r="T168">
+        <v>146.1166666666667</v>
+      </c>
+      <c r="U168">
         <v>-0.1281250000000114</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>-9.105498582973048E-05</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-0.0001822738664843948</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.0003422313483916195</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>146.2</v>
@@ -13396,21 +13903,24 @@
         <v>146.2533333333334</v>
       </c>
       <c r="T169">
+        <v>146.15</v>
+      </c>
+      <c r="U169">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>-7.968036789574029E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>-0.0001367303222277183</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0.0003421142661648169</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>146.1</v>
@@ -13467,21 +13977,24 @@
         <v>146.2333333333333</v>
       </c>
       <c r="T170">
+        <v>146.15</v>
+      </c>
+      <c r="U170">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>-0.0001138381676607514</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-0.0001367490199656318</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.0006839945280436854</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>146.2</v>
@@ -13538,21 +14051,24 @@
         <v>146.2166666666667</v>
       </c>
       <c r="T171">
+        <v>146.1666666666667</v>
+      </c>
+      <c r="U171">
         <v>-0.09375000000002842</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>-0.000102466015438285</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>-0.0001139731023477308</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0.000684462696783017</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>146.15</v>
@@ -13609,21 +14125,24 @@
         <v>146.1966666666667</v>
       </c>
       <c r="T172">
+        <v>146.15</v>
+      </c>
+      <c r="U172">
         <v>-0.06874999999999432</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>-0.000113862795331765</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>-0.0001367833124357176</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>-0.0003419972640217317</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>146.2</v>
@@ -13680,21 +14199,24 @@
         <v>146.1833333333333</v>
       </c>
       <c r="T173">
+        <v>146.1833333333333</v>
+      </c>
+      <c r="U173">
         <v>-0.04687500000002842</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>-7.971303308085265E-05</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>-9.12013497801345E-05</v>
       </c>
-      <c r="W173">
+      <c r="X173">
         <v>0.0003421142661648169</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>146.05</v>
@@ -13751,21 +14273,24 @@
         <v>146.16</v>
       </c>
       <c r="T174">
+        <v>146.1333333333333</v>
+      </c>
+      <c r="U174">
         <v>-0.03125</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>-0.0001024963556852665</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>-0.0001596169193934793</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>-0.001025991792065528</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>146.1</v>
@@ -13822,21 +14347,24 @@
         <v>146.1533333333333</v>
       </c>
       <c r="T175">
+        <v>146.1166666666667</v>
+      </c>
+      <c r="U175">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>-9.11172109020475E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>-4.561211457754233E-05</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>0.000342348510783852</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>146.1</v>
@@ -13893,21 +14421,24 @@
         <v>146.14</v>
       </c>
       <c r="T176">
+        <v>146.0833333333333</v>
+      </c>
+      <c r="U176">
         <v>-0.01250000000001705</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>-0.0001025162032555205</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>-9.12283902751998E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>146.1</v>
@@ -13964,21 +14495,24 @@
         <v>146.13</v>
       </c>
       <c r="T177">
+        <v>146.1</v>
+      </c>
+      <c r="U177">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>-0.0001025267139047603</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>-6.842753524016754E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>146.1</v>
@@ -14035,21 +14569,24 @@
         <v>146.1266666666667</v>
       </c>
       <c r="T178">
+        <v>146.1</v>
+      </c>
+      <c r="U178">
         <v>-0.003124999999982947</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>-0.0001139302518996521</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>-2.281073929599753E-05</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>146.1</v>
@@ -14106,21 +14643,24 @@
         <v>146.1266666666666</v>
       </c>
       <c r="T179">
+        <v>146.1</v>
+      </c>
+      <c r="U179">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>-9.115458678499166E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>146.1</v>
@@ -14177,21 +14717,24 @@
         <v>146.1233333333333</v>
       </c>
       <c r="T180">
+        <v>146.1</v>
+      </c>
+      <c r="U180">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>-0.0001025582587885765</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>-2.281125963754516E-05</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>146.15</v>
@@ -14248,21 +14791,24 @@
         <v>146.1266666666666</v>
       </c>
       <c r="T181">
+        <v>146.1166666666666</v>
+      </c>
+      <c r="U181">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>-0.0001025687780640272</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>2.281178000296258E-05</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>0.0003422313483916195</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>146.2</v>
@@ -14319,21 +14865,24 @@
         <v>146.1333333333333</v>
       </c>
       <c r="T182">
+        <v>146.15</v>
+      </c>
+      <c r="U182">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>-7.978389960916488E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>4.562251927575645E-05</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>0.0003421142661648169</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>146.25</v>
@@ -14390,21 +14939,24 @@
         <v>146.14</v>
       </c>
       <c r="T183">
+        <v>146.2</v>
+      </c>
+      <c r="U183">
         <v>-0.003125000000011369</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>-6.839165621785881E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>4.56204379561953E-05</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0.0003419972640219537</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>146.2</v>
@@ -14461,21 +15013,24 @@
         <v>146.14</v>
       </c>
       <c r="T184">
+        <v>146.2166666666667</v>
+      </c>
+      <c r="U184">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>-6.839633395627764E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>0</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0003418803418804295</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>146.15</v>
@@ -14532,21 +15087,24 @@
         <v>146.1433333333333</v>
       </c>
       <c r="T185">
+        <v>146.2</v>
+      </c>
+      <c r="U185">
         <v>0.015625</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>-5.700084361259794E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>2.280917841357422E-05</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>-0.0003419972640217317</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>146.1</v>
@@ -14603,21 +15161,24 @@
         <v>146.1366666666667</v>
       </c>
       <c r="T186">
+        <v>146.15</v>
+      </c>
+      <c r="U186">
         <v>0.015625</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>-7.980573005139657E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>-4.561731633323518E-05</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>-0.0003421142661649279</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>146.1</v>
@@ -14674,21 +15235,24 @@
         <v>146.1333333333333</v>
       </c>
       <c r="T187">
+        <v>146.1166666666667</v>
+      </c>
+      <c r="U187">
         <v>0.02187500000002274</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>-7.981209951435364E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>-2.280969868406757E-05</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>146.1</v>
@@ -14745,21 +15309,24 @@
         <v>146.1266666666667</v>
       </c>
       <c r="T188">
+        <v>146.1</v>
+      </c>
+      <c r="U188">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>-6.841583142336294E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>-4.56204379561953E-05</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>146.15</v>
@@ -14816,21 +15383,24 @@
         <v>146.1333333333333</v>
       </c>
       <c r="T189">
+        <v>146.1166666666667</v>
+      </c>
+      <c r="U189">
         <v>0.02812500000001705</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>-5.701709372485375E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>4.56225192755344E-05</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.0003422313483916195</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>146.05</v>
@@ -14887,21 +15457,24 @@
         <v>146.13</v>
       </c>
       <c r="T190">
+        <v>146.1</v>
+      </c>
+      <c r="U190">
         <v>0.009375000000005684</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>-3.421220691524063E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>-2.281021897787561E-05</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>-0.0006842285323297448</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>146.05</v>
@@ -14958,21 +15531,24 @@
         <v>146.1266666666667</v>
       </c>
       <c r="T191">
+        <v>146.0833333333333</v>
+      </c>
+      <c r="U191">
         <v>-0.01250000000001705</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>-5.702229571780126E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-2.281073929621957E-05</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>146</v>
@@ -15029,21 +15605,24 @@
         <v>146.12</v>
       </c>
       <c r="T192">
+        <v>146.0333333333333</v>
+      </c>
+      <c r="U192">
         <v>-0.03125</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>-5.702554744524413E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-4.562251927542338E-05</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>-0.000342348510784074</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>145.9</v>
@@ -15100,21 +15679,24 @@
         <v>146.1066666666667</v>
       </c>
       <c r="T193">
+        <v>145.9833333333333</v>
+      </c>
+      <c r="U193">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>-5.702879954372353E-05</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-9.124920156955429E-05</v>
       </c>
-      <c r="W193">
+      <c r="X193">
         <v>-0.000684931506849229</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>145.85</v>
@@ -15171,21 +15753,24 @@
         <v>146.09</v>
       </c>
       <c r="T194">
+        <v>145.9166666666667</v>
+      </c>
+      <c r="U194">
         <v>-0.06562500000001137</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>-5.703205201335049E-05</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-0.0001140719109326005</v>
       </c>
-      <c r="W194">
+      <c r="X194">
         <v>-0.0003427004797807998</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>145.9</v>
@@ -15242,21 +15827,24 @@
         <v>146.0766666666667</v>
       </c>
       <c r="T195">
+        <v>145.8833333333333</v>
+      </c>
+      <c r="U195">
         <v>-0.078125</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>-5.703530485368091E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-9.126793985436699E-05</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>0.0003428179636613127</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>146</v>
@@ -15313,21 +15901,24 @@
         <v>146.0666666666667</v>
       </c>
       <c r="T196">
+        <v>145.9166666666667</v>
+      </c>
+      <c r="U196">
         <v>-0.08437499999996589</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>-2.281542322613017E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-6.845720283887857E-05</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>0.0006854009595613775</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>145.9</v>
@@ -15384,21 +15975,24 @@
         <v>146.0466666666667</v>
       </c>
       <c r="T197">
+        <v>145.9333333333333</v>
+      </c>
+      <c r="U197">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>-4.563188756301351E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-0.000136923779096354</v>
       </c>
-      <c r="W197">
+      <c r="X197">
         <v>-0.000684931506849229</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>145.85</v>
@@ -15455,21 +16049,24 @@
         <v>146.02</v>
       </c>
       <c r="T198">
+        <v>145.9166666666667</v>
+      </c>
+      <c r="U198">
         <v>-0.1031250000000057</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>-6.845095489094177E-05</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-0.0001825900397132152</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>-0.0003427004797807998</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>145.95</v>
@@ -15526,21 +16123,24 @@
         <v>146.0033333333334</v>
       </c>
       <c r="T199">
+        <v>145.9</v>
+      </c>
+      <c r="U199">
         <v>-0.09687500000001137</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>-5.704636728731671E-05</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-0.000114139615577713</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0.0006856359273226253</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>146</v>
@@ -15597,21 +16197,24 @@
         <v>145.9933333333333</v>
       </c>
       <c r="T200">
+        <v>145.9333333333333</v>
+      </c>
+      <c r="U200">
         <v>-0.08437500000002274</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>-2.281984870455833E-05</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-6.849158695021451E-05</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>0.0003425830763961191</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>146.2</v>
@@ -15668,21 +16271,24 @@
         <v>146</v>
       </c>
       <c r="T201">
+        <v>146.05</v>
+      </c>
+      <c r="U201">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>4.566418557927499E-05</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>0.001369863013698458</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>146.25</v>
@@ -15739,21 +16345,24 @@
         <v>146.01</v>
       </c>
       <c r="T202">
+        <v>146.15</v>
+      </c>
+      <c r="U202">
         <v>-0.009375000000005684</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>2.282036946188448E-05</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>6.849315068513384E-05</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>0.0003419972640219537</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>146.2</v>
@@ -15810,21 +16419,24 @@
         <v>146.0166666666667</v>
       </c>
       <c r="T203">
+        <v>146.2166666666667</v>
+      </c>
+      <c r="U203">
         <v>0.02187499999996589</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>0</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>4.565897312969192E-05</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>-0.0003418803418804295</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>146.3</v>
@@ -15881,21 +16493,24 @@
         <v>146.0266666666667</v>
       </c>
       <c r="T204">
+        <v>146.25</v>
+      </c>
+      <c r="U204">
         <v>0.04687500000002842</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>5.704962176089623E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>6.84853327244106E-05</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0006839945280439075</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>146.2</v>
@@ -15952,21 +16567,24 @@
         <v>146.0366666666667</v>
       </c>
       <c r="T205">
+        <v>146.2333333333333</v>
+      </c>
+      <c r="U205">
         <v>0.08124999999998295</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>2.281854691488228E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>6.848064280506883E-05</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>-0.0006835269993166193</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>146.15</v>
@@ -16023,21 +16641,24 @@
         <v>146.0433333333334</v>
       </c>
       <c r="T206">
+        <v>146.2166666666667</v>
+      </c>
+      <c r="U206">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>1.140901312024489E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>4.565063568495731E-05</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>-0.0003419972640217317</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>146.2</v>
@@ -16094,21 +16715,24 @@
         <v>146.0566666666667</v>
       </c>
       <c r="T207">
+        <v>146.1833333333333</v>
+      </c>
+      <c r="U207">
         <v>0.1343750000000057</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>2.281776591228635E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>9.129710359934151E-05</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>0.0003421142661648169</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>146.15</v>
@@ -16165,21 +16789,24 @@
         <v>146.0733333333333</v>
       </c>
       <c r="T208">
+        <v>146.1666666666667</v>
+      </c>
+      <c r="U208">
         <v>0.1437499999999829</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>1.140862263726561E-05</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>0.0001141109614988256</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.0003419972640217317</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>146.05</v>
@@ -16236,21 +16863,24 @@
         <v>146.0866666666667</v>
       </c>
       <c r="T209">
+        <v>146.1333333333334</v>
+      </c>
+      <c r="U209">
         <v>0.1156249999999943</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-1.140849248182363E-05</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>9.127835333866408E-05</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>-0.0006842285323297448</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>146.1</v>
@@ -16307,21 +16937,24 @@
         <v>146.1</v>
       </c>
       <c r="T210">
+        <v>146.1</v>
+      </c>
+      <c r="U210">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>9.127002236097859E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0.000342348510783852</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>146.05</v>
@@ -16378,21 +17011,24 @@
         <v>146.1033333333334</v>
       </c>
       <c r="T211">
+        <v>146.0666666666667</v>
+      </c>
+      <c r="U211">
         <v>0.05312499999999432</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>-2.281724527375406E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>2.281542322624119E-05</v>
       </c>
-      <c r="W211">
+      <c r="X211">
         <v>-0.0003422313483913975</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>146.1</v>
@@ -16449,21 +17085,24 @@
         <v>146.1166666666667</v>
       </c>
       <c r="T212">
+        <v>146.0833333333333</v>
+      </c>
+      <c r="U212">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>-2.281776591250839E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>9.125961077760536E-05</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>0.000342348510783852</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>146.05</v>
@@ -16520,21 +17159,24 @@
         <v>146.13</v>
       </c>
       <c r="T213">
+        <v>146.0666666666667</v>
+      </c>
+      <c r="U213">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>-4.563657314982095E-05</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>9.125128322118314E-05</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>-0.0003422313483913975</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>146.05</v>
@@ -16591,21 +17233,24 @@
         <v>146.1366666666667</v>
       </c>
       <c r="T214">
+        <v>146.0666666666667</v>
+      </c>
+      <c r="U214">
         <v>-0.03125</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>-3.422899195615337E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>4.56214785922171E-05</v>
       </c>
-      <c r="W214">
+      <c r="X214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>145.8</v>
@@ -16662,21 +17307,24 @@
         <v>146.1233333333333</v>
       </c>
       <c r="T215">
+        <v>145.9666666666667</v>
+      </c>
+      <c r="U215">
         <v>-0.07187499999997726</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>-7.987038178036698E-05</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>-9.123879473560415E-05</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>-0.001711742553919926</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>145.6</v>
@@ -16733,21 +17381,24 @@
         <v>146.0833333333333</v>
       </c>
       <c r="T216">
+        <v>145.8166666666667</v>
+      </c>
+      <c r="U216">
         <v>-0.1156249999999943</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>-0.000114109659382744</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>-0.0002737413600382155</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>-0.001371742112482921</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>145.75</v>
@@ -16804,21 +17455,24 @@
         <v>146.05</v>
       </c>
       <c r="T217">
+        <v>145.7166666666667</v>
+      </c>
+      <c r="U217">
         <v>-0.125</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>-7.988587731788677E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>-0.0002281802624073404</v>
       </c>
-      <c r="W217">
+      <c r="X217">
         <v>0.001030219780219888</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>145.8</v>
@@ -16875,21 +17529,24 @@
         <v>146.0233333333333</v>
       </c>
       <c r="T218">
+        <v>145.7166666666667</v>
+      </c>
+      <c r="U218">
         <v>-0.1343750000000057</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>-6.847907964147026E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>-0.0001825858724181506</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>0.0003430531732420139</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>145.85</v>
@@ -16946,21 +17603,24 @@
         <v>145.9933333333333</v>
       </c>
       <c r="T219">
+        <v>145.8</v>
+      </c>
+      <c r="U219">
         <v>-0.1374999999999886</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>-6.848376934642797E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>-0.0002054466181203862</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0.0003429355281205915</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>145.85</v>
@@ -17017,21 +17677,24 @@
         <v>145.97</v>
       </c>
       <c r="T220">
+        <v>145.8333333333333</v>
+      </c>
+      <c r="U220">
         <v>-0.140625</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>-4.565897312969192E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>-0.0001598246495274624</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>145.85</v>
@@ -17088,21 +17751,24 @@
         <v>145.95</v>
       </c>
       <c r="T221">
+        <v>145.85</v>
+      </c>
+      <c r="U221">
         <v>-0.1437499999999545</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>-4.566105796710573E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>-0.0001370144550251196</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>145.85</v>
@@ -17159,21 +17825,24 @@
         <v>145.9266666666667</v>
       </c>
       <c r="T222">
+        <v>145.85</v>
+      </c>
+      <c r="U222">
         <v>-0.1500000000000341</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>-3.424735724533168E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>-0.0001598721023180483</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>145.8</v>
@@ -17230,21 +17899,24 @@
         <v>145.9033333333333</v>
       </c>
       <c r="T223">
+        <v>145.8333333333333</v>
+      </c>
+      <c r="U223">
         <v>-0.1249999999999716</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>-2.283235344480161E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>-0.0001598976654941797</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>-0.0003428179636612017</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>145.75</v>
@@ -17301,21 +17973,24 @@
         <v>145.8833333333333</v>
       </c>
       <c r="T224">
+        <v>145.8</v>
+      </c>
+      <c r="U224">
         <v>-0.08124999999998295</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>-2.283287477311546E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>-0.0001370770601540894</v>
       </c>
-      <c r="W224">
+      <c r="X224">
         <v>-0.0003429355281208135</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>145.85</v>
@@ -17372,21 +18047,24 @@
         <v>145.8666666666667</v>
       </c>
       <c r="T225">
+        <v>145.8</v>
+      </c>
+      <c r="U225">
         <v>-0.05625000000003411</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>-1.141669806281609E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>-0.0001142465440419071</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.0006861063464835837</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>145.9</v>
@@ -17443,21 +18121,24 @@
         <v>145.8566666666667</v>
       </c>
       <c r="T226">
+        <v>145.8333333333333</v>
+      </c>
+      <c r="U226">
         <v>-0.03125</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>-2.283365680988414E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>-6.855575868380814E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0.0003428179636613127</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>145.9</v>
@@ -17514,21 +18195,24 @@
         <v>145.8433333333333</v>
       </c>
       <c r="T227">
+        <v>145.8833333333334</v>
+      </c>
+      <c r="U227">
         <v>-0.015625</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>-9.141394519729396E-05</v>
       </c>
-      <c r="W227">
+      <c r="X227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>145.9</v>
@@ -17585,21 +18269,24 @@
         <v>145.8333333333333</v>
       </c>
       <c r="T228">
+        <v>145.9</v>
+      </c>
+      <c r="U228">
         <v>0.003124999999982947</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>1.141708909901951E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>-6.856672685295884E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>145.85</v>
@@ -17656,21 +18343,24 @@
         <v>145.82</v>
       </c>
       <c r="T229">
+        <v>145.8833333333334</v>
+      </c>
+      <c r="U229">
         <v>0.015625</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>-2.283391750079744E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>-9.142857142852012E-05</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>-0.0003427004797807998</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>145.8</v>
@@ -17727,21 +18417,24 @@
         <v>145.82</v>
       </c>
       <c r="T230">
+        <v>145.85</v>
+      </c>
+      <c r="U230">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>-4.566887780144135E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>0</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.0003428179636612017</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>146</v>
@@ -17798,21 +18491,24 @@
         <v>145.8466666666667</v>
       </c>
       <c r="T231">
+        <v>145.8833333333333</v>
+      </c>
+      <c r="U231">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>-4.567096354335387E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>0.0001828738627529525</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0.00137174211248281</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>146</v>
@@ -17869,21 +18565,24 @@
         <v>145.8633333333333</v>
       </c>
       <c r="T232">
+        <v>145.9333333333333</v>
+      </c>
+      <c r="U232">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>-5.709131184428173E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>0.0001142752662612878</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>146</v>
@@ -17940,21 +18639,24 @@
         <v>145.8766666666667</v>
       </c>
       <c r="T233">
+        <v>146</v>
+      </c>
+      <c r="U233">
         <v>0.04687499999997158</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>-4.567565715851707E-05</v>
       </c>
-      <c r="V233">
+      <c r="W233">
         <v>9.140976713362114E-05</v>
       </c>
-      <c r="W233">
+      <c r="X233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>145.95</v>
@@ -18011,21 +18713,24 @@
         <v>145.8833333333333</v>
       </c>
       <c r="T234">
+        <v>145.9833333333333</v>
+      </c>
+      <c r="U234">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>-7.993605115896862E-05</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>4.570070607590182E-05</v>
       </c>
-      <c r="W234">
+      <c r="X234">
         <v>-0.000342465753424781</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>145.95</v>
@@ -18082,21 +18787,24 @@
         <v>145.89</v>
       </c>
       <c r="T235">
+        <v>145.9666666666667</v>
+      </c>
+      <c r="U235">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>-5.710174388739997E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>4.569861761671845E-05</v>
       </c>
-      <c r="W235">
+      <c r="X235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>145.95</v>
@@ -18153,21 +18861,24 @@
         <v>145.8966666666666</v>
       </c>
       <c r="T236">
+        <v>145.95</v>
+      </c>
+      <c r="U236">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-4.568400374604931E-05</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>4.569652934849344E-05</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>145.8</v>
@@ -18224,21 +18935,24 @@
         <v>145.8933333333333</v>
       </c>
       <c r="T237">
+        <v>145.9</v>
+      </c>
+      <c r="U237">
         <v>0.04062500000000568</v>
       </c>
-      <c r="U237">
+      <c r="V237">
         <v>-9.137218173915773E-05</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>-2.284722063539135E-05</v>
       </c>
-      <c r="W237">
+      <c r="X237">
         <v>-0.001027749229187913</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>145.85</v>
@@ -18295,21 +19009,24 @@
         <v>145.8966666666666</v>
       </c>
       <c r="T238">
+        <v>145.8666666666667</v>
+      </c>
+      <c r="U238">
         <v>0.046875</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>-6.853539853324264E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>2.284774264271761E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>0.0003429355281205915</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>145.8</v>
@@ -18366,21 +19083,24 @@
         <v>145.9</v>
       </c>
       <c r="T239">
+        <v>145.8166666666667</v>
+      </c>
+      <c r="U239">
         <v>0.02187499999999432</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>-5.711674663011479E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>2.284722063583544E-05</v>
       </c>
-      <c r="W239">
+      <c r="X239">
         <v>-0.0003428179636612017</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>145.8</v>
@@ -18437,21 +19157,24 @@
         <v>145.8966666666666</v>
       </c>
       <c r="T240">
+        <v>145.8166666666667</v>
+      </c>
+      <c r="U240">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>-6.854401096711982E-05</v>
       </c>
-      <c r="V240">
+      <c r="W240">
         <v>-2.284669865226796E-05</v>
       </c>
-      <c r="W240">
+      <c r="X240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:23">
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>145.8</v>
@@ -18508,21 +19231,24 @@
         <v>145.89</v>
       </c>
       <c r="T241">
+        <v>145.8</v>
+      </c>
+      <c r="U241">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U241">
+      <c r="V241">
         <v>-5.712392464207738E-05</v>
       </c>
-      <c r="V241">
+      <c r="W241">
         <v>-4.569444127122679E-05</v>
       </c>
-      <c r="W241">
+      <c r="X241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:23">
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>145.8</v>
@@ -18579,21 +19305,24 @@
         <v>145.8833333333333</v>
       </c>
       <c r="T242">
+        <v>145.8</v>
+      </c>
+      <c r="U242">
         <v>-0.04062500000000568</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>-6.855262556570985E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>-4.569652934860446E-05</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>145.85</v>
@@ -18650,21 +19379,24 @@
         <v>145.88</v>
       </c>
       <c r="T243">
+        <v>145.8166666666667</v>
+      </c>
+      <c r="U243">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>-4.570488356658853E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>-2.284930880835923E-05</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>0.0003429355281205915</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>145.9</v>
@@ -18721,21 +19453,24 @@
         <v>145.8833333333333</v>
       </c>
       <c r="T244">
+        <v>145.85</v>
+      </c>
+      <c r="U244">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>-3.428022944917952E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>2.284983091116466E-05</v>
       </c>
-      <c r="W244">
+      <c r="X244">
         <v>0.0003428179636613127</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>145.9</v>
@@ -18792,21 +19527,24 @@
         <v>145.89</v>
       </c>
       <c r="T245">
+        <v>145.8833333333334</v>
+      </c>
+      <c r="U245">
         <v>-0.046875</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>2.285426974890648E-05</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>4.569861761671845E-05</v>
       </c>
-      <c r="W245">
+      <c r="X245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>145.85</v>
@@ -18863,21 +19601,24 @@
         <v>145.88</v>
       </c>
       <c r="T246">
+        <v>145.8833333333333</v>
+      </c>
+      <c r="U246">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U246">
+      <c r="V246">
         <v>5.71343686079917E-05</v>
       </c>
-      <c r="V246">
+      <c r="W246">
         <v>-6.854479402285119E-05</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>-0.0003427004797807998</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>145.9</v>
@@ -18934,21 +19675,24 @@
         <v>145.8733333333333</v>
       </c>
       <c r="T247">
+        <v>145.8833333333334</v>
+      </c>
+      <c r="U247">
         <v>-0.03124999999997158</v>
       </c>
-      <c r="U247">
+      <c r="V247">
         <v>3.427866267502466E-05</v>
       </c>
-      <c r="V247">
+      <c r="W247">
         <v>-4.569966182244034E-05</v>
       </c>
-      <c r="W247">
+      <c r="X247">
         <v>0.0003428179636613127</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>145.85</v>
@@ -19005,21 +19749,24 @@
         <v>145.8633333333333</v>
       </c>
       <c r="T248">
+        <v>145.8666666666667</v>
+      </c>
+      <c r="U248">
         <v>-0.015625</v>
       </c>
-      <c r="U248">
+      <c r="V248">
         <v>1.142582922963875E-05</v>
       </c>
-      <c r="V248">
+      <c r="W248">
         <v>-6.855262556570985E-05</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>-0.0003427004797807998</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>145.85</v>
@@ -19076,21 +19823,24 @@
         <v>145.8566666666667</v>
       </c>
       <c r="T249">
+        <v>145.8666666666666</v>
+      </c>
+      <c r="U249">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="U249">
+      <c r="V249">
         <v>0</v>
       </c>
-      <c r="V249">
+      <c r="W249">
         <v>-4.570488356681057E-05</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>145.85</v>
@@ -19147,21 +19897,24 @@
         <v>145.85</v>
       </c>
       <c r="T250">
+        <v>145.85</v>
+      </c>
+      <c r="U250">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U250">
+      <c r="V250">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V250">
+      <c r="W250">
         <v>-4.570697259864698E-05</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>145.8</v>
@@ -19218,21 +19971,24 @@
         <v>145.84</v>
       </c>
       <c r="T251">
+        <v>145.8333333333333</v>
+      </c>
+      <c r="U251">
         <v>0.01562500000002842</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>-1.142569868128884E-05</v>
       </c>
-      <c r="V251">
+      <c r="W251">
         <v>-6.856359273221813E-05</v>
       </c>
-      <c r="W251">
+      <c r="X251">
         <v>-0.0003428179636612017</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>145.85</v>
@@ -19289,21 +20045,24 @@
         <v>145.8433333333333</v>
       </c>
       <c r="T252">
+        <v>145.8333333333333</v>
+      </c>
+      <c r="U252">
         <v>0.015625</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>0</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>2.285609800689592E-05</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>0.0003429355281205915</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>145.85</v>
@@ -19360,21 +20119,24 @@
         <v>145.8433333333333</v>
       </c>
       <c r="T253">
+        <v>145.8333333333333</v>
+      </c>
+      <c r="U253">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>1.142582922941671E-05</v>
-      </c>
-      <c r="V253">
-        <v>0</v>
       </c>
       <c r="W253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:23">
+      <c r="X253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>145.85</v>
@@ -19431,21 +20193,24 @@
         <v>145.8466666666667</v>
       </c>
       <c r="T254">
+        <v>145.85</v>
+      </c>
+      <c r="U254">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>2.285139736302177E-05</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>2.285557561765295E-05</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>145.8</v>
@@ -19502,21 +20267,24 @@
         <v>145.8466666666667</v>
       </c>
       <c r="T255">
+        <v>145.8333333333333</v>
+      </c>
+      <c r="U255">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-1.142543759402592E-05</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>0</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>-0.0003428179636612017</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>145.8</v>
@@ -19573,21 +20341,24 @@
         <v>145.8466666666667</v>
       </c>
       <c r="T256">
+        <v>145.8166666666667</v>
+      </c>
+      <c r="U256">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U256">
+      <c r="V256">
         <v>-2.285113627309432E-05</v>
-      </c>
-      <c r="V256">
-        <v>0</v>
       </c>
       <c r="W256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:23">
+      <c r="X256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>145.8</v>
@@ -19644,21 +20415,24 @@
         <v>145.8466666666667</v>
       </c>
       <c r="T257">
+        <v>145.8</v>
+      </c>
+      <c r="U257">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>-2.285165845905546E-05</v>
       </c>
-      <c r="V257">
+      <c r="W257">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W257">
+      <c r="X257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>145.75</v>
@@ -19715,21 +20489,24 @@
         <v>145.84</v>
       </c>
       <c r="T258">
+        <v>145.7833333333333</v>
+      </c>
+      <c r="U258">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>-3.427827100377367E-05</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>-4.571010650467056E-05</v>
       </c>
-      <c r="W258">
+      <c r="X258">
         <v>-0.0003429355281208135</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>145.75</v>
@@ -19786,21 +20563,24 @@
         <v>145.83</v>
       </c>
       <c r="T259">
+        <v>145.7666666666667</v>
+      </c>
+      <c r="U259">
         <v>-0.02812500000001705</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>-2.285296402959602E-05</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>-6.856829402079878E-05</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>145.75</v>
@@ -19857,21 +20637,24 @@
         <v>145.82</v>
       </c>
       <c r="T260">
+        <v>145.75</v>
+      </c>
+      <c r="U260">
         <v>-0.03125</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>-1.14267431496895E-05</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>-6.857299595408595E-05</v>
       </c>
-      <c r="W260">
+      <c r="X260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>145.75</v>
@@ -19928,21 +20711,24 @@
         <v>145.8133333333334</v>
       </c>
       <c r="T261">
+        <v>145.75</v>
+      </c>
+      <c r="U261">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>-5.71343686079917E-05</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>-4.571846568823812E-05</v>
       </c>
-      <c r="W261">
+      <c r="X261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>145.7</v>
@@ -19999,21 +20785,24 @@
         <v>145.8</v>
       </c>
       <c r="T262">
+        <v>145.7333333333333</v>
+      </c>
+      <c r="U262">
         <v>-0.04375000000001705</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>-6.856515975672828E-05</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>-9.144111192405102E-05</v>
       </c>
-      <c r="W262">
+      <c r="X262">
         <v>-0.0003430531732419029</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>145.7</v>
@@ -20070,21 +20859,24 @@
         <v>145.79</v>
       </c>
       <c r="T263">
+        <v>145.7166666666667</v>
+      </c>
+      <c r="U263">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>-6.856986126024811E-05</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>-6.858710562429593E-05</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>145.65</v>
@@ -20141,21 +20933,24 @@
         <v>145.7766666666667</v>
       </c>
       <c r="T264">
+        <v>145.6833333333333</v>
+      </c>
+      <c r="U264">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U264">
+      <c r="V264">
         <v>-6.85745634086965E-05</v>
       </c>
-      <c r="V264">
+      <c r="W264">
         <v>-9.14557468504329E-05</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>-0.0003431708991076254</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>145.6</v>
@@ -20212,21 +21007,24 @@
         <v>145.76</v>
       </c>
       <c r="T265">
+        <v>145.65</v>
+      </c>
+      <c r="U265">
         <v>-0.05937499999998863</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>-8.000914390204894E-05</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>-0.0001143301397112939</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>-0.000343288705801692</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>145.7</v>
@@ -20283,21 +21081,24 @@
         <v>145.7533333333334</v>
       </c>
       <c r="T266">
+        <v>145.65</v>
+      </c>
+      <c r="U266">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U266">
+      <c r="V266">
         <v>-5.715396134098327E-05</v>
       </c>
-      <c r="V266">
+      <c r="W266">
         <v>-4.573728503476371E-05</v>
       </c>
-      <c r="W266">
+      <c r="X266">
         <v>0.0006868131868131844</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>145.7</v>
@@ -20354,21 +21155,24 @@
         <v>145.7433333333333</v>
       </c>
       <c r="T267">
+        <v>145.6666666666667</v>
+      </c>
+      <c r="U267">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>-2.286289124120433E-05</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>-6.860906554462254E-05</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>145.6</v>
@@ -20425,21 +21229,24 @@
         <v>145.7266666666667</v>
       </c>
       <c r="T268">
+        <v>145.6666666666667</v>
+      </c>
+      <c r="U268">
         <v>-0.05937499999998863</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>-5.71585349126158E-05</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>-0.0001143562884523552</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>-0.0006863417982154729</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>145.45</v>
@@ -20496,21 +21303,24 @@
         <v>145.7</v>
       </c>
       <c r="T269">
+        <v>145.5833333333333</v>
+      </c>
+      <c r="U269">
         <v>-0.07187500000000568</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>-8.002652307614877E-05</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>-0.0001829909876939206</v>
       </c>
-      <c r="W269">
+      <c r="X269">
         <v>-0.001030219780219777</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>145.45</v>
@@ -20567,21 +21377,24 @@
         <v>145.6766666666667</v>
       </c>
       <c r="T270">
+        <v>145.5</v>
+      </c>
+      <c r="U270">
         <v>-0.078125</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>-8.003292783309579E-05</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>-0.0001601464195835067</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>145.45</v>
@@ -20638,21 +21451,24 @@
         <v>145.6533333333333</v>
       </c>
       <c r="T271">
+        <v>145.45</v>
+      </c>
+      <c r="U271">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>-8.00393336154448E-05</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>-0.0001601720705675103</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>145.5</v>
@@ -20709,21 +21525,24 @@
         <v>145.6333333333333</v>
       </c>
       <c r="T272">
+        <v>145.4666666666667</v>
+      </c>
+      <c r="U272">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>-6.861063464846939E-05</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>-0.0001373123398021869</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>0.0003437607425231803</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>145.45</v>
@@ -20780,21 +21599,24 @@
         <v>145.6133333333333</v>
       </c>
       <c r="T273">
+        <v>145.4666666666667</v>
+      </c>
+      <c r="U273">
         <v>-0.08437499999999432</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>-9.148712318751695E-05</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>-0.0001373311970703783</v>
       </c>
-      <c r="W273">
+      <c r="X273">
         <v>-0.0003436426116839586</v>
       </c>
     </row>
-    <row r="274" spans="1:23">
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>145.4</v>
@@ -20851,21 +21673,24 @@
         <v>145.59</v>
       </c>
       <c r="T274">
+        <v>145.45</v>
+      </c>
+      <c r="U274">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>-0.0001143693673083535</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>-0.0001602417361046271</v>
       </c>
-      <c r="W274">
+      <c r="X274">
         <v>-0.0003437607425230693</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>145.45</v>
@@ -20922,21 +21747,24 @@
         <v>145.57</v>
       </c>
       <c r="T275">
+        <v>145.4333333333333</v>
+      </c>
+      <c r="U275">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>-0.0001029442042413953</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>-0.0001373720722576133</v>
       </c>
-      <c r="W275">
+      <c r="X275">
         <v>0.0003438789546079679</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>145.35</v>
@@ -20993,21 +21821,24 @@
         <v>145.5433333333334</v>
       </c>
       <c r="T276">
+        <v>145.4</v>
+      </c>
+      <c r="U276">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>-0.0001143942253793995</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>-0.0001831879279156068</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>-0.0006875214850463607</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>145.4</v>
@@ -21064,21 +21895,24 @@
         <v>145.5233333333333</v>
       </c>
       <c r="T277">
+        <v>145.4</v>
+      </c>
+      <c r="U277">
         <v>-0.1031250000000057</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>-0.0001144073129153433</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>-0.0001374161189108269</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>0.0003439972480221432</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>145.4</v>
@@ -21135,21 +21969,24 @@
         <v>145.5033333333333</v>
       </c>
       <c r="T278">
+        <v>145.3833333333333</v>
+      </c>
+      <c r="U278">
         <v>-0.09062499999998863</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>-0.0001029783631020242</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>-0.0001374350046959849</v>
       </c>
-      <c r="W278">
+      <c r="X278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>145.4</v>
@@ -21206,21 +22043,24 @@
         <v>145.4866666666667</v>
       </c>
       <c r="T279">
+        <v>145.4</v>
+      </c>
+      <c r="U279">
         <v>-0.07812500000002842</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>-0.0001029889687370611</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>-0.0001145449130600662</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>145.5</v>
@@ -21277,21 +22117,24 @@
         <v>145.48</v>
       </c>
       <c r="T280">
+        <v>145.4333333333333</v>
+      </c>
+      <c r="U280">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>-8.011078176672903E-05</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>-4.58232140403414E-05</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>0.0006877579092159358</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>145.55</v>
@@ -21348,21 +22191,24 @@
         <v>145.47</v>
       </c>
       <c r="T281">
+        <v>145.4833333333333</v>
+      </c>
+      <c r="U281">
         <v>-0.05312499999999432</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>-5.722657144158205E-05</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>-6.87379708550484E-05</v>
       </c>
-      <c r="W281">
+      <c r="X281">
         <v>0.0003436426116838476</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>145.5</v>
@@ -21419,21 +22265,24 @@
         <v>145.4566666666666</v>
       </c>
       <c r="T282">
+        <v>145.5166666666667</v>
+      </c>
+      <c r="U282">
         <v>-0.02812499999998863</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>-8.012178511351831E-05</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>-9.165692811818893E-05</v>
       </c>
-      <c r="W282">
+      <c r="X282">
         <v>-0.0003435245620062588</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>145.55</v>
@@ -21490,21 +22339,24 @@
         <v>145.4533333333333</v>
       </c>
       <c r="T283">
+        <v>145.5333333333333</v>
+      </c>
+      <c r="U283">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>-6.868131868120742E-05</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>-2.291633247009095E-05</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>0.0003436426116838476</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>145.6</v>
@@ -21561,21 +22413,24 @@
         <v>145.4633333333333</v>
       </c>
       <c r="T284">
+        <v>145.55</v>
+      </c>
+      <c r="U284">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>-5.723836344084798E-05</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>6.875057292154985E-05</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>0.0003435245620060368</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>145.55</v>
@@ -21632,21 +22487,24 @@
         <v>145.47</v>
       </c>
       <c r="T285">
+        <v>145.5666666666667</v>
+      </c>
+      <c r="U285">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>-5.724163985842967E-05</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>4.583056440332633E-05</v>
       </c>
-      <c r="W285">
+      <c r="X285">
         <v>-0.0003434065934064812</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>145.55</v>
@@ -21703,21 +22561,24 @@
         <v>145.4766666666667</v>
       </c>
       <c r="T286">
+        <v>145.5666666666667</v>
+      </c>
+      <c r="U286">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>-5.724491665137776E-05</v>
       </c>
-      <c r="V286">
+      <c r="W286">
         <v>4.582846405898344E-05</v>
       </c>
-      <c r="W286">
+      <c r="X286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>145.55</v>
@@ -21774,21 +22635,24 @@
         <v>145.48</v>
       </c>
       <c r="T287">
+        <v>145.55</v>
+      </c>
+      <c r="U287">
         <v>0.06249999999997158</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>-5.724819381947022E-05</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>2.291318195357661E-05</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>145.6</v>
@@ -21845,21 +22709,24 @@
         <v>145.49</v>
       </c>
       <c r="T288">
+        <v>145.5666666666667</v>
+      </c>
+      <c r="U288">
         <v>0.06874999999999432</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>-3.435088281766863E-05</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>6.87379708550484E-05</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>0.0003435245620060368</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B289">
         <v>145.65</v>
@@ -21916,21 +22783,24 @@
         <v>145.5066666666667</v>
       </c>
       <c r="T289">
+        <v>145.6</v>
+      </c>
+      <c r="U289">
         <v>0.06874999999999432</v>
       </c>
-      <c r="U289">
+      <c r="V289">
         <v>-2.290137522775737E-05</v>
       </c>
-      <c r="V289">
+      <c r="W289">
         <v>0.0001145554104520219</v>
       </c>
-      <c r="W289">
+      <c r="X289">
         <v>0.0003434065934067032</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B290">
         <v>145.75</v>
@@ -21987,21 +22857,24 @@
         <v>145.5266666666667</v>
       </c>
       <c r="T290">
+        <v>145.6666666666667</v>
+      </c>
+      <c r="U290">
         <v>0.078125</v>
       </c>
-      <c r="U290">
+      <c r="V290">
         <v>0</v>
       </c>
-      <c r="V290">
+      <c r="W290">
         <v>0.0001374507468157038</v>
       </c>
-      <c r="W290">
+      <c r="X290">
         <v>0.000686577411603162</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B291">
         <v>145.8</v>
@@ -22058,21 +22931,24 @@
         <v>145.5566666666667</v>
       </c>
       <c r="T291">
+        <v>145.7333333333333</v>
+      </c>
+      <c r="U291">
         <v>0.08750000000000568</v>
       </c>
-      <c r="U291">
+      <c r="V291">
         <v>1.145094985655071E-05</v>
       </c>
-      <c r="V291">
+      <c r="W291">
         <v>0.0002061477850567872</v>
       </c>
-      <c r="W291">
+      <c r="X291">
         <v>0.0003430531732420139</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B292">
         <v>145.8</v>
@@ -22129,21 +23005,24 @@
         <v>145.5833333333333</v>
       </c>
       <c r="T292">
+        <v>145.7833333333333</v>
+      </c>
+      <c r="U292">
         <v>0.08437499999999432</v>
       </c>
-      <c r="U292">
+      <c r="V292">
         <v>2.290163746687668E-05</v>
       </c>
-      <c r="V292">
+      <c r="W292">
         <v>0.0001832047083607513</v>
       </c>
-      <c r="W292">
+      <c r="X292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B293">
         <v>145.8</v>
@@ -22200,21 +23079,24 @@
         <v>145.61</v>
       </c>
       <c r="T293">
+        <v>145.8</v>
+      </c>
+      <c r="U293">
         <v>0.09062499999998863</v>
       </c>
-      <c r="U293">
+      <c r="V293">
         <v>2.290111299418918E-05</v>
       </c>
-      <c r="V293">
+      <c r="W293">
         <v>0.0001831711505437816</v>
       </c>
-      <c r="W293">
+      <c r="X293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B294">
         <v>145.75</v>
@@ -22271,21 +23153,24 @@
         <v>145.6333333333333</v>
       </c>
       <c r="T294">
+        <v>145.7833333333333</v>
+      </c>
+      <c r="U294">
         <v>0.09375</v>
       </c>
-      <c r="U294">
+      <c r="V294">
         <v>2.29005885450384E-05</v>
       </c>
-      <c r="V294">
+      <c r="W294">
         <v>0.0001602454043905244</v>
       </c>
-      <c r="W294">
+      <c r="X294">
         <v>-0.0003429355281208135</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B295">
         <v>145.75</v>
@@ -22342,21 +23227,24 @@
         <v>145.65</v>
       </c>
       <c r="T295">
+        <v>145.7666666666667</v>
+      </c>
+      <c r="U295">
         <v>0.09687500000001137</v>
       </c>
-      <c r="U295">
+      <c r="V295">
         <v>3.435009618013574E-05</v>
       </c>
-      <c r="V295">
+      <c r="W295">
         <v>0.0001144426642252228</v>
       </c>
-      <c r="W295">
+      <c r="X295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B296">
         <v>145.85</v>
@@ -22413,21 +23301,24 @@
         <v>145.67</v>
       </c>
       <c r="T296">
+        <v>145.7833333333333</v>
+      </c>
+      <c r="U296">
         <v>0.1062500000000171</v>
       </c>
-      <c r="U296">
+      <c r="V296">
         <v>3.434891629194858E-05</v>
       </c>
-      <c r="V296">
+      <c r="W296">
         <v>0.0001373154823207656</v>
       </c>
-      <c r="W296">
+      <c r="X296">
         <v>0.0006861063464835837</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B297">
         <v>145.95</v>
@@ -22484,21 +23375,24 @@
         <v>145.7</v>
       </c>
       <c r="T297">
+        <v>145.85</v>
+      </c>
+      <c r="U297">
         <v>0.1187500000000057</v>
       </c>
-      <c r="U297">
+      <c r="V297">
         <v>5.724622747349528E-05</v>
       </c>
-      <c r="V297">
+      <c r="W297">
         <v>0.0002059449440514616</v>
       </c>
-      <c r="W297">
+      <c r="X297">
         <v>0.0006856359273226253</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B298">
         <v>146.15</v>
@@ -22555,21 +23449,24 @@
         <v>145.74</v>
       </c>
       <c r="T298">
+        <v>145.9833333333333</v>
+      </c>
+      <c r="U298">
         <v>0.1281249999999829</v>
       </c>
-      <c r="U298">
+      <c r="V298">
         <v>0.0001259344911672677</v>
       </c>
-      <c r="V298">
+      <c r="W298">
         <v>0.0002745367192862336</v>
       </c>
-      <c r="W298">
+      <c r="X298">
         <v>0.001370332305584254</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B299">
         <v>146.25</v>
@@ -22626,21 +23523,24 @@
         <v>145.7833333333333</v>
       </c>
       <c r="T299">
+        <v>146.1166666666667</v>
+      </c>
+      <c r="U299">
         <v>0.140625</v>
       </c>
-      <c r="U299">
+      <c r="V299">
         <v>0.0001831543762449428</v>
       </c>
-      <c r="V299">
+      <c r="W299">
         <v>0.0002973331503592913</v>
       </c>
-      <c r="W299">
+      <c r="X299">
         <v>0.0006842285323298558</v>
       </c>
     </row>
-    <row r="300" spans="1:23">
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B300">
         <v>146.3</v>
@@ -22697,21 +23597,24 @@
         <v>145.8333333333333</v>
       </c>
       <c r="T300">
+        <v>146.2333333333333</v>
+      </c>
+      <c r="U300">
         <v>0.1593749999999829</v>
       </c>
-      <c r="U300">
+      <c r="V300">
         <v>0.0001945658891662205</v>
       </c>
-      <c r="V300">
+      <c r="W300">
         <v>0.0003429747341947564</v>
       </c>
-      <c r="W300">
+      <c r="X300">
         <v>0.0003418803418804295</v>
       </c>
     </row>
-    <row r="301" spans="1:23">
+    <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B301">
         <v>146.4</v>
@@ -22768,21 +23671,24 @@
         <v>145.89</v>
       </c>
       <c r="T301">
+        <v>146.3166666666667</v>
+      </c>
+      <c r="U301">
         <v>0.1812500000000057</v>
       </c>
-      <c r="U301">
+      <c r="V301">
         <v>0.000217413692485513</v>
       </c>
-      <c r="V301">
+      <c r="W301">
         <v>0.0003885714285711828</v>
       </c>
-      <c r="W301">
+      <c r="X301">
         <v>0.0006835269993163973</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B302">
         <v>146.45</v>
@@ -22839,21 +23745,24 @@
         <v>145.95</v>
       </c>
       <c r="T302">
+        <v>146.3833333333334</v>
+      </c>
+      <c r="U302">
         <v>0.2124999999999773</v>
       </c>
-      <c r="U302">
+      <c r="V302">
         <v>0.0002173664340465731</v>
       </c>
-      <c r="V302">
+      <c r="W302">
         <v>0.0004112687641373292</v>
       </c>
-      <c r="W302">
+      <c r="X302">
         <v>0.0003415300546447675</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:24">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B303">
         <v>146.7</v>
@@ -22910,21 +23819,24 @@
         <v>146.0233333333333</v>
       </c>
       <c r="T303">
+        <v>146.5166666666667</v>
+      </c>
+      <c r="U303">
         <v>0.2593750000000057</v>
       </c>
-      <c r="U303">
+      <c r="V303">
         <v>0.0002859463107205418</v>
       </c>
-      <c r="V303">
+      <c r="W303">
         <v>0.0005024551787142784</v>
       </c>
-      <c r="W303">
+      <c r="X303">
         <v>0.001707067258450046</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:24">
       <c r="A304" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B304">
         <v>146.6</v>
@@ -22981,21 +23893,24 @@
         <v>146.0866666666667</v>
       </c>
       <c r="T304">
+        <v>146.5833333333333</v>
+      </c>
+      <c r="U304">
         <v>0.2906249999999773</v>
       </c>
-      <c r="U304">
+      <c r="V304">
         <v>0.0002744299860495403</v>
       </c>
-      <c r="V304">
+      <c r="W304">
         <v>0.000433720638254087</v>
       </c>
-      <c r="W304">
+      <c r="X304">
         <v>-0.0006816632583502846</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:24">
       <c r="A305" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B305">
         <v>146.55</v>
@@ -23052,21 +23967,24 @@
         <v>146.14</v>
       </c>
       <c r="T305">
+        <v>146.6166666666667</v>
+      </c>
+      <c r="U305">
         <v>0.3093750000000171</v>
       </c>
-      <c r="U305">
+      <c r="V305">
         <v>0.0002514918036535807</v>
       </c>
-      <c r="V305">
+      <c r="W305">
         <v>0.0003650800894445805</v>
       </c>
-      <c r="W305">
+      <c r="X305">
         <v>-0.0003410641200544129</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:24">
       <c r="A306" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B306">
         <v>146.55</v>
@@ -23123,21 +24041,24 @@
         <v>146.19</v>
       </c>
       <c r="T306">
+        <v>146.5666666666667</v>
+      </c>
+      <c r="U306">
         <v>0.3093749999999886</v>
       </c>
-      <c r="U306">
+      <c r="V306">
         <v>0.0002742857142856714</v>
       </c>
-      <c r="V306">
+      <c r="W306">
         <v>0.0003421376762009487</v>
       </c>
-      <c r="W306">
+      <c r="X306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:24">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B307">
         <v>146.75</v>
@@ -23194,21 +24115,24 @@
         <v>146.2533333333334</v>
       </c>
       <c r="T307">
+        <v>146.6166666666667</v>
+      </c>
+      <c r="U307">
         <v>0.3125</v>
       </c>
-      <c r="U307">
+      <c r="V307">
         <v>0.0003084868150451392</v>
       </c>
-      <c r="V307">
+      <c r="W307">
         <v>0.0004332261668607007</v>
       </c>
-      <c r="W307">
+      <c r="X307">
         <v>0.001364721937905156</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:24">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B308">
         <v>146.7</v>
@@ -23265,21 +24189,24 @@
         <v>146.3133333333333</v>
       </c>
       <c r="T308">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="U308">
         <v>0.3062500000000057</v>
       </c>
-      <c r="U308">
+      <c r="V308">
         <v>0.0002969697661934223</v>
       </c>
-      <c r="V308">
+      <c r="W308">
         <v>0.0004102470598958963</v>
       </c>
-      <c r="W308">
+      <c r="X308">
         <v>-0.0003407155025554331</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:24">
       <c r="A309" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B309">
         <v>146.65</v>
@@ -23336,21 +24263,24 @@
         <v>146.3733333333333</v>
       </c>
       <c r="T309">
+        <v>146.7</v>
+      </c>
+      <c r="U309">
         <v>0.2843749999999829</v>
       </c>
-      <c r="U309">
+      <c r="V309">
         <v>0.00028546307820565</v>
       </c>
-      <c r="V309">
+      <c r="W309">
         <v>0.0004100788262633159</v>
       </c>
-      <c r="W309">
+      <c r="X309">
         <v>-0.0003408316291750868</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:24">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B310">
         <v>146.7</v>
@@ -23407,21 +24337,24 @@
         <v>146.4366666666666</v>
       </c>
       <c r="T310">
+        <v>146.6833333333333</v>
+      </c>
+      <c r="U310">
         <v>0.2562500000000227</v>
       </c>
-      <c r="U310">
+      <c r="V310">
         <v>0.0002739663478001919</v>
       </c>
-      <c r="V310">
+      <c r="W310">
         <v>0.000432683548915902</v>
       </c>
-      <c r="W310">
+      <c r="X310">
         <v>0.0003409478349811756</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:24">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B311">
         <v>146.65</v>
@@ -23478,21 +24411,24 @@
         <v>146.49</v>
       </c>
       <c r="T311">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="U311">
         <v>0.1937500000000227</v>
       </c>
-      <c r="U311">
+      <c r="V311">
         <v>0.0002510670348980781</v>
       </c>
-      <c r="V311">
+      <c r="W311">
         <v>0.00036420750722721</v>
       </c>
-      <c r="W311">
+      <c r="X311">
         <v>-0.0003408316291750868</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:24">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B312">
         <v>146.65</v>
@@ -23549,21 +24485,24 @@
         <v>146.5366666666667</v>
       </c>
       <c r="T312">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="U312">
         <v>0.1499999999999773</v>
       </c>
-      <c r="U312">
+      <c r="V312">
         <v>0.0002624132895217013</v>
       </c>
-      <c r="V312">
+      <c r="W312">
         <v>0.0003185655448612046</v>
       </c>
-      <c r="W312">
+      <c r="X312">
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:24">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B313">
         <v>146.65</v>
@@ -23620,21 +24559,24 @@
         <v>146.57</v>
       </c>
       <c r="T313">
+        <v>146.65</v>
+      </c>
+      <c r="U313">
         <v>0.1187499999999773</v>
       </c>
-      <c r="U313">
+      <c r="V313">
         <v>0.0002509381665549704</v>
       </c>
-      <c r="V313">
+      <c r="W313">
         <v>0.0002274743522667766</v>
       </c>
-      <c r="W313">
+      <c r="X313">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:24">
       <c r="A314" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B314">
         <v>146.7</v>
@@ -23691,21 +24633,24 @@
         <v>146.6</v>
       </c>
       <c r="T314">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="U314">
         <v>0.1031250000000057</v>
       </c>
-      <c r="U314">
+      <c r="V314">
         <v>0.0002508752123884239</v>
       </c>
-      <c r="V314">
+      <c r="W314">
         <v>0.0002046803575082023</v>
       </c>
-      <c r="W314">
+      <c r="X314">
         <v>0.0003409478349811756</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:24">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B315">
         <v>146.65</v>
@@ -23762,21 +24707,24 @@
         <v>146.6233333333333</v>
       </c>
       <c r="T315">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="U315">
         <v>0.06562499999998295</v>
       </c>
-      <c r="U315">
+      <c r="V315">
         <v>0.0002508122898023935</v>
       </c>
-      <c r="V315">
+      <c r="W315">
         <v>0.0001591632560256073</v>
       </c>
-      <c r="W315">
+      <c r="X315">
         <v>-0.0003408316291750868</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:24">
       <c r="A316" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B316">
         <v>146.65</v>
@@ -23833,21 +24781,24 @@
         <v>146.64</v>
       </c>
       <c r="T316">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="U316">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U316">
+      <c r="V316">
         <v>0.0002507493987711218</v>
       </c>
-      <c r="V316">
+      <c r="W316">
         <v>0.0001136699479391545</v>
       </c>
-      <c r="W316">
+      <c r="X316">
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:24">
       <c r="A317" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B317">
         <v>146.55</v>
@@ -23904,21 +24855,24 @@
         <v>146.6466666666666</v>
       </c>
       <c r="T317">
+        <v>146.6166666666667</v>
+      </c>
+      <c r="U317">
         <v>0.01562500000002842</v>
       </c>
-      <c r="U317">
+      <c r="V317">
         <v>0.0002278968538840243</v>
       </c>
-      <c r="V317">
+      <c r="W317">
         <v>4.546281142014941E-05</v>
       </c>
-      <c r="W317">
+      <c r="X317">
         <v>-0.0006818956699624623</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:24">
       <c r="A318" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B318">
         <v>146.3</v>
@@ -23975,21 +24929,24 @@
         <v>146.62</v>
       </c>
       <c r="T318">
+        <v>146.5</v>
+      </c>
+      <c r="U318">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U318">
+      <c r="V318">
         <v>0.0001594914501190647</v>
       </c>
-      <c r="V318">
+      <c r="W318">
         <v>-0.0001818429785878095</v>
       </c>
-      <c r="W318">
+      <c r="X318">
         <v>-0.001705902422381445</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:24">
       <c r="A319" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B319">
         <v>146.45</v>
@@ -24046,21 +25003,24 @@
         <v>146.61</v>
       </c>
       <c r="T319">
+        <v>146.4333333333334</v>
+      </c>
+      <c r="U319">
         <v>-0.03437500000001137</v>
       </c>
-      <c r="U319">
+      <c r="V319">
         <v>0.0001822468761747409</v>
       </c>
-      <c r="V319">
+      <c r="W319">
         <v>-6.820351930170165E-05</v>
       </c>
-      <c r="W319">
+      <c r="X319">
         <v>0.001025290498974485</v>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:24">
       <c r="A320" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B320">
         <v>146.45</v>
@@ -24117,21 +25077,24 @@
         <v>146.6033333333334</v>
       </c>
       <c r="T320">
+        <v>146.4</v>
+      </c>
+      <c r="U320">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U320">
+      <c r="V320">
         <v>0.000159436959765058</v>
       </c>
-      <c r="V320">
+      <c r="W320">
         <v>-4.547211422567532E-05</v>
       </c>
-      <c r="W320">
+      <c r="X320">
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:24">
       <c r="A321" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B321">
         <v>146.4</v>
@@ -24188,21 +25151,24 @@
         <v>146.5933333333333</v>
       </c>
       <c r="T321">
+        <v>146.4333333333333</v>
+      </c>
+      <c r="U321">
         <v>-0.07187500000000568</v>
       </c>
-      <c r="U321">
+      <c r="V321">
         <v>0.0001366384660053122</v>
       </c>
-      <c r="V321">
+      <c r="W321">
         <v>-6.821127304990071E-05</v>
       </c>
-      <c r="W321">
+      <c r="X321">
         <v>-0.0003414134516899203</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:24">
       <c r="A322" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B322">
         <v>146.4</v>
@@ -24259,15 +25225,18 @@
         <v>146.57</v>
       </c>
       <c r="T322">
+        <v>146.4166666666667</v>
+      </c>
+      <c r="U322">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U322">
+      <c r="V322">
         <v>0.000136619798485782</v>
       </c>
-      <c r="V322">
+      <c r="W322">
         <v>-0.0001591704943381123</v>
       </c>
-      <c r="W322">
+      <c r="X322">
         <v>0</v>
       </c>
     </row>
